--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,52 +436,97 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Turbine</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtinvestitionskosten</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Betriebskosten</t>
         </is>
       </c>
     </row>
@@ -489,2739 +534,4548 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>ACSA A27/225</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>225</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>3.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>13.5</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>30</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
         <v>25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1013931</v>
+      </c>
+      <c r="T2" t="n">
+        <v>20250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>ACSA A29/225</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>225</v>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
         <v>13</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
         <v>50</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
         <v>25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1013931</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>AWP A/S AWP 90/18</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>90</v>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>13</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
         <v>30</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
         <v>25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>406431</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>AWP A/S AWP 200/23</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
         <v>200</v>
       </c>
-      <c r="F5" t="n">
+      <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="N5" t="n">
         <v>13</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
         <v>30</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
         <v>25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Aeolia Windtech D2CF 200</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
         <v>200</v>
       </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
         <v>10.9</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
         <v>40.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
         <v>20</v>
+      </c>
+      <c r="S6" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AERODAN 75/15</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AERODAN 75/15</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
         <v>12</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>23</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
         <v>23</v>
+      </c>
+      <c r="S7" t="n">
+        <v>338931</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>AN Bonus 150/30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
         <v>150</v>
       </c>
-      <c r="F8" t="n">
+      <c r="M8" t="n">
         <v>3.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="N8" t="n">
         <v>12.5</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
         <v>40</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
         <v>25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T8" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Hummer H8.16-10KW</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
         <v>11</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
         <v>18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
         <v>25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>46431</v>
+      </c>
+      <c r="T9" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Hummer H13.2-20KW</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
         <v>20</v>
       </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
         <v>20</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
         <v>25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>91431</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Hummer H13.2-30KW</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
         <v>30</v>
       </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
         <v>10</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
         <v>30</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
         <v>25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>136431</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Hummer H17.0-50KW</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
         <v>50</v>
       </c>
-      <c r="F12" t="n">
+      <c r="M12" t="n">
         <v>3.5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="N12" t="n">
         <v>9.5</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
         <v>40</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
         <v>20</v>
+      </c>
+      <c r="S12" t="n">
+        <v>226431</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Hummer H21.0-60KW</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
         <v>60</v>
       </c>
-      <c r="F13" t="n">
+      <c r="M13" t="n">
         <v>2.5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="N13" t="n">
         <v>9</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
         <v>50</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
         <v>25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Hummer H21.0-100KW</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>100</v>
       </c>
-      <c r="F14" t="n">
+      <c r="M14" t="n">
         <v>2.5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="N14" t="n">
         <v>10.5</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
         <v>60</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
         <v>20</v>
+      </c>
+      <c r="S14" t="n">
+        <v>451431</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Hummer H25.0-60KW</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>60</v>
       </c>
-      <c r="F15" t="n">
+      <c r="M15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="N15" t="n">
         <v>7.5</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
         <v>50</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
         <v>20</v>
+      </c>
+      <c r="S15" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Hummer H25.0-100KW</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
         <v>100</v>
       </c>
-      <c r="F16" t="n">
+      <c r="M16" t="n">
         <v>2.5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="N16" t="n">
         <v>10</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
         <v>30</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
         <v>20</v>
+      </c>
+      <c r="S16" t="n">
+        <v>451431</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Hummer H25.0-200KW</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
         <v>200</v>
       </c>
-      <c r="F17" t="n">
+      <c r="M17" t="n">
         <v>2.5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="N17" t="n">
         <v>11.5</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
         <v>30</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
         <v>20</v>
+      </c>
+      <c r="S17" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Aria Libellula 20</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
         <v>20</v>
       </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
         <v>10</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="Q18" t="n">
         <v>20</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
         <v>25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>91431</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Aria Libellula 55+</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
         <v>57</v>
       </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
         <v>11</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="Q19" t="n">
         <v>31</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
         <v>25</v>
+      </c>
+      <c r="S19" t="n">
+        <v>257931</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5130</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Aria Libellula 60i</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
         <v>60</v>
       </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
         <v>11</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="P20" t="n">
         <v>2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="Q20" t="n">
         <v>31</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
         <v>25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>ATB Riva Calzoni ATB 60.28 DD</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
         <v>60</v>
       </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
         <v>7.5</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="Q21" t="n">
         <v>37</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
         <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Aventa AV-7</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
         <v>6.2</v>
       </c>
-      <c r="F22" t="n">
+      <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="N22" t="n">
         <v>6</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
         <v>18</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
         <v>14</v>
+      </c>
+      <c r="S22" t="n">
+        <v>29331</v>
+      </c>
+      <c r="T22" t="n">
+        <v>558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>b.ventus 250 kW</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
         <v>250</v>
       </c>
-      <c r="F23" t="n">
+      <c r="M23" t="n">
         <v>2.5</v>
       </c>
-      <c r="G23" t="n">
+      <c r="N23" t="n">
         <v>9</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
         <v>28</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
         <v>32</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T23" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Bergey BWC Excel 10</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
         <v>10</v>
       </c>
-      <c r="F24" t="n">
+      <c r="M24" t="n">
         <v>3.4</v>
       </c>
-      <c r="G24" t="n">
+      <c r="N24" t="n">
         <v>15.6</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
         <v>30</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
         <v>60</v>
+      </c>
+      <c r="S24" t="n">
+        <v>46431</v>
+      </c>
+      <c r="T24" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Bonus B23/150 Gittermast</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
         <v>150</v>
       </c>
-      <c r="F25" t="n">
+      <c r="M25" t="n">
         <v>3.5</v>
       </c>
-      <c r="G25" t="n">
+      <c r="N25" t="n">
         <v>12.5</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
         <v>40</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
         <v>25</v>
+      </c>
+      <c r="S25" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T25" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Cannon 26/250</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
         <v>250</v>
       </c>
-      <c r="F26" t="n">
+      <c r="M26" t="n">
         <v>4.8</v>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
         <v>42.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
         <v>28.9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T26" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>DWP D75/15</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
         <v>75</v>
       </c>
-      <c r="F27" t="n">
+      <c r="M27" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="n">
+      <c r="N27" t="n">
         <v>18</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
         <v>24</v>
       </c>
-      <c r="K27" t="n">
+      <c r="R27" t="n">
         <v>30</v>
+      </c>
+      <c r="S27" t="n">
+        <v>338931</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6750</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>DWP D110/19</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
         <v>110</v>
       </c>
-      <c r="F28" t="n">
+      <c r="M28" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="n">
+      <c r="N28" t="n">
         <v>18</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
         <v>24</v>
       </c>
-      <c r="K28" t="n">
+      <c r="R28" t="n">
         <v>30</v>
+      </c>
+      <c r="S28" t="n">
+        <v>496431</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9900</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>DWT Danish Wind Tech Windane 10</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>18.5</v>
       </c>
-      <c r="F29" t="n">
+      <c r="M29" t="n">
         <v>4.5</v>
       </c>
-      <c r="G29" t="n">
+      <c r="N29" t="n">
         <v>14</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="Q29" t="n">
         <v>18.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="R29" t="n">
         <v>30</v>
+      </c>
+      <c r="S29" t="n">
+        <v>84681</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1665</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>DANREGN Bonus 22</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
         <v>22</v>
       </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
         <v>13</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>10.0 m</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
         <v>24</v>
       </c>
-      <c r="K30" t="n">
+      <c r="R30" t="n">
         <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>100431</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1980</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>DANREGN Bonus 30</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
         <v>30</v>
       </c>
-      <c r="F31" t="n">
+      <c r="M31" t="n">
         <v>4</v>
       </c>
-      <c r="G31" t="n">
+      <c r="N31" t="n">
         <v>18</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>24</v>
       </c>
-      <c r="K31" t="n">
+      <c r="R31" t="n">
         <v>25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>136431</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>DANREGN Bonus 55</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
         <v>55</v>
       </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
         <v>13</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
         <v>24</v>
       </c>
-      <c r="K32" t="n">
+      <c r="R32" t="n">
         <v>28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>248931</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4950</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>DANREGN Bonus 95</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
         <v>95</v>
       </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="n">
         <v>13</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
         <v>24.5</v>
       </c>
-      <c r="K33" t="n">
+      <c r="R33" t="n">
         <v>28</v>
+      </c>
+      <c r="S33" t="n">
+        <v>428931</v>
+      </c>
+      <c r="T33" t="n">
+        <v>8550</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>DANREGN Bonus 100</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
         <v>100</v>
       </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
         <v>12</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
         <v>24.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="R34" t="n">
         <v>28</v>
+      </c>
+      <c r="S34" t="n">
+        <v>451431</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Enercon E-16</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
         <v>55</v>
       </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
         <v>12</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
         <v>28.5</v>
       </c>
-      <c r="K35" t="n">
+      <c r="R35" t="n">
         <v>25</v>
+      </c>
+      <c r="S35" t="n">
+        <v>248931</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4950</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Enercon E-17</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
         <v>80</v>
       </c>
-      <c r="F36" t="n">
+      <c r="M36" t="n">
         <v>2.5</v>
       </c>
-      <c r="G36" t="n">
+      <c r="N36" t="n">
         <v>13</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
         <v>30.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="R36" t="n">
         <v>25</v>
+      </c>
+      <c r="S36" t="n">
+        <v>361431</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Greenstorm GS 21 S</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
         <v>60</v>
       </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
         <v>36</v>
       </c>
-      <c r="K37" t="n">
+      <c r="R37" t="n">
         <v>25</v>
+      </c>
+      <c r="S37" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>WEG AGW 100</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
         <v>95</v>
       </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
         <v>12</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
         <v>37</v>
       </c>
-      <c r="K38" t="n">
+      <c r="R38" t="n">
         <v>25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>428931</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8550</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Iskra AT5-1</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
         <v>5</v>
       </c>
-      <c r="F39" t="n">
+      <c r="M39" t="n">
         <v>2.5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="N39" t="n">
         <v>12</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
         <v>15</v>
       </c>
-      <c r="K39" t="n">
+      <c r="R39" t="n">
         <v>60</v>
+      </c>
+      <c r="S39" t="n">
+        <v>23931</v>
+      </c>
+      <c r="T39" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Jacobs Wind Electric 31-20</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
         <v>20</v>
       </c>
-      <c r="F40" t="n">
+      <c r="M40" t="n">
         <v>3.5</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
         <v>48.5</v>
       </c>
-      <c r="K40" t="n">
+      <c r="R40" t="n">
         <v>30</v>
+      </c>
+      <c r="S40" t="n">
+        <v>91431</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" t="n">
+        <v>39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>39</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Krogmann 15-50</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
         <v>50</v>
       </c>
-      <c r="F41" t="n">
+      <c r="M41" t="n">
         <v>2.5</v>
       </c>
-      <c r="G41" t="n">
+      <c r="N41" t="n">
         <v>14</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
         <v>37</v>
       </c>
-      <c r="K41" t="n">
+      <c r="R41" t="n">
         <v>25</v>
+      </c>
+      <c r="S41" t="n">
+        <v>226431</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Kuriant KE 18/4EH</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
         <v>18</v>
       </c>
-      <c r="F42" t="n">
+      <c r="M42" t="n">
         <v>3.5</v>
       </c>
-      <c r="G42" t="n">
+      <c r="N42" t="n">
         <v>23</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
         <v>20</v>
       </c>
-      <c r="K42" t="n">
+      <c r="R42" t="n">
         <v>25</v>
+      </c>
+      <c r="S42" t="n">
+        <v>82431</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1620</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" t="n">
+        <v>41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>41</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Leitwind LTW42 250</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
         <v>250</v>
       </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
         <v>9</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
         <v>19.47</v>
       </c>
-      <c r="K43" t="n">
+      <c r="R43" t="n">
         <v>25</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T43" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>MAN Aeroman 11/11</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
         <v>11</v>
       </c>
-      <c r="F44" t="n">
+      <c r="M44" t="n">
         <v>3.8</v>
       </c>
-      <c r="G44" t="n">
+      <c r="N44" t="n">
         <v>8.5</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="P44" t="n">
         <v>2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="Q44" t="n">
         <v>10</v>
       </c>
-      <c r="K44" t="n">
+      <c r="R44" t="n">
         <v>24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>50931</v>
+      </c>
+      <c r="T44" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="H45" t="n">
+        <v>43</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>Nordex N27/150</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
         <v>150</v>
       </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="n">
         <v>15.5</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
         <v>50</v>
       </c>
-      <c r="K45" t="n">
+      <c r="R45" t="n">
         <v>25</v>
+      </c>
+      <c r="S45" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T45" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n">
+        <v>44</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>Nordex N27/250</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
         <v>250</v>
       </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
         <v>15.5</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
         <v>50</v>
       </c>
-      <c r="K46" t="n">
+      <c r="R46" t="n">
         <v>25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T46" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Nordex N29</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
         <v>250</v>
       </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
         <v>15</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
         <v>50</v>
       </c>
-      <c r="K47" t="n">
+      <c r="R47" t="n">
         <v>25</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T47" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n">
+        <v>46</v>
+      </c>
+      <c r="G48" t="n">
+        <v>46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Nordtank NTK 150</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
         <v>150</v>
       </c>
-      <c r="F48" t="n">
+      <c r="M48" t="n">
         <v>4</v>
       </c>
-      <c r="G48" t="n">
+      <c r="N48" t="n">
         <v>13.5</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
         <v>32.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="R48" t="n">
         <v>25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T48" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="n">
+        <v>47</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Nordtank NTK 200</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
         <v>200</v>
       </c>
-      <c r="F49" t="n">
+      <c r="M49" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="n">
+      <c r="N49" t="n">
         <v>12.5</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
         <v>30</v>
       </c>
-      <c r="K49" t="n">
+      <c r="R49" t="n">
         <v>25</v>
+      </c>
+      <c r="S49" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T49" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
+      </c>
+      <c r="F50" t="n">
+        <v>48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>48</v>
+      </c>
+      <c r="H50" t="n">
+        <v>48</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>NPS Northern Power NPS 60-24</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
         <v>60</v>
       </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
         <v>11</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
         <v>37</v>
       </c>
-      <c r="K50" t="n">
+      <c r="R50" t="n">
         <v>25</v>
+      </c>
+      <c r="S50" t="n">
+        <v>271431</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="n">
+        <v>49</v>
+      </c>
+      <c r="G51" t="n">
+        <v>49</v>
+      </c>
+      <c r="H51" t="n">
+        <v>49</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>NPS Northern Power NPS 100C-24</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
         <v>100</v>
       </c>
-      <c r="F51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="n">
         <v>12</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
         <v>37</v>
       </c>
-      <c r="K51" t="n">
+      <c r="R51" t="n">
         <v>25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>451431</v>
+      </c>
+      <c r="T51" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Norwin 24 STALL 150</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
         <v>150</v>
       </c>
-      <c r="F52" t="n">
+      <c r="M52" t="n">
         <v>4</v>
       </c>
-      <c r="G52" t="n">
+      <c r="N52" t="n">
         <v>14</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
         <v>30</v>
       </c>
-      <c r="K52" t="n">
+      <c r="R52" t="n">
         <v>25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T52" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
+        <v>51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
+        <v>51</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Norwin 29 STALL 225</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
         <v>225</v>
       </c>
-      <c r="F53" t="n">
+      <c r="M53" t="n">
         <v>4</v>
       </c>
-      <c r="G53" t="n">
+      <c r="N53" t="n">
         <v>14</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
         <v>40</v>
       </c>
-      <c r="K53" t="n">
+      <c r="R53" t="n">
         <v>25</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1013931</v>
+      </c>
+      <c r="T53" t="n">
+        <v>20250</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" t="n">
+        <v>52</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Ropatec 3kW</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="n">
         <v>4</v>
       </c>
-      <c r="G54" t="n">
+      <c r="N54" t="n">
         <v>13</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
         <v>10.9</v>
       </c>
-      <c r="K54" t="n">
+      <c r="R54" t="n">
         <v>17</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14931</v>
+      </c>
+      <c r="T54" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" t="n">
+        <v>53</v>
+      </c>
+      <c r="G55" t="n">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n">
+        <v>53</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Siva 250/50</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
         <v>250</v>
       </c>
-      <c r="F55" t="n">
+      <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="G55" t="n">
+      <c r="N55" t="n">
         <v>14</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
         <v>48.4</v>
       </c>
-      <c r="K55" t="n">
+      <c r="R55" t="n">
         <v>25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1126431</v>
+      </c>
+      <c r="T55" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>54</v>
+      </c>
+      <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>54</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Tacke TW 45</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
         <v>45</v>
       </c>
-      <c r="F56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="n">
         <v>12.5</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
         <v>24</v>
       </c>
-      <c r="K56" t="n">
+      <c r="R56" t="n">
         <v>20</v>
+      </c>
+      <c r="S56" t="n">
+        <v>203931</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4050</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55</v>
+      </c>
+      <c r="H57" t="n">
+        <v>55</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Tacke TW 80</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
         <v>80</v>
       </c>
-      <c r="F57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
         <v>11.5</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
         <v>40</v>
       </c>
-      <c r="K57" t="n">
+      <c r="R57" t="n">
         <v>25</v>
+      </c>
+      <c r="S57" t="n">
+        <v>361431</v>
+      </c>
+      <c r="T57" t="n">
+        <v>7200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
+      </c>
+      <c r="F58" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" t="n">
+        <v>56</v>
+      </c>
+      <c r="H58" t="n">
+        <v>56</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Tellus T-1780</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
         <v>80</v>
       </c>
-      <c r="F58" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
         <v>14</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
         <v>40.8</v>
       </c>
-      <c r="K58" t="n">
+      <c r="R58" t="n">
         <v>28</v>
+      </c>
+      <c r="S58" t="n">
+        <v>361431</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7200</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
+      </c>
+      <c r="F59" t="n">
+        <v>57</v>
+      </c>
+      <c r="G59" t="n">
+        <v>57</v>
+      </c>
+      <c r="H59" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Wind Turbine Company WTC 100</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
         <v>100</v>
       </c>
-      <c r="F59" t="n">
+      <c r="M59" t="n">
         <v>2.5</v>
       </c>
-      <c r="G59" t="n">
+      <c r="N59" t="n">
         <v>11</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="I59" t="n">
+      <c r="P59" t="n">
         <v>2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="Q59" t="n">
         <v>50</v>
       </c>
-      <c r="K59" t="n">
+      <c r="R59" t="n">
         <v>20</v>
+      </c>
+      <c r="S59" t="n">
+        <v>451431</v>
+      </c>
+      <c r="T59" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
+      </c>
+      <c r="F60" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" t="n">
+        <v>58</v>
+      </c>
+      <c r="H60" t="n">
+        <v>58</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>TUGE 10 kW</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
-        <v>3</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="n">
         <v>11</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
         <v>22</v>
       </c>
-      <c r="K60" t="n">
+      <c r="R60" t="n">
         <v>25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>46431</v>
+      </c>
+      <c r="T60" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" t="n">
+        <v>59</v>
+      </c>
+      <c r="G61" t="n">
+        <v>59</v>
+      </c>
+      <c r="H61" t="n">
+        <v>59</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Venturicon 3.ZERO</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
         <v>3.2</v>
       </c>
-      <c r="F61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
         <v>18</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="I61" t="n">
+      <c r="P61" t="n">
         <v>5</v>
       </c>
-      <c r="J61" t="n">
+      <c r="Q61" t="n">
         <v>4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="R61" t="n">
         <v>25</v>
+      </c>
+      <c r="S61" t="n">
+        <v>15831</v>
+      </c>
+      <c r="T61" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" t="n">
+        <v>60</v>
+      </c>
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>60</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Vergnet GEV MP C 200/30</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
         <v>200</v>
       </c>
-      <c r="F62" t="n">
+      <c r="M62" t="n">
         <v>3.5</v>
       </c>
-      <c r="G62" t="n">
+      <c r="N62" t="n">
         <v>12</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="I62" t="n">
+      <c r="P62" t="n">
         <v>2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="Q62" t="n">
         <v>60</v>
       </c>
-      <c r="K62" t="n">
+      <c r="R62" t="n">
         <v>25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T62" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>61</v>
+      </c>
+      <c r="G63" t="n">
+        <v>61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Vergnet GEV MP C 200/32</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
         <v>200</v>
       </c>
-      <c r="F63" t="n">
+      <c r="M63" t="n">
         <v>3.5</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="I63" t="n">
+      <c r="P63" t="n">
         <v>2</v>
       </c>
-      <c r="J63" t="n">
+      <c r="Q63" t="n">
         <v>60</v>
       </c>
-      <c r="K63" t="n">
+      <c r="R63" t="n">
         <v>25</v>
+      </c>
+      <c r="S63" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T63" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62</v>
+      </c>
+      <c r="G64" t="n">
+        <v>62</v>
+      </c>
+      <c r="H64" t="n">
+        <v>62</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Vestas V29</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
         <v>225</v>
       </c>
-      <c r="F64" t="n">
+      <c r="M64" t="n">
         <v>3.5</v>
       </c>
-      <c r="G64" t="n">
+      <c r="N64" t="n">
         <v>14</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
         <v>51</v>
       </c>
-      <c r="K64" t="n">
+      <c r="R64" t="n">
         <v>25</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1013931</v>
+      </c>
+      <c r="T64" t="n">
+        <v>20250</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
+      <c r="F65" t="n">
+        <v>63</v>
+      </c>
+      <c r="G65" t="n">
+        <v>63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>63</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>WESPA 200/29</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
         <v>200</v>
       </c>
-      <c r="F65" t="n">
+      <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="G65" t="n">
+      <c r="N65" t="n">
         <v>14</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
         <v>50</v>
       </c>
-      <c r="K65" t="n">
+      <c r="R65" t="n">
         <v>25</v>
+      </c>
+      <c r="S65" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T65" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>64</v>
+      </c>
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
+        <v>64</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>WESPA 200/31</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
         <v>200</v>
       </c>
-      <c r="F66" t="n">
+      <c r="M66" t="n">
         <v>4</v>
       </c>
-      <c r="G66" t="n">
+      <c r="N66" t="n">
         <v>13.5</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
         <v>50</v>
       </c>
-      <c r="K66" t="n">
+      <c r="R66" t="n">
         <v>25</v>
+      </c>
+      <c r="S66" t="n">
+        <v>901431</v>
+      </c>
+      <c r="T66" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
+      <c r="F67" t="n">
+        <v>65</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65</v>
+      </c>
+      <c r="H67" t="n">
+        <v>65</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Wind World W2700</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
         <v>150</v>
       </c>
-      <c r="F67" t="n">
+      <c r="M67" t="n">
         <v>2</v>
       </c>
-      <c r="G67" t="n">
+      <c r="N67" t="n">
         <v>11</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
         <v>41</v>
       </c>
-      <c r="K67" t="n">
+      <c r="R67" t="n">
         <v>25</v>
+      </c>
+      <c r="S67" t="n">
+        <v>676431</v>
+      </c>
+      <c r="T67" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+      <c r="F68" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" t="n">
+        <v>66</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Windspot 7.5Kw</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
         <v>7.5</v>
       </c>
-      <c r="F68" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
         <v>12</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
         <v>18</v>
       </c>
-      <c r="K68" t="n">
+      <c r="R68" t="n">
         <v>20</v>
+      </c>
+      <c r="S68" t="n">
+        <v>35181</v>
+      </c>
+      <c r="T68" t="n">
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,97 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Gesamtinvestitionskosten</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Betriebskosten</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>max Flauten time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Battery Capacity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>number of batteries</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>battery cost</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LCOE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Flautenzeit</t>
         </is>
       </c>
     </row>
@@ -521,54 +541,66 @@
           <t>ACSA A27/225</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>225</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>3.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>13.5</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
         <v>30</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>25</v>
       </c>
-      <c r="K2" t="n">
-        <v>1013931</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>1030679</v>
+      </c>
+      <c r="N2" t="n">
         <v>20250</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>91</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>27.3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>6</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>10200</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -577,54 +609,66 @@
           <t>ACSA A29/225</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>225</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>50</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>25</v>
       </c>
-      <c r="K3" t="n">
-        <v>1013931</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>1034079</v>
+      </c>
+      <c r="N3" t="n">
         <v>20250</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>135</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>40.5</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>8</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>13600</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="4">
@@ -633,54 +677,66 @@
           <t>AWP A/S AWP 90/18</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>90</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
         <v>30</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>25</v>
       </c>
-      <c r="K4" t="n">
-        <v>406431</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>426579</v>
+      </c>
+      <c r="N4" t="n">
         <v>8100</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>135</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>40.5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>13600</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -689,54 +745,66 @@
           <t>AWP A/S AWP 200/23</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>200</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>13</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>30</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>25</v>
       </c>
-      <c r="K5" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>921579</v>
+      </c>
+      <c r="N5" t="n">
         <v>18000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>135</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>40.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>13600</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="T5" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="6">
@@ -745,54 +813,66 @@
           <t>Aeolia Windtech D2CF 200</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>200</v>
       </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
         <v>10.9</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>40.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>20</v>
       </c>
-      <c r="K6" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>914779</v>
+      </c>
+      <c r="N6" t="n">
         <v>18000</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>57</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>17.1</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>6800</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -801,54 +881,66 @@
           <t>AERODAN 75/15</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>75</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
         <v>23</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>23</v>
       </c>
-      <c r="K7" t="n">
-        <v>338931</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>364179</v>
+      </c>
+      <c r="N7" t="n">
         <v>6750</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>173</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>51.9</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>11</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>18700</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T7" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -857,54 +949,66 @@
           <t>AN Bonus 150/30</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>150</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>3.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>12.5</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>40</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>25</v>
       </c>
-      <c r="K8" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>693179</v>
+      </c>
+      <c r="N8" t="n">
         <v>13500</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>91</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>27.3</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>10200</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T8" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -913,54 +1017,66 @@
           <t>Hummer H8.16-10KW</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
         <v>18</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>25</v>
       </c>
-      <c r="K9" t="n">
-        <v>46431</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>66579</v>
+      </c>
+      <c r="N9" t="n">
         <v>900</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>135</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>40.5</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>8</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>13600</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T9" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -969,54 +1085,66 @@
           <t>Hummer H13.2-20KW</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>20</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>25</v>
       </c>
-      <c r="K10" t="n">
-        <v>91431</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>104779</v>
+      </c>
+      <c r="N10" t="n">
         <v>1800</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>57</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>17.1</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>6800</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T10" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1025,54 +1153,66 @@
           <t>Hummer H13.2-30KW</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>30</v>
       </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>30</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>25</v>
       </c>
-      <c r="K11" t="n">
-        <v>136431</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>149779</v>
+      </c>
+      <c r="N11" t="n">
         <v>2700</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>57</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>17.1</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>6800</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T11" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -1081,54 +1221,66 @@
           <t>Hummer H17.0-50KW</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>50</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>3.5</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>9.5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
         <v>40</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>20</v>
       </c>
-      <c r="K12" t="n">
-        <v>226431</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
+        <v>243179</v>
+      </c>
+      <c r="N12" t="n">
         <v>4500</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>91</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>27.3</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>10200</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1137,54 +1289,66 @@
           <t>Hummer H21.0-60KW</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>60</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>2.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>50</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>283079</v>
+      </c>
+      <c r="N13" t="n">
         <v>5400</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>42</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>12.6</v>
       </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
         <v>5100</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T13" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -1193,54 +1357,66 @@
           <t>Hummer H21.0-100KW</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>100</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>2.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>10.5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
         <v>60</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>20</v>
       </c>
-      <c r="K14" t="n">
-        <v>451431</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>463079</v>
+      </c>
+      <c r="N14" t="n">
         <v>9000</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>42</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>12.6</v>
       </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
         <v>5100</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T14" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1249,54 +1425,66 @@
           <t>Hummer H25.0-60KW</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>60</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>2.5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>7.5</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
         <v>50</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>20</v>
       </c>
-      <c r="K15" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>283079</v>
+      </c>
+      <c r="N15" t="n">
         <v>5400</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>42</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>12.6</v>
       </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>5100</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T15" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1305,54 +1493,66 @@
           <t>Hummer H25.0-100KW</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>100</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>2.5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>10</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
         <v>30</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>20</v>
       </c>
-      <c r="K16" t="n">
-        <v>451431</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
+        <v>463079</v>
+      </c>
+      <c r="N16" t="n">
         <v>9000</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>42</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>12.6</v>
       </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
         <v>5100</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1361,54 +1561,66 @@
           <t>Hummer H25.0-200KW</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
         <v>200</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>11.5</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
         <v>30</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
+        <v>913079</v>
+      </c>
+      <c r="N17" t="n">
         <v>18000</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>42</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>12.6</v>
       </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
         <v>5100</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -1417,54 +1629,66 @@
           <t>Aria Libellula 20</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
         <v>20</v>
       </c>
-      <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>20</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>25</v>
       </c>
-      <c r="K18" t="n">
-        <v>91431</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>104779</v>
+      </c>
+      <c r="N18" t="n">
         <v>1800</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>57</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>17.1</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>6800</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1473,54 +1697,66 @@
           <t>Aria Libellula 55+</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>57</v>
       </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
         <v>11</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>31</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>25</v>
       </c>
-      <c r="K19" t="n">
-        <v>257931</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
+        <v>274679</v>
+      </c>
+      <c r="N19" t="n">
         <v>5130</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>91</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>27.3</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>6</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>10200</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T19" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1529,54 +1765,66 @@
           <t>Aria Libellula 60i</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>60</v>
       </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
         <v>11</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>31</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>25</v>
       </c>
-      <c r="K20" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>284779</v>
+      </c>
+      <c r="N20" t="n">
         <v>5400</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>59</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>17.7</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>4</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>6800</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T20" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -1585,54 +1833,66 @@
           <t>ATB Riva Calzoni ATB 60.28 DD</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>60</v>
       </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
         <v>7.5</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>37</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>284779</v>
+      </c>
+      <c r="N21" t="n">
         <v>5400</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>57</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>17.1</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>6800</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T21" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -1641,54 +1901,66 @@
           <t>Aventa AV-7</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
         <v>6.2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>18</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>14</v>
       </c>
-      <c r="K22" t="n">
-        <v>29331</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
+        <v>39279</v>
+      </c>
+      <c r="N22" t="n">
         <v>558</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>22</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>6.6</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>3400</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1697,54 +1969,66 @@
           <t>b.ventus 250 kW</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>250</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>2.5</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>9</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
         <v>28</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>32</v>
       </c>
-      <c r="K23" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
+        <v>1138079</v>
+      </c>
+      <c r="N23" t="n">
         <v>22500</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>42</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>12.6</v>
       </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
         <v>5100</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T23" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -1753,54 +2037,66 @@
           <t>Bergey BWC Excel 10</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>3.4</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>15.6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
         <v>30</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>60</v>
       </c>
-      <c r="K24" t="n">
-        <v>46431</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
+        <v>63179</v>
+      </c>
+      <c r="N24" t="n">
         <v>900</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>95</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>28.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>6</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>10200</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T24" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -1809,54 +2105,66 @@
           <t>Bonus B23/150 Gittermast</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>150</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>3.5</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>12.5</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
         <v>40</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>25</v>
       </c>
-      <c r="K25" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
+        <v>693179</v>
+      </c>
+      <c r="N25" t="n">
         <v>13500</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>91</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>27.3</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>6</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>10200</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T25" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -1865,52 +2173,64 @@
           <t>Cannon 26/250</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>250</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>4.8</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
         <v>42.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>28.9</v>
       </c>
-      <c r="K26" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
+        <v>1151679</v>
+      </c>
+      <c r="N26" t="n">
         <v>22500</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>173</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>51.9</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>11</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>18700</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T26" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="27">
@@ -1919,54 +2239,66 @@
           <t>DWP D75/15</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>75</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>18</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
         <v>24</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>30</v>
       </c>
-      <c r="K27" t="n">
-        <v>338931</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
+        <v>364179</v>
+      </c>
+      <c r="N27" t="n">
         <v>6750</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>173</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>51.9</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>11</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>18700</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="T27" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1975,54 +2307,66 @@
           <t>DWP D110/19</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
         <v>110</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>4</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>18</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
         <v>24</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>30</v>
       </c>
-      <c r="K28" t="n">
-        <v>496431</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
+        <v>516579</v>
+      </c>
+      <c r="N28" t="n">
         <v>9900</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>135</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>40.5</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>8</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>13600</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T28" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="29">
@@ -2031,54 +2375,66 @@
           <t>DWT Danish Wind Tech Windane 10</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
         <v>18.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>4.5</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>14</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>18.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>30</v>
       </c>
-      <c r="K29" t="n">
-        <v>84681</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>108229</v>
+      </c>
+      <c r="N29" t="n">
         <v>1665</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>162</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>48.6</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>10</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>17000</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T29" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="30">
@@ -2087,54 +2443,66 @@
           <t>DANREGN Bonus 22</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
         <v>22</v>
       </c>
-      <c r="E30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
         <v>13</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>10.0 m</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
         <v>24</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>100431</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
+        <v>120579</v>
+      </c>
+      <c r="N30" t="n">
         <v>1980</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>135</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>40.5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>8</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>13600</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -2143,54 +2511,66 @@
           <t>DANREGN Bonus 30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
         <v>30</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>4</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>18</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
         <v>24</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>25</v>
       </c>
-      <c r="K31" t="n">
-        <v>136431</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
+        <v>156579</v>
+      </c>
+      <c r="N31" t="n">
         <v>2700</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>135</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>40.5</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>8</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>13600</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T31" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -2199,54 +2579,66 @@
           <t>DANREGN Bonus 55</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
         <v>55</v>
       </c>
-      <c r="E32" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
         <v>13</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
         <v>24</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>28</v>
       </c>
-      <c r="K32" t="n">
-        <v>248931</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
+        <v>262279</v>
+      </c>
+      <c r="N32" t="n">
         <v>4950</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>59</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>17.7</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>6800</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T32" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -2255,54 +2647,66 @@
           <t>DANREGN Bonus 95</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
         <v>95</v>
       </c>
-      <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
         <v>13</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
         <v>24.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>28</v>
       </c>
-      <c r="K33" t="n">
-        <v>428931</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
+        <v>442279</v>
+      </c>
+      <c r="N33" t="n">
         <v>8550</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>59</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>17.7</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>6800</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T33" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -2311,54 +2715,66 @@
           <t>DANREGN Bonus 100</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
         <v>100</v>
       </c>
-      <c r="E34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
         <v>12</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
         <v>24.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>28</v>
       </c>
-      <c r="K34" t="n">
-        <v>451431</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
+        <v>464779</v>
+      </c>
+      <c r="N34" t="n">
         <v>9000</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>59</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>17.7</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>6800</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="35">
@@ -2367,54 +2783,66 @@
           <t>Enercon E-16</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
         <v>55</v>
       </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
         <v>12</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
         <v>28.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>25</v>
       </c>
-      <c r="K35" t="n">
-        <v>248931</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>262279</v>
+      </c>
+      <c r="N35" t="n">
         <v>4950</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>57</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>17.1</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>6800</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T35" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="36">
@@ -2423,54 +2851,66 @@
           <t>Enercon E-17</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
         <v>80</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>2.5</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>13</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
         <v>30.5</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>25</v>
       </c>
-      <c r="K36" t="n">
-        <v>361431</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
+        <v>373079</v>
+      </c>
+      <c r="N36" t="n">
         <v>7200</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>42</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>12.6</v>
       </c>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
         <v>5100</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -2479,54 +2919,66 @@
           <t>Greenstorm GS 21 S</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
         <v>60</v>
       </c>
-      <c r="E37" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
         <v>36</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>25</v>
       </c>
-      <c r="K37" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
+        <v>284779</v>
+      </c>
+      <c r="N37" t="n">
         <v>5400</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>57</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>17.1</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>6800</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -2535,54 +2987,66 @@
           <t>WEG AGW 100</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
         <v>95</v>
       </c>
-      <c r="E38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
         <v>12</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
         <v>37</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>25</v>
       </c>
-      <c r="K38" t="n">
-        <v>428931</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
+        <v>442279</v>
+      </c>
+      <c r="N38" t="n">
         <v>8550</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>57</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>17.1</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>6800</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T38" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="39">
@@ -2591,54 +3055,66 @@
           <t>Iskra AT5-1</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
         <v>5</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>2.5</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>12</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
         <v>15</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>60</v>
       </c>
-      <c r="K39" t="n">
-        <v>23931</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
+        <v>40679</v>
+      </c>
+      <c r="N39" t="n">
         <v>450</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>91</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>27.3</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>6</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>10200</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T39" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -2647,52 +3123,64 @@
           <t>Jacobs Wind Electric 31-20</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
         <v>20</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>3.5</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
         <v>48.5</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>30</v>
       </c>
-      <c r="K40" t="n">
-        <v>91431</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
+        <v>108179</v>
+      </c>
+      <c r="N40" t="n">
         <v>1800</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>91</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>27.3</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>6</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>10200</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T40" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -2701,54 +3189,66 @@
           <t>Krogmann 15-50</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
         <v>50</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>2.5</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>14</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>37</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>25</v>
       </c>
-      <c r="K41" t="n">
-        <v>226431</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
+        <v>243179</v>
+      </c>
+      <c r="N41" t="n">
         <v>4500</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>91</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>27.3</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>6</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>10200</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T41" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -2757,54 +3257,66 @@
           <t>Kuriant KE 18/4EH</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
         <v>18</v>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>3.5</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>23</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
         <v>20</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>25</v>
       </c>
-      <c r="K42" t="n">
-        <v>82431</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
+        <v>99179</v>
+      </c>
+      <c r="N42" t="n">
         <v>1620</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>91</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>27.3</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>10200</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T42" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -2813,54 +3325,66 @@
           <t>Leitwind LTW42 250</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
         <v>250</v>
       </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
         <v>9</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
         <v>19.47</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>25</v>
       </c>
-      <c r="K43" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
+        <v>1139779</v>
+      </c>
+      <c r="N43" t="n">
         <v>22500</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>57</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>17.1</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>4</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>6800</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T43" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="44">
@@ -2869,54 +3393,66 @@
           <t>MAN Aeroman 11/11</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>3.8</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>8.5</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>10</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>24</v>
       </c>
-      <c r="K44" t="n">
-        <v>50931</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
+        <v>67679</v>
+      </c>
+      <c r="N44" t="n">
         <v>990</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>95</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>28.5</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>6</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>10200</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T44" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="45">
@@ -2925,54 +3461,66 @@
           <t>Nordex N27/150</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
         <v>150</v>
       </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.5</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
         <v>50</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>25</v>
       </c>
-      <c r="K45" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
+        <v>696579</v>
+      </c>
+      <c r="N45" t="n">
         <v>13500</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>135</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>40.5</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>8</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>13600</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T45" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="46">
@@ -2981,54 +3529,66 @@
           <t>Nordex N27/250</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
         <v>250</v>
       </c>
-      <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.5</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
         <v>50</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>25</v>
       </c>
-      <c r="K46" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
+        <v>1146579</v>
+      </c>
+      <c r="N46" t="n">
         <v>22500</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>135</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>40.5</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>8</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>13600</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T46" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="47">
@@ -3037,54 +3597,66 @@
           <t>Nordex N29</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
         <v>250</v>
       </c>
-      <c r="E47" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
         <v>15</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
         <v>50</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>25</v>
       </c>
-      <c r="K47" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
+        <v>1149979</v>
+      </c>
+      <c r="N47" t="n">
         <v>22500</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>162</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>48.6</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>10</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>17000</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T47" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="48">
@@ -3093,47 +3665,67 @@
           <t xml:space="preserve">Nordtank NTK 150 </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
         <v>150</v>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>4</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>13.5</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
         <v>32.5</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>25</v>
       </c>
-      <c r="K48" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
+        <v>696579</v>
+      </c>
+      <c r="N48" t="n">
         <v>13500</v>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>135</v>
+      </c>
+      <c r="P48" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>13600</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T48" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3141,54 +3733,66 @@
           <t>Nordtank NTK 200</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
         <v>200</v>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>4</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>12.5</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
         <v>30</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>25</v>
       </c>
-      <c r="K49" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
+        <v>921579</v>
+      </c>
+      <c r="N49" t="n">
         <v>18000</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>135</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>40.5</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>8</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>13600</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T49" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="50">
@@ -3197,54 +3801,66 @@
           <t>NPS Northern Power NPS 60-24</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>60</v>
       </c>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
         <v>11</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
         <v>37</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>25</v>
       </c>
-      <c r="K50" t="n">
-        <v>271431</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
+        <v>284779</v>
+      </c>
+      <c r="N50" t="n">
         <v>5400</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>57</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>17.1</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>4</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>6800</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T50" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -3253,54 +3869,66 @@
           <t>NPS Northern Power NPS 100C-24</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
         <v>100</v>
       </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
         <v>12</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
         <v>37</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>25</v>
       </c>
-      <c r="K51" t="n">
-        <v>451431</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
+        <v>464779</v>
+      </c>
+      <c r="N51" t="n">
         <v>9000</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>57</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>17.1</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>4</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>6800</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T51" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -3309,52 +3937,64 @@
           <t>Norwin 24 STALL 150</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
         <v>150</v>
       </c>
-      <c r="E52" t="n">
+      <c r="G52" t="n">
         <v>4</v>
       </c>
-      <c r="F52" t="n">
+      <c r="H52" t="n">
         <v>14</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
         <v>30</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>25</v>
       </c>
-      <c r="K52" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
+        <v>696579</v>
+      </c>
+      <c r="N52" t="n">
         <v>13500</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>135</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>40.5</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>8</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>13600</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T52" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="53">
@@ -3363,54 +4003,66 @@
           <t>Norwin 29 STALL 225</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
         <v>225</v>
       </c>
-      <c r="E53" t="n">
+      <c r="G53" t="n">
         <v>4</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>14</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
         <v>40</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>25</v>
       </c>
-      <c r="K53" t="n">
-        <v>1013931</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
+        <v>1037479</v>
+      </c>
+      <c r="N53" t="n">
         <v>20250</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>164</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>49.2</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>10</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>17000</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T53" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="54">
@@ -3419,54 +4071,66 @@
           <t>Ropatec 3kW</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
-      </c>
       <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
         <v>4</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>13</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
         <v>10.9</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>17</v>
       </c>
-      <c r="K54" t="n">
-        <v>14931</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
+        <v>38479</v>
+      </c>
+      <c r="N54" t="n">
         <v>270</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>162</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>48.6</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>10</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>17000</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T54" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -3475,54 +4139,66 @@
           <t>Siva 250/50</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
         <v>250</v>
       </c>
-      <c r="E55" t="n">
+      <c r="G55" t="n">
         <v>4</v>
       </c>
-      <c r="F55" t="n">
+      <c r="H55" t="n">
         <v>14</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
         <v>48.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>25</v>
       </c>
-      <c r="K55" t="n">
-        <v>1126431</v>
-      </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
+        <v>1146579</v>
+      </c>
+      <c r="N55" t="n">
         <v>22500</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>135</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>40.5</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>8</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>13600</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T55" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -3531,54 +4207,66 @@
           <t>Tacke TW 45</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
         <v>45</v>
       </c>
-      <c r="E56" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.5</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
         <v>24</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>20</v>
       </c>
-      <c r="K56" t="n">
-        <v>203931</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
+        <v>217279</v>
+      </c>
+      <c r="N56" t="n">
         <v>4050</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>57</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>17.1</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>4</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>6800</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T56" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="57">
@@ -3587,54 +4275,66 @@
           <t>Tacke TW 80</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
         <v>80</v>
       </c>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.5</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
         <v>40</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>25</v>
       </c>
-      <c r="K57" t="n">
-        <v>361431</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
+        <v>374779</v>
+      </c>
+      <c r="N57" t="n">
         <v>7200</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>57</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>17.1</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>4</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>6800</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T57" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
@@ -3643,54 +4343,66 @@
           <t>Tellus T-1780</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
         <v>80</v>
       </c>
-      <c r="E58" t="n">
-        <v>3</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
         <v>14</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
+        <v>3</v>
+      </c>
+      <c r="K58" t="n">
         <v>40.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>28</v>
       </c>
-      <c r="K58" t="n">
-        <v>361431</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
+        <v>374779</v>
+      </c>
+      <c r="N58" t="n">
         <v>7200</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>57</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>17.1</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>4</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>6800</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T58" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -3699,54 +4411,66 @@
           <t>Wind Turbine Company WTC 100</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
         <v>100</v>
       </c>
-      <c r="E59" t="n">
+      <c r="G59" t="n">
         <v>2.5</v>
       </c>
-      <c r="F59" t="n">
+      <c r="H59" t="n">
         <v>11</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="J59" t="n">
         <v>2</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>50</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>20</v>
       </c>
-      <c r="K59" t="n">
-        <v>451431</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
+        <v>463079</v>
+      </c>
+      <c r="N59" t="n">
         <v>9000</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>42</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>12.6</v>
       </c>
-      <c r="O59" t="n">
-        <v>3</v>
-      </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
         <v>5100</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T59" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="60">
@@ -3755,54 +4479,66 @@
           <t>TUGE 10 kW</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
         <v>10</v>
       </c>
-      <c r="E60" t="n">
-        <v>3</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
         <v>11</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
         <v>22</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>25</v>
       </c>
-      <c r="K60" t="n">
-        <v>46431</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
+        <v>66579</v>
+      </c>
+      <c r="N60" t="n">
         <v>900</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>135</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>40.5</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>8</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>13600</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T60" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -3811,54 +4547,66 @@
           <t>Venturicon 3.ZERO</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
         <v>3.2</v>
       </c>
-      <c r="E61" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
         <v>18</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="J61" t="n">
         <v>5</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>4</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>25</v>
       </c>
-      <c r="K61" t="n">
-        <v>15831</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
+        <v>41079</v>
+      </c>
+      <c r="N61" t="n">
         <v>288</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>173</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>51.9</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>11</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>18700</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T61" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -3867,54 +4615,66 @@
           <t>Vergnet GEV MP C 200/30</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
         <v>200</v>
       </c>
-      <c r="E62" t="n">
+      <c r="G62" t="n">
         <v>3.5</v>
       </c>
-      <c r="F62" t="n">
+      <c r="H62" t="n">
         <v>12</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="J62" t="n">
         <v>2</v>
       </c>
-      <c r="I62" t="n">
+      <c r="K62" t="n">
         <v>60</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>25</v>
       </c>
-      <c r="K62" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
+        <v>918179</v>
+      </c>
+      <c r="N62" t="n">
         <v>18000</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>92</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>27.6</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>6</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>10200</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T62" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="63">
@@ -3923,52 +4683,64 @@
           <t>Vergnet GEV MP C 200/32</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
         <v>200</v>
       </c>
-      <c r="E63" t="n">
+      <c r="G63" t="n">
         <v>3.5</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="J63" t="n">
         <v>2</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>60</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>25</v>
       </c>
-      <c r="K63" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
+        <v>918179</v>
+      </c>
+      <c r="N63" t="n">
         <v>18000</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>92</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>27.6</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>6</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>10200</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T63" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="64">
@@ -3977,54 +4749,66 @@
           <t>Vestas V29</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
         <v>225</v>
       </c>
-      <c r="E64" t="n">
+      <c r="G64" t="n">
         <v>3.5</v>
       </c>
-      <c r="F64" t="n">
+      <c r="H64" t="n">
         <v>14</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
         <v>51</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>25</v>
       </c>
-      <c r="K64" t="n">
-        <v>1013931</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
+        <v>1030679</v>
+      </c>
+      <c r="N64" t="n">
         <v>20250</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>92</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P64" t="n">
         <v>27.6</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>6</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>10200</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T64" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="65">
@@ -4033,54 +4817,66 @@
           <t>WESPA 200/29</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
         <v>200</v>
       </c>
-      <c r="E65" t="n">
+      <c r="G65" t="n">
         <v>4</v>
       </c>
-      <c r="F65" t="n">
+      <c r="H65" t="n">
         <v>14</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
         <v>50</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>25</v>
       </c>
-      <c r="K65" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
+        <v>921579</v>
+      </c>
+      <c r="N65" t="n">
         <v>18000</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O65" t="n">
         <v>135</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P65" t="n">
         <v>40.5</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>8</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>13600</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T65" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -4089,54 +4885,66 @@
           <t>WESPA 200/31</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
         <v>200</v>
       </c>
-      <c r="E66" t="n">
+      <c r="G66" t="n">
         <v>4</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
         <v>13.5</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
         <v>50</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>25</v>
       </c>
-      <c r="K66" t="n">
-        <v>901431</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
+        <v>921579</v>
+      </c>
+      <c r="N66" t="n">
         <v>18000</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O66" t="n">
         <v>135</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P66" t="n">
         <v>40.5</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>8</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>13600</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T66" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -4145,54 +4953,66 @@
           <t>Wind World W2700</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
         <v>150</v>
       </c>
-      <c r="E67" t="n">
+      <c r="G67" t="n">
         <v>2</v>
       </c>
-      <c r="F67" t="n">
+      <c r="H67" t="n">
         <v>11</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
         <v>41</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>25</v>
       </c>
-      <c r="K67" t="n">
-        <v>676431</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
+        <v>689779</v>
+      </c>
+      <c r="N67" t="n">
         <v>13500</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O67" t="n">
         <v>59</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P67" t="n">
         <v>17.7</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>4</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>6800</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T67" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="68">
@@ -4201,54 +5021,66 @@
           <t>Windspot 7.5Kw</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
         <v>7.5</v>
       </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
         <v>12</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
         <v>18</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20</v>
       </c>
-      <c r="K68" t="n">
-        <v>35181</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
+        <v>48529</v>
+      </c>
+      <c r="N68" t="n">
         <v>675</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>57</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P68" t="n">
         <v>17.1</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>4</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>6800</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T68" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -588,13 +588,13 @@
         <v>91</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>118.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R2" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S2" t="n">
         <v>0.36</v>
@@ -656,13 +656,13 @@
         <v>135</v>
       </c>
       <c r="P3" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R3" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S3" t="n">
         <v>0.33</v>
@@ -724,13 +724,13 @@
         <v>135</v>
       </c>
       <c r="P4" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R4" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S4" t="n">
         <v>0.42</v>
@@ -792,13 +792,13 @@
         <v>135</v>
       </c>
       <c r="P5" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R5" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S5" t="n">
         <v>0.48</v>
@@ -860,13 +860,13 @@
         <v>57</v>
       </c>
       <c r="P6" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R6" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S6" t="n">
         <v>0.27</v>
@@ -928,13 +928,13 @@
         <v>173</v>
       </c>
       <c r="P7" t="n">
-        <v>51.9</v>
+        <v>224.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="R7" t="n">
-        <v>18700</v>
+        <v>74800</v>
       </c>
       <c r="S7" t="n">
         <v>0.45</v>
@@ -993,16 +993,16 @@
         <v>13500</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P8" t="n">
-        <v>27.3</v>
+        <v>122.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R8" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S8" t="n">
         <v>0.35</v>
@@ -1061,16 +1061,16 @@
         <v>900</v>
       </c>
       <c r="O9" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="P9" t="n">
-        <v>40.5</v>
+        <v>210.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="R9" t="n">
-        <v>13600</v>
+        <v>71400</v>
       </c>
       <c r="S9" t="n">
         <v>0.42</v>
@@ -1132,13 +1132,13 @@
         <v>57</v>
       </c>
       <c r="P10" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R10" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S10" t="n">
         <v>0.21</v>
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="P11" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R11" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S11" t="n">
         <v>0.24</v>
@@ -1268,13 +1268,13 @@
         <v>91</v>
       </c>
       <c r="P12" t="n">
-        <v>27.3</v>
+        <v>118.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R12" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S12" t="n">
         <v>0.22</v>
@@ -1336,13 +1336,13 @@
         <v>42</v>
       </c>
       <c r="P13" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R13" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S13" t="n">
         <v>0.19</v>
@@ -1404,13 +1404,13 @@
         <v>42</v>
       </c>
       <c r="P14" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S14" t="n">
         <v>0.22</v>
@@ -1472,13 +1472,13 @@
         <v>42</v>
       </c>
       <c r="P15" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R15" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S15" t="n">
         <v>0.15</v>
@@ -1540,13 +1540,13 @@
         <v>42</v>
       </c>
       <c r="P16" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R16" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S16" t="n">
         <v>0.2</v>
@@ -1608,13 +1608,13 @@
         <v>42</v>
       </c>
       <c r="P17" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R17" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S17" t="n">
         <v>0.26</v>
@@ -1676,13 +1676,13 @@
         <v>57</v>
       </c>
       <c r="P18" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R18" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S18" t="n">
         <v>0.25</v>
@@ -1741,16 +1741,16 @@
         <v>5130</v>
       </c>
       <c r="O19" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>122.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R19" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S19" t="n">
         <v>0.32</v>
@@ -1809,16 +1809,16 @@
         <v>5400</v>
       </c>
       <c r="O20" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P20" t="n">
-        <v>17.7</v>
+        <v>118.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R20" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S20" t="n">
         <v>0.28</v>
@@ -1880,13 +1880,13 @@
         <v>57</v>
       </c>
       <c r="P21" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R21" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S21" t="n">
         <v>0.2</v>
@@ -1945,16 +1945,16 @@
         <v>558</v>
       </c>
       <c r="O22" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="P22" t="n">
-        <v>6.6</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R22" t="n">
-        <v>3400</v>
+        <v>25500</v>
       </c>
       <c r="S22" t="n">
         <v>0.18</v>
@@ -2016,13 +2016,13 @@
         <v>42</v>
       </c>
       <c r="P23" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R23" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S23" t="n">
         <v>0.24</v>
@@ -2081,16 +2081,16 @@
         <v>900</v>
       </c>
       <c r="O24" t="n">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="P24" t="n">
-        <v>28.5</v>
+        <v>224.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="R24" t="n">
-        <v>10200</v>
+        <v>74800</v>
       </c>
       <c r="S24" t="n">
         <v>0.5600000000000001</v>
@@ -2152,13 +2152,13 @@
         <v>91</v>
       </c>
       <c r="P25" t="n">
-        <v>27.3</v>
+        <v>118.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R25" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S25" t="n">
         <v>0.38</v>
@@ -2218,13 +2218,13 @@
         <v>173</v>
       </c>
       <c r="P26" t="n">
-        <v>51.9</v>
+        <v>224.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="R26" t="n">
-        <v>18700</v>
+        <v>74800</v>
       </c>
       <c r="S26" t="n">
         <v>0.5600000000000001</v>
@@ -2286,13 +2286,13 @@
         <v>173</v>
       </c>
       <c r="P27" t="n">
-        <v>51.9</v>
+        <v>224.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="R27" t="n">
-        <v>18700</v>
+        <v>74800</v>
       </c>
       <c r="S27" t="n">
         <v>0.57</v>
@@ -2354,13 +2354,13 @@
         <v>135</v>
       </c>
       <c r="P28" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R28" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S28" t="n">
         <v>0.38</v>
@@ -2422,13 +2422,13 @@
         <v>162</v>
       </c>
       <c r="P29" t="n">
-        <v>48.6</v>
+        <v>210.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="R29" t="n">
-        <v>17000</v>
+        <v>71400</v>
       </c>
       <c r="S29" t="n">
         <v>0.51</v>
@@ -2487,16 +2487,16 @@
         <v>1980</v>
       </c>
       <c r="O30" t="n">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="P30" t="n">
-        <v>40.5</v>
+        <v>209.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="R30" t="n">
-        <v>13600</v>
+        <v>69700</v>
       </c>
       <c r="S30" t="n">
         <v>0.5</v>
@@ -2558,13 +2558,13 @@
         <v>135</v>
       </c>
       <c r="P31" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R31" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S31" t="n">
         <v>0.49</v>
@@ -2623,16 +2623,16 @@
         <v>4950</v>
       </c>
       <c r="O32" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P32" t="n">
-        <v>17.7</v>
+        <v>118.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R32" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S32" t="n">
         <v>0.32</v>
@@ -2691,16 +2691,16 @@
         <v>8550</v>
       </c>
       <c r="O33" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P33" t="n">
-        <v>17.7</v>
+        <v>118.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R33" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S33" t="n">
         <v>0.35</v>
@@ -2759,16 +2759,16 @@
         <v>9000</v>
       </c>
       <c r="O34" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P34" t="n">
-        <v>17.7</v>
+        <v>118.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R34" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S34" t="n">
         <v>0.36</v>
@@ -2830,13 +2830,13 @@
         <v>57</v>
       </c>
       <c r="P35" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R35" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S35" t="n">
         <v>0.28</v>
@@ -2898,13 +2898,13 @@
         <v>42</v>
       </c>
       <c r="P36" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R36" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S36" t="n">
         <v>0.3</v>
@@ -2966,13 +2966,13 @@
         <v>57</v>
       </c>
       <c r="P37" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R37" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S37" t="n">
         <v>0.25</v>
@@ -3034,13 +3034,13 @@
         <v>57</v>
       </c>
       <c r="P38" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R38" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S38" t="n">
         <v>0.27</v>
@@ -3099,16 +3099,16 @@
         <v>450</v>
       </c>
       <c r="O39" t="n">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="P39" t="n">
-        <v>27.3</v>
+        <v>213.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="R39" t="n">
-        <v>10200</v>
+        <v>71400</v>
       </c>
       <c r="S39" t="n">
         <v>0.45</v>
@@ -3165,16 +3165,16 @@
         <v>1800</v>
       </c>
       <c r="O40" t="n">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="P40" t="n">
-        <v>27.3</v>
+        <v>209.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R40" t="n">
-        <v>10200</v>
+        <v>69700</v>
       </c>
       <c r="S40" t="n">
         <v>0.49</v>
@@ -3236,13 +3236,13 @@
         <v>91</v>
       </c>
       <c r="P41" t="n">
-        <v>27.3</v>
+        <v>118.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R41" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S41" t="n">
         <v>0.36</v>
@@ -3301,16 +3301,16 @@
         <v>1620</v>
       </c>
       <c r="O42" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P42" t="n">
-        <v>27.3</v>
+        <v>175.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="R42" t="n">
-        <v>10200</v>
+        <v>59500</v>
       </c>
       <c r="S42" t="n">
         <v>0.45</v>
@@ -3372,13 +3372,13 @@
         <v>57</v>
       </c>
       <c r="P43" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R43" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S43" t="n">
         <v>0.24</v>
@@ -3437,16 +3437,16 @@
         <v>990</v>
       </c>
       <c r="O44" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="P44" t="n">
-        <v>28.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="R44" t="n">
-        <v>10200</v>
+        <v>59500</v>
       </c>
       <c r="S44" t="n">
         <v>0.33</v>
@@ -3508,13 +3508,13 @@
         <v>135</v>
       </c>
       <c r="P45" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R45" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S45" t="n">
         <v>0.33</v>
@@ -3576,13 +3576,13 @@
         <v>135</v>
       </c>
       <c r="P46" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R46" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S46" t="n">
         <v>0.5600000000000001</v>
@@ -3644,13 +3644,13 @@
         <v>162</v>
       </c>
       <c r="P47" t="n">
-        <v>48.6</v>
+        <v>210.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="R47" t="n">
-        <v>17000</v>
+        <v>71400</v>
       </c>
       <c r="S47" t="n">
         <v>0.49</v>
@@ -3712,13 +3712,13 @@
         <v>135</v>
       </c>
       <c r="P48" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R48" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S48" t="n">
         <v>0.36</v>
@@ -3780,13 +3780,13 @@
         <v>135</v>
       </c>
       <c r="P49" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R49" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S49" t="n">
         <v>0.31</v>
@@ -3848,13 +3848,13 @@
         <v>57</v>
       </c>
       <c r="P50" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R50" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S50" t="n">
         <v>0.25</v>
@@ -3916,13 +3916,13 @@
         <v>57</v>
       </c>
       <c r="P51" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R51" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S51" t="n">
         <v>0.28</v>
@@ -3982,13 +3982,13 @@
         <v>135</v>
       </c>
       <c r="P52" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R52" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S52" t="n">
         <v>0.42</v>
@@ -4050,13 +4050,13 @@
         <v>164</v>
       </c>
       <c r="P53" t="n">
-        <v>49.2</v>
+        <v>213.2</v>
       </c>
       <c r="Q53" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="R53" t="n">
-        <v>17000</v>
+        <v>71400</v>
       </c>
       <c r="S53" t="n">
         <v>0.61</v>
@@ -4115,16 +4115,16 @@
         <v>270</v>
       </c>
       <c r="O54" t="n">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="P54" t="n">
-        <v>48.6</v>
+        <v>456.3</v>
       </c>
       <c r="Q54" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="R54" t="n">
-        <v>17000</v>
+        <v>153000</v>
       </c>
       <c r="S54" t="n">
         <v>1.13</v>
@@ -4186,13 +4186,13 @@
         <v>135</v>
       </c>
       <c r="P55" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R55" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S55" t="n">
         <v>0.39</v>
@@ -4251,16 +4251,16 @@
         <v>4050</v>
       </c>
       <c r="O56" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="P56" t="n">
-        <v>17.1</v>
+        <v>118.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R56" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S56" t="n">
         <v>0.37</v>
@@ -4322,13 +4322,13 @@
         <v>57</v>
       </c>
       <c r="P57" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R57" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S57" t="n">
         <v>0.32</v>
@@ -4390,13 +4390,13 @@
         <v>57</v>
       </c>
       <c r="P58" t="n">
-        <v>17.1</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R58" t="n">
-        <v>6800</v>
+        <v>25500</v>
       </c>
       <c r="S58" t="n">
         <v>0.32</v>
@@ -4458,13 +4458,13 @@
         <v>42</v>
       </c>
       <c r="P59" t="n">
-        <v>12.6</v>
+        <v>54.6</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R59" t="n">
-        <v>5100</v>
+        <v>18700</v>
       </c>
       <c r="S59" t="n">
         <v>0.26</v>
@@ -4523,16 +4523,16 @@
         <v>900</v>
       </c>
       <c r="O60" t="n">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="P60" t="n">
-        <v>40.5</v>
+        <v>213.2</v>
       </c>
       <c r="Q60" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="R60" t="n">
-        <v>13600</v>
+        <v>71400</v>
       </c>
       <c r="S60" t="n">
         <v>0.47</v>
@@ -4591,22 +4591,22 @@
         <v>288</v>
       </c>
       <c r="O61" t="n">
-        <v>173</v>
+        <v>936</v>
       </c>
       <c r="P61" t="n">
-        <v>51.9</v>
+        <v>1216.8</v>
       </c>
       <c r="Q61" t="n">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="R61" t="n">
-        <v>18700</v>
+        <v>404600</v>
       </c>
       <c r="S61" t="n">
         <v>2.42</v>
       </c>
       <c r="T61" t="n">
-        <v>57</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62">
@@ -4659,16 +4659,16 @@
         <v>18000</v>
       </c>
       <c r="O62" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P62" t="n">
-        <v>27.6</v>
+        <v>122.2</v>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R62" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S62" t="n">
         <v>0.32</v>
@@ -4725,16 +4725,16 @@
         <v>18000</v>
       </c>
       <c r="O63" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P63" t="n">
-        <v>27.6</v>
+        <v>122.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R63" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S63" t="n">
         <v>0.29</v>
@@ -4796,13 +4796,13 @@
         <v>92</v>
       </c>
       <c r="P64" t="n">
-        <v>27.6</v>
+        <v>119.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R64" t="n">
-        <v>10200</v>
+        <v>40800</v>
       </c>
       <c r="S64" t="n">
         <v>0.37</v>
@@ -4864,13 +4864,13 @@
         <v>135</v>
       </c>
       <c r="P65" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R65" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S65" t="n">
         <v>0.4</v>
@@ -4932,13 +4932,13 @@
         <v>135</v>
       </c>
       <c r="P66" t="n">
-        <v>40.5</v>
+        <v>175.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="R66" t="n">
-        <v>13600</v>
+        <v>59500</v>
       </c>
       <c r="S66" t="n">
         <v>0.35</v>
@@ -4997,16 +4997,16 @@
         <v>13500</v>
       </c>
       <c r="O67" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="P67" t="n">
-        <v>17.7</v>
+        <v>118.3</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="R67" t="n">
-        <v>6800</v>
+        <v>40800</v>
       </c>
       <c r="S67" t="n">
         <v>0.29</v>
@@ -5065,16 +5065,16 @@
         <v>675</v>
       </c>
       <c r="O68" t="n">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="P68" t="n">
-        <v>17.1</v>
+        <v>175.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="R68" t="n">
-        <v>6800</v>
+        <v>59500</v>
       </c>
       <c r="S68" t="n">
         <v>0.36</v>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,4652 +434,7943 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Turbine</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.13</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.12</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.11</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.10</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Gesamtinvestitionskosten</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Betriebskosten</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>max Flauten time</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Battery Capacity</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>number of batteries</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>battery cost</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>LCOE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Flautenzeit</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ACSA A27/225</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>225</v>
       </c>
-      <c r="G2" t="n">
+      <c r="W2" t="n">
         <v>3.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
         <v>13.5</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
         <v>30</v>
       </c>
-      <c r="L2" t="n">
+      <c r="AB2" t="n">
         <v>25</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AC2" t="n">
         <v>1030679</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AD2" t="n">
         <v>20250</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AE2" t="n">
         <v>91</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AF2" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AG2" t="n">
         <v>6</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AH2" t="n">
         <v>10200</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AI2" t="n">
         <v>0.36</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AJ2" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>ACSA A29/225</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>225</v>
       </c>
-      <c r="G3" t="n">
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="X3" t="n">
         <v>13</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
         <v>50</v>
       </c>
-      <c r="L3" t="n">
+      <c r="AB3" t="n">
         <v>25</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AC3" t="n">
         <v>1034079</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AD3" t="n">
         <v>20250</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AE3" t="n">
         <v>135</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AF3" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AG3" t="n">
         <v>8</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AH3" t="n">
         <v>13600</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AI3" t="n">
         <v>0.33</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AJ3" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>AWP A/S AWP 90/18</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>90</v>
       </c>
-      <c r="G4" t="n">
+      <c r="W4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="X4" t="n">
         <v>13</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
         <v>30</v>
       </c>
-      <c r="L4" t="n">
+      <c r="AB4" t="n">
         <v>25</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AC4" t="n">
         <v>426579</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AD4" t="n">
         <v>8100</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AE4" t="n">
         <v>135</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AF4" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AG4" t="n">
         <v>8</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AH4" t="n">
         <v>13600</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AI4" t="n">
         <v>0.42</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AJ4" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>AWP A/S AWP 200/23</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>200</v>
       </c>
-      <c r="G5" t="n">
+      <c r="W5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
+      <c r="X5" t="n">
         <v>13</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
         <v>30</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AB5" t="n">
         <v>25</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AC5" t="n">
         <v>921579</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AD5" t="n">
         <v>18000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AE5" t="n">
         <v>135</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AF5" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AG5" t="n">
         <v>8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AH5" t="n">
         <v>13600</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AI5" t="n">
         <v>0.48</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AJ5" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Aeolia Windtech D2CF 200</t>
         </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
-        </is>
+      <c r="D6" t="n">
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>28.0 m</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>40.3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>914779</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>17.1</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>200</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>28.0 m</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>914779</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6800</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AI6" t="n">
         <v>0.27</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AJ6" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>AERODAN 75/15</t>
         </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
-        </is>
+      <c r="D7" t="n">
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
         <v>23</v>
       </c>
-      <c r="L7" t="n">
+      <c r="AB7" t="n">
         <v>23</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AC7" t="n">
         <v>364179</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AD7" t="n">
         <v>6750</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AE7" t="n">
         <v>173</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AF7" t="n">
         <v>51.9</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AH7" t="n">
         <v>18700</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AI7" t="n">
         <v>0.45</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AJ7" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>AN Bonus 150/30</t>
         </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
-        </is>
+      <c r="D8" t="n">
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>23.0 m</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>693179</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>13500</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>27.3</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>
       </c>
       <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>150</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>23.0 m</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>693179</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13500</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>91</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
         <v>10200</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AI8" t="n">
         <v>0.35</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AJ8" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Hummer H8.16-10KW</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="W9" t="n">
+        <v>3</v>
+      </c>
+      <c r="X9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="Z9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="n">
         <v>18</v>
       </c>
-      <c r="L9" t="n">
+      <c r="AB9" t="n">
         <v>25</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AC9" t="n">
         <v>66579</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AD9" t="n">
         <v>900</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AE9" t="n">
         <v>135</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AF9" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AG9" t="n">
         <v>8</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AH9" t="n">
         <v>13600</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AI9" t="n">
         <v>0.42</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AJ9" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Hummer H13.2-20KW</t>
         </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
         <v>20</v>
       </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
         <v>9</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
         <v>20</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AB10" t="n">
         <v>25</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AC10" t="n">
         <v>104779</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AD10" t="n">
         <v>1800</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AE10" t="n">
         <v>57</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AF10" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AG10" t="n">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AH10" t="n">
         <v>6800</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AI10" t="n">
         <v>0.21</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AJ10" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Hummer H13.2-30KW</t>
         </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
         <v>30</v>
       </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
         <v>10</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
         <v>30</v>
       </c>
-      <c r="L11" t="n">
+      <c r="AB11" t="n">
         <v>25</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AC11" t="n">
         <v>149779</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AD11" t="n">
         <v>2700</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AE11" t="n">
         <v>57</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AF11" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AG11" t="n">
         <v>4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AH11" t="n">
         <v>6800</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AI11" t="n">
         <v>0.24</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AJ11" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Hummer H17.0-50KW</t>
         </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
         <v>50</v>
       </c>
-      <c r="G12" t="n">
+      <c r="W12" t="n">
         <v>3.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="X12" t="n">
         <v>9.5</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
         <v>40</v>
       </c>
-      <c r="L12" t="n">
+      <c r="AB12" t="n">
         <v>20</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AC12" t="n">
         <v>243179</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AD12" t="n">
         <v>4500</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AE12" t="n">
         <v>91</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AF12" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AG12" t="n">
         <v>6</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AH12" t="n">
         <v>10200</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AI12" t="n">
         <v>0.22</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AJ12" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Hummer H21.0-60KW</t>
         </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
         <v>60</v>
       </c>
-      <c r="G13" t="n">
+      <c r="W13" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="X13" t="n">
         <v>9</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="Z13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="n">
         <v>50</v>
       </c>
-      <c r="L13" t="n">
+      <c r="AB13" t="n">
         <v>25</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AC13" t="n">
         <v>283079</v>
       </c>
-      <c r="N13" t="n">
+      <c r="AD13" t="n">
         <v>5400</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AE13" t="n">
         <v>42</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AF13" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="AG13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH13" t="n">
         <v>5100</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AI13" t="n">
         <v>0.19</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AJ13" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Hummer H21.0-100KW</t>
         </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
       </c>
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
         <v>100</v>
       </c>
-      <c r="G14" t="n">
+      <c r="W14" t="n">
         <v>2.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="X14" t="n">
         <v>10.5</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
         <v>60</v>
       </c>
-      <c r="L14" t="n">
+      <c r="AB14" t="n">
         <v>20</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AC14" t="n">
         <v>463079</v>
       </c>
-      <c r="N14" t="n">
+      <c r="AD14" t="n">
         <v>9000</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AE14" t="n">
         <v>42</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AF14" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="AG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH14" t="n">
         <v>5100</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AI14" t="n">
         <v>0.22</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AJ14" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Hummer H25.0-60KW</t>
         </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
         <v>60</v>
       </c>
-      <c r="G15" t="n">
+      <c r="W15" t="n">
         <v>2.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="X15" t="n">
         <v>7.5</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="Z15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="n">
         <v>50</v>
       </c>
-      <c r="L15" t="n">
+      <c r="AB15" t="n">
         <v>20</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AC15" t="n">
         <v>283079</v>
       </c>
-      <c r="N15" t="n">
+      <c r="AD15" t="n">
         <v>5400</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AE15" t="n">
         <v>42</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AF15" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="AG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH15" t="n">
         <v>5100</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AI15" t="n">
         <v>0.15</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AJ15" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Hummer H25.0-100KW</t>
         </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
         <v>100</v>
       </c>
-      <c r="G16" t="n">
+      <c r="W16" t="n">
         <v>2.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="X16" t="n">
         <v>10</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="Z16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="n">
         <v>30</v>
       </c>
-      <c r="L16" t="n">
+      <c r="AB16" t="n">
         <v>20</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AC16" t="n">
         <v>463079</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AD16" t="n">
         <v>9000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AE16" t="n">
         <v>42</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AF16" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="AG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH16" t="n">
         <v>5100</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AI16" t="n">
         <v>0.2</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AJ16" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Hummer H25.0-200KW</t>
         </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
       </c>
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
         <v>200</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="X17" t="n">
         <v>11.5</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="Z17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="n">
         <v>30</v>
       </c>
-      <c r="L17" t="n">
+      <c r="AB17" t="n">
         <v>20</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AC17" t="n">
         <v>913079</v>
       </c>
-      <c r="N17" t="n">
+      <c r="AD17" t="n">
         <v>18000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AE17" t="n">
         <v>42</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AF17" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="AG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH17" t="n">
         <v>5100</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AI17" t="n">
         <v>0.26</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AJ17" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Aria Libellula 20</t>
         </is>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>16</v>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="Z18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="AA18" t="n">
         <v>20</v>
       </c>
-      <c r="L18" t="n">
+      <c r="AB18" t="n">
         <v>25</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AC18" t="n">
         <v>104779</v>
       </c>
-      <c r="N18" t="n">
+      <c r="AD18" t="n">
         <v>1800</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AE18" t="n">
         <v>57</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AF18" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AG18" t="n">
         <v>4</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AH18" t="n">
         <v>6800</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AI18" t="n">
         <v>0.25</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AJ18" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Aria Libellula 55+</t>
         </is>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>17</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
         <v>57</v>
       </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="W19" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" t="n">
         <v>11</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="Z19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="AA19" t="n">
         <v>31</v>
       </c>
-      <c r="L19" t="n">
+      <c r="AB19" t="n">
         <v>25</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AC19" t="n">
         <v>274679</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AD19" t="n">
         <v>5130</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AE19" t="n">
         <v>91</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AF19" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AG19" t="n">
         <v>6</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AH19" t="n">
         <v>10200</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AI19" t="n">
         <v>0.32</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AJ19" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aria Libellula 60i</t>
         </is>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
         <v>60</v>
       </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
         <v>11</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="Z20" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="AA20" t="n">
         <v>31</v>
       </c>
-      <c r="L20" t="n">
+      <c r="AB20" t="n">
         <v>25</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AC20" t="n">
         <v>284779</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AD20" t="n">
         <v>5400</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AE20" t="n">
         <v>59</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AF20" t="n">
         <v>17.7</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AG20" t="n">
         <v>4</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AH20" t="n">
         <v>6800</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AI20" t="n">
         <v>0.28</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AJ20" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ATB Riva Calzoni ATB 60.28 DD</t>
         </is>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
       </c>
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
-        </is>
+      <c r="D21" t="n">
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>28.0 m</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L21" t="n">
         <v>19</v>
       </c>
       <c r="M21" t="n">
+        <v>19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>28.0 m</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
         <v>284779</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AD21" t="n">
         <v>5400</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AE21" t="n">
         <v>57</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AF21" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AG21" t="n">
         <v>4</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AH21" t="n">
         <v>6800</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AI21" t="n">
         <v>0.2</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AJ21" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aventa AV-7</t>
         </is>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
         <v>6.2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="W22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="X22" t="n">
         <v>6</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="Z22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="n">
         <v>18</v>
       </c>
-      <c r="L22" t="n">
+      <c r="AB22" t="n">
         <v>14</v>
       </c>
-      <c r="M22" t="n">
+      <c r="AC22" t="n">
         <v>39279</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AD22" t="n">
         <v>558</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AE22" t="n">
         <v>22</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AF22" t="n">
         <v>6.6</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AG22" t="n">
         <v>2</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AH22" t="n">
         <v>3400</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AI22" t="n">
         <v>0.18</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AJ22" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>b.ventus 250 kW</t>
         </is>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="n">
+        <v>21</v>
+      </c>
+      <c r="M23" t="n">
+        <v>21</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>21</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
         <v>250</v>
       </c>
-      <c r="G23" t="n">
+      <c r="W23" t="n">
         <v>2.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="X23" t="n">
         <v>9</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="Z23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="n">
         <v>28</v>
       </c>
-      <c r="L23" t="n">
+      <c r="AB23" t="n">
         <v>32</v>
       </c>
-      <c r="M23" t="n">
+      <c r="AC23" t="n">
         <v>1138079</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AD23" t="n">
         <v>22500</v>
       </c>
-      <c r="O23" t="n">
+      <c r="AE23" t="n">
         <v>42</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AF23" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="AG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH23" t="n">
         <v>5100</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AI23" t="n">
         <v>0.24</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AJ23" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Bergey BWC Excel 10</t>
         </is>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
       </c>
       <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22</v>
+      </c>
+      <c r="N24" t="n">
+        <v>22</v>
+      </c>
+      <c r="O24" t="n">
+        <v>22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="n">
+        <v>22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
         <v>10</v>
       </c>
-      <c r="G24" t="n">
+      <c r="W24" t="n">
         <v>3.4</v>
       </c>
-      <c r="H24" t="n">
+      <c r="X24" t="n">
         <v>15.6</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="Z24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="n">
         <v>30</v>
       </c>
-      <c r="L24" t="n">
+      <c r="AB24" t="n">
         <v>60</v>
       </c>
-      <c r="M24" t="n">
+      <c r="AC24" t="n">
         <v>63179</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AD24" t="n">
         <v>900</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AE24" t="n">
         <v>95</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AF24" t="n">
         <v>28.5</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AG24" t="n">
         <v>6</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AH24" t="n">
         <v>10200</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AI24" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AJ24" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Bonus B23/150 Gittermast</t>
         </is>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
       </c>
       <c r="C25" t="n">
         <v>23</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>23</v>
+      </c>
+      <c r="M25" t="n">
+        <v>23</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>23</v>
+      </c>
+      <c r="P25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>23</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
         <v>150</v>
       </c>
-      <c r="G25" t="n">
+      <c r="W25" t="n">
         <v>3.5</v>
       </c>
-      <c r="H25" t="n">
+      <c r="X25" t="n">
         <v>12.5</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="Z25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="n">
         <v>40</v>
       </c>
-      <c r="L25" t="n">
+      <c r="AB25" t="n">
         <v>25</v>
       </c>
-      <c r="M25" t="n">
+      <c r="AC25" t="n">
         <v>693179</v>
       </c>
-      <c r="N25" t="n">
+      <c r="AD25" t="n">
         <v>13500</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AE25" t="n">
         <v>91</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AF25" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AG25" t="n">
         <v>6</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AH25" t="n">
         <v>10200</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AI25" t="n">
         <v>0.38</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AJ25" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Cannon 26/250</t>
         </is>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
       </c>
       <c r="C26" t="n">
         <v>24</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24</v>
+      </c>
+      <c r="M26" t="n">
+        <v>24</v>
+      </c>
+      <c r="N26" t="n">
+        <v>24</v>
+      </c>
+      <c r="O26" t="n">
+        <v>24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>24</v>
+      </c>
+      <c r="S26" t="n">
+        <v>24</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
         <v>250</v>
       </c>
-      <c r="G26" t="n">
+      <c r="W26" t="n">
         <v>4.8</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="Z26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA26" t="n">
         <v>42.7</v>
       </c>
-      <c r="L26" t="n">
+      <c r="AB26" t="n">
         <v>28.9</v>
       </c>
-      <c r="M26" t="n">
+      <c r="AC26" t="n">
         <v>1151679</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AD26" t="n">
         <v>22500</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AE26" t="n">
         <v>173</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AF26" t="n">
         <v>51.9</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AG26" t="n">
         <v>11</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AH26" t="n">
         <v>18700</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AI26" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AJ26" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>DWP D75/15</t>
         </is>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>25</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
         <v>75</v>
       </c>
-      <c r="G27" t="n">
+      <c r="W27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
+      <c r="X27" t="n">
         <v>18</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="Z27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" t="n">
         <v>24</v>
       </c>
-      <c r="L27" t="n">
+      <c r="AB27" t="n">
         <v>30</v>
       </c>
-      <c r="M27" t="n">
+      <c r="AC27" t="n">
         <v>364179</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AD27" t="n">
         <v>6750</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AE27" t="n">
         <v>173</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AF27" t="n">
         <v>51.9</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="AG27" t="n">
         <v>11</v>
       </c>
-      <c r="R27" t="n">
+      <c r="AH27" t="n">
         <v>18700</v>
       </c>
-      <c r="S27" t="n">
+      <c r="AI27" t="n">
         <v>0.57</v>
       </c>
-      <c r="T27" t="n">
+      <c r="AJ27" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>DWP D110/19</t>
         </is>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
       </c>
       <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26</v>
+      </c>
+      <c r="N28" t="n">
+        <v>26</v>
+      </c>
+      <c r="O28" t="n">
+        <v>26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>26</v>
+      </c>
+      <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>26</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
         <v>110</v>
       </c>
-      <c r="G28" t="n">
+      <c r="W28" t="n">
         <v>4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="X28" t="n">
         <v>18</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="Y28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="J28" t="n">
-        <v>3</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
         <v>24</v>
       </c>
-      <c r="L28" t="n">
+      <c r="AB28" t="n">
         <v>30</v>
       </c>
-      <c r="M28" t="n">
+      <c r="AC28" t="n">
         <v>516579</v>
       </c>
-      <c r="N28" t="n">
+      <c r="AD28" t="n">
         <v>9900</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AE28" t="n">
         <v>135</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AF28" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="AG28" t="n">
         <v>8</v>
       </c>
-      <c r="R28" t="n">
+      <c r="AH28" t="n">
         <v>13600</v>
       </c>
-      <c r="S28" t="n">
+      <c r="AI28" t="n">
         <v>0.38</v>
       </c>
-      <c r="T28" t="n">
+      <c r="AJ28" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>DWT Danish Wind Tech Windane 10</t>
         </is>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27</v>
+      </c>
+      <c r="N29" t="n">
+        <v>27</v>
+      </c>
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
         <v>18.5</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
         <v>4.5</v>
       </c>
-      <c r="H29" t="n">
+      <c r="X29" t="n">
         <v>14</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="Y29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="Z29" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="AA29" t="n">
         <v>18.6</v>
       </c>
-      <c r="L29" t="n">
+      <c r="AB29" t="n">
         <v>30</v>
       </c>
-      <c r="M29" t="n">
+      <c r="AC29" t="n">
         <v>108229</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AD29" t="n">
         <v>1665</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AE29" t="n">
         <v>162</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AF29" t="n">
         <v>48.6</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="AG29" t="n">
         <v>10</v>
       </c>
-      <c r="R29" t="n">
+      <c r="AH29" t="n">
         <v>17000</v>
       </c>
-      <c r="S29" t="n">
+      <c r="AI29" t="n">
         <v>0.51</v>
       </c>
-      <c r="T29" t="n">
+      <c r="AJ29" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>DANREGN Bonus 22</t>
         </is>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
       </c>
       <c r="C30" t="n">
         <v>28</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
-        </is>
+      <c r="D30" t="n">
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>10.0 m</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L30" t="n">
         <v>28</v>
       </c>
       <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
+        <v>28</v>
+      </c>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>28</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>22</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>10.0 m</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC30" t="n">
         <v>120579</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AD30" t="n">
         <v>1980</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AE30" t="n">
         <v>135</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AF30" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="AG30" t="n">
         <v>8</v>
       </c>
-      <c r="R30" t="n">
+      <c r="AH30" t="n">
         <v>13600</v>
       </c>
-      <c r="S30" t="n">
+      <c r="AI30" t="n">
         <v>0.5</v>
       </c>
-      <c r="T30" t="n">
+      <c r="AJ30" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>DANREGN Bonus 30</t>
         </is>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
       </c>
       <c r="C31" t="n">
         <v>29</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29</v>
+      </c>
+      <c r="L31" t="n">
+        <v>29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>29</v>
+      </c>
+      <c r="N31" t="n">
+        <v>29</v>
+      </c>
+      <c r="O31" t="n">
+        <v>29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
+      <c r="R31" t="n">
+        <v>29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>29</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>30</v>
       </c>
-      <c r="G31" t="n">
+      <c r="W31" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
+      <c r="X31" t="n">
         <v>18</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="Y31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="Z31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA31" t="n">
         <v>24</v>
       </c>
-      <c r="L31" t="n">
+      <c r="AB31" t="n">
         <v>25</v>
       </c>
-      <c r="M31" t="n">
+      <c r="AC31" t="n">
         <v>156579</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AD31" t="n">
         <v>2700</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AE31" t="n">
         <v>135</v>
       </c>
-      <c r="P31" t="n">
+      <c r="AF31" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="AG31" t="n">
         <v>8</v>
       </c>
-      <c r="R31" t="n">
+      <c r="AH31" t="n">
         <v>13600</v>
       </c>
-      <c r="S31" t="n">
+      <c r="AI31" t="n">
         <v>0.49</v>
       </c>
-      <c r="T31" t="n">
+      <c r="AJ31" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>DANREGN Bonus 55</t>
         </is>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>30</v>
+      </c>
+      <c r="L32" t="n">
+        <v>30</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>30</v>
+      </c>
+      <c r="O32" t="n">
+        <v>30</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" t="n">
+        <v>30</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>55</v>
       </c>
-      <c r="G32" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
         <v>13</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="Z32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA32" t="n">
         <v>24</v>
       </c>
-      <c r="L32" t="n">
+      <c r="AB32" t="n">
         <v>28</v>
       </c>
-      <c r="M32" t="n">
+      <c r="AC32" t="n">
         <v>262279</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AD32" t="n">
         <v>4950</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AE32" t="n">
         <v>59</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AF32" t="n">
         <v>17.7</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="AG32" t="n">
         <v>4</v>
       </c>
-      <c r="R32" t="n">
+      <c r="AH32" t="n">
         <v>6800</v>
       </c>
-      <c r="S32" t="n">
+      <c r="AI32" t="n">
         <v>0.32</v>
       </c>
-      <c r="T32" t="n">
+      <c r="AJ32" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>DANREGN Bonus 95</t>
         </is>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
       </c>
       <c r="C33" t="n">
         <v>31</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
+      <c r="L33" t="n">
+        <v>31</v>
+      </c>
+      <c r="M33" t="n">
+        <v>31</v>
+      </c>
+      <c r="N33" t="n">
+        <v>31</v>
+      </c>
+      <c r="O33" t="n">
+        <v>31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>31</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
         <v>95</v>
       </c>
-      <c r="G33" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="W33" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" t="n">
         <v>13</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
         <v>24.5</v>
       </c>
-      <c r="L33" t="n">
+      <c r="AB33" t="n">
         <v>28</v>
       </c>
-      <c r="M33" t="n">
+      <c r="AC33" t="n">
         <v>442279</v>
       </c>
-      <c r="N33" t="n">
+      <c r="AD33" t="n">
         <v>8550</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AE33" t="n">
         <v>59</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AF33" t="n">
         <v>17.7</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="AG33" t="n">
         <v>4</v>
       </c>
-      <c r="R33" t="n">
+      <c r="AH33" t="n">
         <v>6800</v>
       </c>
-      <c r="S33" t="n">
+      <c r="AI33" t="n">
         <v>0.35</v>
       </c>
-      <c r="T33" t="n">
+      <c r="AJ33" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>DANREGN Bonus 100</t>
         </is>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
       </c>
       <c r="C34" t="n">
         <v>32</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>32</v>
+      </c>
+      <c r="M34" t="n">
+        <v>32</v>
+      </c>
+      <c r="N34" t="n">
+        <v>32</v>
+      </c>
+      <c r="O34" t="n">
+        <v>32</v>
+      </c>
+      <c r="P34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32</v>
+      </c>
+      <c r="S34" t="n">
+        <v>32</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>100</v>
       </c>
-      <c r="G34" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
         <v>12</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="J34" t="n">
-        <v>3</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
         <v>24.5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="AB34" t="n">
         <v>28</v>
       </c>
-      <c r="M34" t="n">
+      <c r="AC34" t="n">
         <v>464779</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AD34" t="n">
         <v>9000</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AE34" t="n">
         <v>59</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AF34" t="n">
         <v>17.7</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="AG34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" t="n">
+      <c r="AH34" t="n">
         <v>6800</v>
       </c>
-      <c r="S34" t="n">
+      <c r="AI34" t="n">
         <v>0.36</v>
       </c>
-      <c r="T34" t="n">
+      <c r="AJ34" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Enercon E-16</t>
         </is>
-      </c>
-      <c r="B35" t="n">
-        <v>33</v>
       </c>
       <c r="C35" t="n">
         <v>33</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33</v>
+      </c>
+      <c r="N35" t="n">
+        <v>33</v>
+      </c>
+      <c r="O35" t="n">
+        <v>33</v>
+      </c>
+      <c r="P35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33</v>
+      </c>
+      <c r="R35" t="n">
+        <v>33</v>
+      </c>
+      <c r="S35" t="n">
+        <v>33</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
         <v>55</v>
       </c>
-      <c r="G35" t="n">
-        <v>3</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" t="n">
         <v>12</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="Y35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="n">
         <v>28.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="AB35" t="n">
         <v>25</v>
       </c>
-      <c r="M35" t="n">
+      <c r="AC35" t="n">
         <v>262279</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AD35" t="n">
         <v>4950</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AE35" t="n">
         <v>57</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AF35" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="AG35" t="n">
         <v>4</v>
       </c>
-      <c r="R35" t="n">
+      <c r="AH35" t="n">
         <v>6800</v>
       </c>
-      <c r="S35" t="n">
+      <c r="AI35" t="n">
         <v>0.28</v>
       </c>
-      <c r="T35" t="n">
+      <c r="AJ35" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Enercon E-17</t>
         </is>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
       </c>
       <c r="C36" t="n">
         <v>34</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>34</v>
+      </c>
+      <c r="K36" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" t="n">
+        <v>34</v>
+      </c>
+      <c r="M36" t="n">
+        <v>34</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34</v>
+      </c>
+      <c r="O36" t="n">
+        <v>34</v>
+      </c>
+      <c r="P36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>34</v>
+      </c>
+      <c r="R36" t="n">
+        <v>34</v>
+      </c>
+      <c r="S36" t="n">
+        <v>34</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
         <v>80</v>
       </c>
-      <c r="G36" t="n">
+      <c r="W36" t="n">
         <v>2.5</v>
       </c>
-      <c r="H36" t="n">
+      <c r="X36" t="n">
         <v>13</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="Y36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="Z36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="n">
         <v>30.5</v>
       </c>
-      <c r="L36" t="n">
+      <c r="AB36" t="n">
         <v>25</v>
       </c>
-      <c r="M36" t="n">
+      <c r="AC36" t="n">
         <v>373079</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AD36" t="n">
         <v>7200</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AE36" t="n">
         <v>42</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AF36" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="AG36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH36" t="n">
         <v>5100</v>
       </c>
-      <c r="S36" t="n">
+      <c r="AI36" t="n">
         <v>0.3</v>
       </c>
-      <c r="T36" t="n">
+      <c r="AJ36" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Greenstorm GS 21 S</t>
         </is>
-      </c>
-      <c r="B37" t="n">
-        <v>35</v>
       </c>
       <c r="C37" t="n">
         <v>35</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35</v>
+      </c>
+      <c r="N37" t="n">
+        <v>35</v>
+      </c>
+      <c r="O37" t="n">
+        <v>35</v>
+      </c>
+      <c r="P37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>35</v>
+      </c>
+      <c r="S37" t="n">
+        <v>35</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>60</v>
       </c>
-      <c r="G37" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="W37" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
         <v>36</v>
       </c>
-      <c r="L37" t="n">
+      <c r="AB37" t="n">
         <v>25</v>
       </c>
-      <c r="M37" t="n">
+      <c r="AC37" t="n">
         <v>284779</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AD37" t="n">
         <v>5400</v>
       </c>
-      <c r="O37" t="n">
+      <c r="AE37" t="n">
         <v>57</v>
       </c>
-      <c r="P37" t="n">
+      <c r="AF37" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="AG37" t="n">
         <v>4</v>
       </c>
-      <c r="R37" t="n">
+      <c r="AH37" t="n">
         <v>6800</v>
       </c>
-      <c r="S37" t="n">
+      <c r="AI37" t="n">
         <v>0.25</v>
       </c>
-      <c r="T37" t="n">
+      <c r="AJ37" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>WEG AGW 100</t>
         </is>
-      </c>
-      <c r="B38" t="n">
-        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>36</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
+      <c r="L38" t="n">
+        <v>36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>36</v>
+      </c>
+      <c r="N38" t="n">
+        <v>36</v>
+      </c>
+      <c r="O38" t="n">
+        <v>36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>36</v>
+      </c>
+      <c r="R38" t="n">
+        <v>36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>36</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
         <v>95</v>
       </c>
-      <c r="G38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="W38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" t="n">
         <v>12</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="Z38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA38" t="n">
         <v>37</v>
       </c>
-      <c r="L38" t="n">
+      <c r="AB38" t="n">
         <v>25</v>
       </c>
-      <c r="M38" t="n">
+      <c r="AC38" t="n">
         <v>442279</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AD38" t="n">
         <v>8550</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AE38" t="n">
         <v>57</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AF38" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="AG38" t="n">
         <v>4</v>
       </c>
-      <c r="R38" t="n">
+      <c r="AH38" t="n">
         <v>6800</v>
       </c>
-      <c r="S38" t="n">
+      <c r="AI38" t="n">
         <v>0.27</v>
       </c>
-      <c r="T38" t="n">
+      <c r="AJ38" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Iskra AT5-1</t>
         </is>
-      </c>
-      <c r="B39" t="n">
-        <v>37</v>
       </c>
       <c r="C39" t="n">
         <v>37</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>37</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37</v>
+      </c>
+      <c r="M39" t="n">
+        <v>37</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>37</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
         <v>5</v>
       </c>
-      <c r="G39" t="n">
+      <c r="W39" t="n">
         <v>2.5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="X39" t="n">
         <v>12</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="Z39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA39" t="n">
         <v>15</v>
       </c>
-      <c r="L39" t="n">
+      <c r="AB39" t="n">
         <v>60</v>
       </c>
-      <c r="M39" t="n">
+      <c r="AC39" t="n">
         <v>40679</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AD39" t="n">
         <v>450</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AE39" t="n">
         <v>91</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AF39" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="AG39" t="n">
         <v>6</v>
       </c>
-      <c r="R39" t="n">
+      <c r="AH39" t="n">
         <v>10200</v>
       </c>
-      <c r="S39" t="n">
+      <c r="AI39" t="n">
         <v>0.45</v>
       </c>
-      <c r="T39" t="n">
+      <c r="AJ39" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Jacobs Wind Electric 31-20</t>
         </is>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
       </c>
       <c r="C40" t="n">
         <v>38</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38</v>
+      </c>
+      <c r="J40" t="n">
+        <v>38</v>
+      </c>
+      <c r="K40" t="n">
+        <v>38</v>
+      </c>
+      <c r="L40" t="n">
+        <v>38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>38</v>
+      </c>
+      <c r="N40" t="n">
+        <v>38</v>
+      </c>
+      <c r="O40" t="n">
+        <v>38</v>
+      </c>
+      <c r="P40" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>38</v>
+      </c>
+      <c r="R40" t="n">
+        <v>38</v>
+      </c>
+      <c r="S40" t="n">
+        <v>38</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="n">
+      <c r="W40" t="n">
         <v>3.5</v>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="Z40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="n">
         <v>48.5</v>
       </c>
-      <c r="L40" t="n">
+      <c r="AB40" t="n">
         <v>30</v>
       </c>
-      <c r="M40" t="n">
+      <c r="AC40" t="n">
         <v>108179</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AD40" t="n">
         <v>1800</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AE40" t="n">
         <v>91</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AF40" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="AG40" t="n">
         <v>6</v>
       </c>
-      <c r="R40" t="n">
+      <c r="AH40" t="n">
         <v>10200</v>
       </c>
-      <c r="S40" t="n">
+      <c r="AI40" t="n">
         <v>0.49</v>
       </c>
-      <c r="T40" t="n">
+      <c r="AJ40" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Krogmann 15-50</t>
         </is>
-      </c>
-      <c r="B41" t="n">
-        <v>39</v>
       </c>
       <c r="C41" t="n">
         <v>39</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" t="n">
+        <v>39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>39</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+      <c r="J41" t="n">
+        <v>39</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39</v>
+      </c>
+      <c r="L41" t="n">
+        <v>39</v>
+      </c>
+      <c r="M41" t="n">
+        <v>39</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39</v>
+      </c>
+      <c r="O41" t="n">
+        <v>39</v>
+      </c>
+      <c r="P41" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>39</v>
+      </c>
+      <c r="R41" t="n">
+        <v>39</v>
+      </c>
+      <c r="S41" t="n">
+        <v>39</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
         <v>50</v>
       </c>
-      <c r="G41" t="n">
+      <c r="W41" t="n">
         <v>2.5</v>
       </c>
-      <c r="H41" t="n">
+      <c r="X41" t="n">
         <v>14</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="Z41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA41" t="n">
         <v>37</v>
       </c>
-      <c r="L41" t="n">
+      <c r="AB41" t="n">
         <v>25</v>
       </c>
-      <c r="M41" t="n">
+      <c r="AC41" t="n">
         <v>243179</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AD41" t="n">
         <v>4500</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AE41" t="n">
         <v>91</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AF41" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="AG41" t="n">
         <v>6</v>
       </c>
-      <c r="R41" t="n">
+      <c r="AH41" t="n">
         <v>10200</v>
       </c>
-      <c r="S41" t="n">
+      <c r="AI41" t="n">
         <v>0.36</v>
       </c>
-      <c r="T41" t="n">
+      <c r="AJ41" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Kuriant KE 18/4EH</t>
         </is>
-      </c>
-      <c r="B42" t="n">
-        <v>40</v>
       </c>
       <c r="C42" t="n">
         <v>40</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" t="n">
+        <v>40</v>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="n">
+        <v>40</v>
+      </c>
+      <c r="M42" t="n">
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
+        <v>40</v>
+      </c>
+      <c r="O42" t="n">
+        <v>40</v>
+      </c>
+      <c r="P42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>40</v>
+      </c>
+      <c r="R42" t="n">
+        <v>40</v>
+      </c>
+      <c r="S42" t="n">
+        <v>40</v>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
         <v>18</v>
       </c>
-      <c r="G42" t="n">
+      <c r="W42" t="n">
         <v>3.5</v>
       </c>
-      <c r="H42" t="n">
+      <c r="X42" t="n">
         <v>23</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="Z42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA42" t="n">
         <v>20</v>
       </c>
-      <c r="L42" t="n">
+      <c r="AB42" t="n">
         <v>25</v>
       </c>
-      <c r="M42" t="n">
+      <c r="AC42" t="n">
         <v>99179</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AD42" t="n">
         <v>1620</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AE42" t="n">
         <v>91</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AF42" t="n">
         <v>27.3</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="AG42" t="n">
         <v>6</v>
       </c>
-      <c r="R42" t="n">
+      <c r="AH42" t="n">
         <v>10200</v>
       </c>
-      <c r="S42" t="n">
+      <c r="AI42" t="n">
         <v>0.45</v>
       </c>
-      <c r="T42" t="n">
+      <c r="AJ42" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Leitwind LTW42 250</t>
         </is>
-      </c>
-      <c r="B43" t="n">
-        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>41</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" t="n">
+        <v>41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>41</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41</v>
+      </c>
+      <c r="J43" t="n">
+        <v>41</v>
+      </c>
+      <c r="K43" t="n">
+        <v>41</v>
+      </c>
+      <c r="L43" t="n">
+        <v>41</v>
+      </c>
+      <c r="M43" t="n">
+        <v>41</v>
+      </c>
+      <c r="N43" t="n">
+        <v>41</v>
+      </c>
+      <c r="O43" t="n">
+        <v>41</v>
+      </c>
+      <c r="P43" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>41</v>
+      </c>
+      <c r="R43" t="n">
+        <v>41</v>
+      </c>
+      <c r="S43" t="n">
+        <v>41</v>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
         <v>250</v>
       </c>
-      <c r="G43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="W43" t="n">
+        <v>3</v>
+      </c>
+      <c r="X43" t="n">
         <v>9</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="Z43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="n">
         <v>19.47</v>
       </c>
-      <c r="L43" t="n">
+      <c r="AB43" t="n">
         <v>25</v>
       </c>
-      <c r="M43" t="n">
+      <c r="AC43" t="n">
         <v>1139779</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AD43" t="n">
         <v>22500</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AE43" t="n">
         <v>57</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AF43" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="AG43" t="n">
         <v>4</v>
       </c>
-      <c r="R43" t="n">
+      <c r="AH43" t="n">
         <v>6800</v>
       </c>
-      <c r="S43" t="n">
+      <c r="AI43" t="n">
         <v>0.24</v>
       </c>
-      <c r="T43" t="n">
+      <c r="AJ43" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>MAN Aeroman 11/11</t>
         </is>
-      </c>
-      <c r="B44" t="n">
-        <v>42</v>
       </c>
       <c r="C44" t="n">
         <v>42</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42</v>
+      </c>
+      <c r="K44" t="n">
+        <v>42</v>
+      </c>
+      <c r="L44" t="n">
+        <v>42</v>
+      </c>
+      <c r="M44" t="n">
+        <v>42</v>
+      </c>
+      <c r="N44" t="n">
+        <v>42</v>
+      </c>
+      <c r="O44" t="n">
+        <v>42</v>
+      </c>
+      <c r="P44" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42</v>
+      </c>
+      <c r="R44" t="n">
+        <v>42</v>
+      </c>
+      <c r="S44" t="n">
+        <v>42</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>11</v>
       </c>
-      <c r="G44" t="n">
+      <c r="W44" t="n">
         <v>3.8</v>
       </c>
-      <c r="H44" t="n">
+      <c r="X44" t="n">
         <v>8.5</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="Z44" t="n">
         <v>2</v>
       </c>
-      <c r="K44" t="n">
+      <c r="AA44" t="n">
         <v>10</v>
       </c>
-      <c r="L44" t="n">
+      <c r="AB44" t="n">
         <v>24</v>
       </c>
-      <c r="M44" t="n">
+      <c r="AC44" t="n">
         <v>67679</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AD44" t="n">
         <v>990</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AE44" t="n">
         <v>95</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AF44" t="n">
         <v>28.5</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="AG44" t="n">
         <v>6</v>
       </c>
-      <c r="R44" t="n">
+      <c r="AH44" t="n">
         <v>10200</v>
       </c>
-      <c r="S44" t="n">
+      <c r="AI44" t="n">
         <v>0.33</v>
       </c>
-      <c r="T44" t="n">
+      <c r="AJ44" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Nordex N27/150</t>
         </is>
-      </c>
-      <c r="B45" t="n">
-        <v>43</v>
       </c>
       <c r="C45" t="n">
         <v>43</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="H45" t="n">
+        <v>43</v>
+      </c>
+      <c r="I45" t="n">
+        <v>43</v>
+      </c>
+      <c r="J45" t="n">
+        <v>43</v>
+      </c>
+      <c r="K45" t="n">
+        <v>43</v>
+      </c>
+      <c r="L45" t="n">
+        <v>43</v>
+      </c>
+      <c r="M45" t="n">
+        <v>43</v>
+      </c>
+      <c r="N45" t="n">
+        <v>43</v>
+      </c>
+      <c r="O45" t="n">
+        <v>43</v>
+      </c>
+      <c r="P45" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>43</v>
+      </c>
+      <c r="R45" t="n">
+        <v>43</v>
+      </c>
+      <c r="S45" t="n">
+        <v>43</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
         <v>150</v>
       </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
+        <v>3</v>
+      </c>
+      <c r="X45" t="n">
         <v>15.5</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="Z45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA45" t="n">
         <v>50</v>
       </c>
-      <c r="L45" t="n">
+      <c r="AB45" t="n">
         <v>25</v>
       </c>
-      <c r="M45" t="n">
+      <c r="AC45" t="n">
         <v>696579</v>
       </c>
-      <c r="N45" t="n">
+      <c r="AD45" t="n">
         <v>13500</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AE45" t="n">
         <v>135</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AF45" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="AG45" t="n">
         <v>8</v>
       </c>
-      <c r="R45" t="n">
+      <c r="AH45" t="n">
         <v>13600</v>
       </c>
-      <c r="S45" t="n">
+      <c r="AI45" t="n">
         <v>0.33</v>
       </c>
-      <c r="T45" t="n">
+      <c r="AJ45" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Nordex N27/250</t>
         </is>
-      </c>
-      <c r="B46" t="n">
-        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>44</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>44</v>
+      </c>
+      <c r="G46" t="n">
+        <v>44</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
+        <v>44</v>
+      </c>
+      <c r="K46" t="n">
+        <v>44</v>
+      </c>
+      <c r="L46" t="n">
+        <v>44</v>
+      </c>
+      <c r="M46" t="n">
+        <v>44</v>
+      </c>
+      <c r="N46" t="n">
+        <v>44</v>
+      </c>
+      <c r="O46" t="n">
+        <v>44</v>
+      </c>
+      <c r="P46" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>44</v>
+      </c>
+      <c r="R46" t="n">
+        <v>44</v>
+      </c>
+      <c r="S46" t="n">
+        <v>44</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
         <v>250</v>
       </c>
-      <c r="G46" t="n">
-        <v>3</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="W46" t="n">
+        <v>3</v>
+      </c>
+      <c r="X46" t="n">
         <v>15.5</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="Z46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" t="n">
         <v>50</v>
       </c>
-      <c r="L46" t="n">
+      <c r="AB46" t="n">
         <v>25</v>
       </c>
-      <c r="M46" t="n">
+      <c r="AC46" t="n">
         <v>1146579</v>
       </c>
-      <c r="N46" t="n">
+      <c r="AD46" t="n">
         <v>22500</v>
       </c>
-      <c r="O46" t="n">
+      <c r="AE46" t="n">
         <v>135</v>
       </c>
-      <c r="P46" t="n">
+      <c r="AF46" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="AG46" t="n">
         <v>8</v>
       </c>
-      <c r="R46" t="n">
+      <c r="AH46" t="n">
         <v>13600</v>
       </c>
-      <c r="S46" t="n">
+      <c r="AI46" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="T46" t="n">
+      <c r="AJ46" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Nordex N29</t>
         </is>
-      </c>
-      <c r="B47" t="n">
-        <v>45</v>
       </c>
       <c r="C47" t="n">
         <v>45</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45</v>
+      </c>
+      <c r="L47" t="n">
+        <v>45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>45</v>
+      </c>
+      <c r="N47" t="n">
+        <v>45</v>
+      </c>
+      <c r="O47" t="n">
+        <v>45</v>
+      </c>
+      <c r="P47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>45</v>
+      </c>
+      <c r="R47" t="n">
+        <v>45</v>
+      </c>
+      <c r="S47" t="n">
+        <v>45</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
         <v>250</v>
       </c>
-      <c r="G47" t="n">
-        <v>3</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="W47" t="n">
+        <v>3</v>
+      </c>
+      <c r="X47" t="n">
         <v>15</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="Z47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA47" t="n">
         <v>50</v>
       </c>
-      <c r="L47" t="n">
+      <c r="AB47" t="n">
         <v>25</v>
       </c>
-      <c r="M47" t="n">
+      <c r="AC47" t="n">
         <v>1149979</v>
       </c>
-      <c r="N47" t="n">
+      <c r="AD47" t="n">
         <v>22500</v>
       </c>
-      <c r="O47" t="n">
+      <c r="AE47" t="n">
         <v>162</v>
       </c>
-      <c r="P47" t="n">
+      <c r="AF47" t="n">
         <v>48.6</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="AG47" t="n">
         <v>10</v>
       </c>
-      <c r="R47" t="n">
+      <c r="AH47" t="n">
         <v>17000</v>
       </c>
-      <c r="S47" t="n">
+      <c r="AI47" t="n">
         <v>0.49</v>
       </c>
-      <c r="T47" t="n">
+      <c r="AJ47" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">Nordtank NTK 150 </t>
         </is>
-      </c>
-      <c r="B48" t="n">
-        <v>46</v>
       </c>
       <c r="C48" t="n">
         <v>46</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" t="n">
+        <v>46</v>
+      </c>
+      <c r="G48" t="n">
+        <v>46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
+        <v>46</v>
+      </c>
+      <c r="K48" t="n">
+        <v>46</v>
+      </c>
+      <c r="L48" t="n">
+        <v>46</v>
+      </c>
+      <c r="M48" t="n">
+        <v>46</v>
+      </c>
+      <c r="N48" t="n">
+        <v>46</v>
+      </c>
+      <c r="O48" t="n">
+        <v>46</v>
+      </c>
+      <c r="P48" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>46</v>
+      </c>
+      <c r="R48" t="n">
+        <v>46</v>
+      </c>
+      <c r="S48" t="n">
+        <v>46</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
         <v>150</v>
       </c>
-      <c r="G48" t="n">
+      <c r="W48" t="n">
         <v>4</v>
       </c>
-      <c r="H48" t="n">
+      <c r="X48" t="n">
         <v>13.5</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="Z48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA48" t="n">
         <v>32.5</v>
       </c>
-      <c r="L48" t="n">
+      <c r="AB48" t="n">
         <v>25</v>
       </c>
-      <c r="M48" t="n">
+      <c r="AC48" t="n">
         <v>696579</v>
       </c>
-      <c r="N48" t="n">
+      <c r="AD48" t="n">
         <v>13500</v>
       </c>
-      <c r="O48" t="n">
+      <c r="AE48" t="n">
         <v>135</v>
       </c>
-      <c r="P48" t="n">
+      <c r="AF48" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="AG48" t="n">
         <v>8</v>
       </c>
-      <c r="R48" t="n">
+      <c r="AH48" t="n">
         <v>13600</v>
       </c>
-      <c r="S48" t="n">
+      <c r="AI48" t="n">
         <v>0.36</v>
       </c>
-      <c r="T48" t="n">
+      <c r="AJ48" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Nordtank NTK 200</t>
         </is>
-      </c>
-      <c r="B49" t="n">
-        <v>47</v>
       </c>
       <c r="C49" t="n">
         <v>47</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="n">
+        <v>47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
+      <c r="J49" t="n">
+        <v>47</v>
+      </c>
+      <c r="K49" t="n">
+        <v>47</v>
+      </c>
+      <c r="L49" t="n">
+        <v>47</v>
+      </c>
+      <c r="M49" t="n">
+        <v>47</v>
+      </c>
+      <c r="N49" t="n">
+        <v>47</v>
+      </c>
+      <c r="O49" t="n">
+        <v>47</v>
+      </c>
+      <c r="P49" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>47</v>
+      </c>
+      <c r="R49" t="n">
+        <v>47</v>
+      </c>
+      <c r="S49" t="n">
+        <v>47</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
         <v>200</v>
       </c>
-      <c r="G49" t="n">
+      <c r="W49" t="n">
         <v>4</v>
       </c>
-      <c r="H49" t="n">
+      <c r="X49" t="n">
         <v>12.5</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="Z49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA49" t="n">
         <v>30</v>
       </c>
-      <c r="L49" t="n">
+      <c r="AB49" t="n">
         <v>25</v>
       </c>
-      <c r="M49" t="n">
+      <c r="AC49" t="n">
         <v>921579</v>
       </c>
-      <c r="N49" t="n">
+      <c r="AD49" t="n">
         <v>18000</v>
       </c>
-      <c r="O49" t="n">
+      <c r="AE49" t="n">
         <v>135</v>
       </c>
-      <c r="P49" t="n">
+      <c r="AF49" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="AG49" t="n">
         <v>8</v>
       </c>
-      <c r="R49" t="n">
+      <c r="AH49" t="n">
         <v>13600</v>
       </c>
-      <c r="S49" t="n">
+      <c r="AI49" t="n">
         <v>0.31</v>
       </c>
-      <c r="T49" t="n">
+      <c r="AJ49" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>NPS Northern Power NPS 60-24</t>
         </is>
-      </c>
-      <c r="B50" t="n">
-        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>48</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>48</v>
+      </c>
+      <c r="F50" t="n">
+        <v>48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>48</v>
+      </c>
+      <c r="H50" t="n">
+        <v>48</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>48</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48</v>
+      </c>
+      <c r="L50" t="n">
+        <v>48</v>
+      </c>
+      <c r="M50" t="n">
+        <v>48</v>
+      </c>
+      <c r="N50" t="n">
+        <v>48</v>
+      </c>
+      <c r="O50" t="n">
+        <v>48</v>
+      </c>
+      <c r="P50" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>48</v>
+      </c>
+      <c r="R50" t="n">
+        <v>48</v>
+      </c>
+      <c r="S50" t="n">
+        <v>48</v>
+      </c>
+      <c r="T50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>60</v>
       </c>
-      <c r="G50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="W50" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" t="n">
         <v>11</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="J50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="Z50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA50" t="n">
         <v>37</v>
       </c>
-      <c r="L50" t="n">
+      <c r="AB50" t="n">
         <v>25</v>
       </c>
-      <c r="M50" t="n">
+      <c r="AC50" t="n">
         <v>284779</v>
       </c>
-      <c r="N50" t="n">
+      <c r="AD50" t="n">
         <v>5400</v>
       </c>
-      <c r="O50" t="n">
+      <c r="AE50" t="n">
         <v>57</v>
       </c>
-      <c r="P50" t="n">
+      <c r="AF50" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="AG50" t="n">
         <v>4</v>
       </c>
-      <c r="R50" t="n">
+      <c r="AH50" t="n">
         <v>6800</v>
       </c>
-      <c r="S50" t="n">
+      <c r="AI50" t="n">
         <v>0.25</v>
       </c>
-      <c r="T50" t="n">
+      <c r="AJ50" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>NPS Northern Power NPS 100C-24</t>
         </is>
-      </c>
-      <c r="B51" t="n">
-        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>49</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" t="n">
+        <v>49</v>
+      </c>
+      <c r="G51" t="n">
+        <v>49</v>
+      </c>
+      <c r="H51" t="n">
+        <v>49</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49</v>
+      </c>
+      <c r="L51" t="n">
+        <v>49</v>
+      </c>
+      <c r="M51" t="n">
+        <v>49</v>
+      </c>
+      <c r="N51" t="n">
+        <v>49</v>
+      </c>
+      <c r="O51" t="n">
+        <v>49</v>
+      </c>
+      <c r="P51" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>49</v>
+      </c>
+      <c r="R51" t="n">
+        <v>49</v>
+      </c>
+      <c r="S51" t="n">
+        <v>49</v>
+      </c>
+      <c r="T51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
         <v>100</v>
       </c>
-      <c r="G51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
         <v>12</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="Z51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA51" t="n">
         <v>37</v>
       </c>
-      <c r="L51" t="n">
+      <c r="AB51" t="n">
         <v>25</v>
       </c>
-      <c r="M51" t="n">
+      <c r="AC51" t="n">
         <v>464779</v>
       </c>
-      <c r="N51" t="n">
+      <c r="AD51" t="n">
         <v>9000</v>
       </c>
-      <c r="O51" t="n">
+      <c r="AE51" t="n">
         <v>57</v>
       </c>
-      <c r="P51" t="n">
+      <c r="AF51" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="AG51" t="n">
         <v>4</v>
       </c>
-      <c r="R51" t="n">
+      <c r="AH51" t="n">
         <v>6800</v>
       </c>
-      <c r="S51" t="n">
+      <c r="AI51" t="n">
         <v>0.28</v>
       </c>
-      <c r="T51" t="n">
+      <c r="AJ51" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Norwin 24 STALL 150</t>
         </is>
-      </c>
-      <c r="B52" t="n">
-        <v>50</v>
       </c>
       <c r="C52" t="n">
         <v>50</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50</v>
+      </c>
+      <c r="L52" t="n">
+        <v>50</v>
+      </c>
+      <c r="M52" t="n">
+        <v>50</v>
+      </c>
+      <c r="N52" t="n">
+        <v>50</v>
+      </c>
+      <c r="O52" t="n">
+        <v>50</v>
+      </c>
+      <c r="P52" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>50</v>
+      </c>
+      <c r="R52" t="n">
+        <v>50</v>
+      </c>
+      <c r="S52" t="n">
+        <v>50</v>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>150</v>
       </c>
-      <c r="G52" t="n">
+      <c r="W52" t="n">
         <v>4</v>
       </c>
-      <c r="H52" t="n">
+      <c r="X52" t="n">
         <v>14</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="Y52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="n">
         <v>30</v>
       </c>
-      <c r="L52" t="n">
+      <c r="AB52" t="n">
         <v>25</v>
       </c>
-      <c r="M52" t="n">
+      <c r="AC52" t="n">
         <v>696579</v>
       </c>
-      <c r="N52" t="n">
+      <c r="AD52" t="n">
         <v>13500</v>
       </c>
-      <c r="O52" t="n">
+      <c r="AE52" t="n">
         <v>135</v>
       </c>
-      <c r="P52" t="n">
+      <c r="AF52" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="AG52" t="n">
         <v>8</v>
       </c>
-      <c r="R52" t="n">
+      <c r="AH52" t="n">
         <v>13600</v>
       </c>
-      <c r="S52" t="n">
+      <c r="AI52" t="n">
         <v>0.42</v>
       </c>
-      <c r="T52" t="n">
+      <c r="AJ52" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Norwin 29 STALL 225</t>
         </is>
-      </c>
-      <c r="B53" t="n">
-        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>51</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" t="n">
+        <v>51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
+        <v>51</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>51</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51</v>
+      </c>
+      <c r="L53" t="n">
+        <v>51</v>
+      </c>
+      <c r="M53" t="n">
+        <v>51</v>
+      </c>
+      <c r="N53" t="n">
+        <v>51</v>
+      </c>
+      <c r="O53" t="n">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>51</v>
+      </c>
+      <c r="R53" t="n">
+        <v>51</v>
+      </c>
+      <c r="S53" t="n">
+        <v>51</v>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
         <v>225</v>
       </c>
-      <c r="G53" t="n">
+      <c r="W53" t="n">
         <v>4</v>
       </c>
-      <c r="H53" t="n">
+      <c r="X53" t="n">
         <v>14</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" t="n">
+      <c r="Z53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA53" t="n">
         <v>40</v>
       </c>
-      <c r="L53" t="n">
+      <c r="AB53" t="n">
         <v>25</v>
       </c>
-      <c r="M53" t="n">
+      <c r="AC53" t="n">
         <v>1037479</v>
       </c>
-      <c r="N53" t="n">
+      <c r="AD53" t="n">
         <v>20250</v>
       </c>
-      <c r="O53" t="n">
+      <c r="AE53" t="n">
         <v>164</v>
       </c>
-      <c r="P53" t="n">
+      <c r="AF53" t="n">
         <v>49.2</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="AG53" t="n">
         <v>10</v>
       </c>
-      <c r="R53" t="n">
+      <c r="AH53" t="n">
         <v>17000</v>
       </c>
-      <c r="S53" t="n">
+      <c r="AI53" t="n">
         <v>0.61</v>
       </c>
-      <c r="T53" t="n">
+      <c r="AJ53" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Ropatec 3kW</t>
         </is>
-      </c>
-      <c r="B54" t="n">
-        <v>52</v>
       </c>
       <c r="C54" t="n">
         <v>52</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" t="n">
+        <v>52</v>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
+        <v>52</v>
+      </c>
+      <c r="K54" t="n">
+        <v>52</v>
+      </c>
+      <c r="L54" t="n">
+        <v>52</v>
+      </c>
+      <c r="M54" t="n">
+        <v>52</v>
+      </c>
+      <c r="N54" t="n">
+        <v>52</v>
+      </c>
+      <c r="O54" t="n">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>52</v>
+      </c>
+      <c r="R54" t="n">
+        <v>52</v>
+      </c>
+      <c r="S54" t="n">
+        <v>52</v>
+      </c>
+      <c r="T54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
         <v>4</v>
       </c>
-      <c r="H54" t="n">
+      <c r="X54" t="n">
         <v>13</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="Y54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="J54" t="n">
-        <v>3</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="Z54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" t="n">
         <v>10.9</v>
       </c>
-      <c r="L54" t="n">
+      <c r="AB54" t="n">
         <v>17</v>
       </c>
-      <c r="M54" t="n">
+      <c r="AC54" t="n">
         <v>38479</v>
       </c>
-      <c r="N54" t="n">
+      <c r="AD54" t="n">
         <v>270</v>
       </c>
-      <c r="O54" t="n">
+      <c r="AE54" t="n">
         <v>162</v>
       </c>
-      <c r="P54" t="n">
+      <c r="AF54" t="n">
         <v>48.6</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="AG54" t="n">
         <v>10</v>
       </c>
-      <c r="R54" t="n">
+      <c r="AH54" t="n">
         <v>17000</v>
       </c>
-      <c r="S54" t="n">
+      <c r="AI54" t="n">
         <v>1.13</v>
       </c>
-      <c r="T54" t="n">
+      <c r="AJ54" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Siva 250/50</t>
         </is>
-      </c>
-      <c r="B55" t="n">
-        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>53</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" t="n">
+        <v>53</v>
+      </c>
+      <c r="G55" t="n">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n">
+        <v>53</v>
+      </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="n">
+        <v>53</v>
+      </c>
+      <c r="L55" t="n">
+        <v>53</v>
+      </c>
+      <c r="M55" t="n">
+        <v>53</v>
+      </c>
+      <c r="N55" t="n">
+        <v>53</v>
+      </c>
+      <c r="O55" t="n">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>53</v>
+      </c>
+      <c r="R55" t="n">
+        <v>53</v>
+      </c>
+      <c r="S55" t="n">
+        <v>53</v>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>250</v>
       </c>
-      <c r="G55" t="n">
+      <c r="W55" t="n">
         <v>4</v>
       </c>
-      <c r="H55" t="n">
+      <c r="X55" t="n">
         <v>14</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="Y55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="J55" t="n">
-        <v>3</v>
-      </c>
-      <c r="K55" t="n">
+      <c r="Z55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA55" t="n">
         <v>48.4</v>
       </c>
-      <c r="L55" t="n">
+      <c r="AB55" t="n">
         <v>25</v>
       </c>
-      <c r="M55" t="n">
+      <c r="AC55" t="n">
         <v>1146579</v>
       </c>
-      <c r="N55" t="n">
+      <c r="AD55" t="n">
         <v>22500</v>
       </c>
-      <c r="O55" t="n">
+      <c r="AE55" t="n">
         <v>135</v>
       </c>
-      <c r="P55" t="n">
+      <c r="AF55" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="AG55" t="n">
         <v>8</v>
       </c>
-      <c r="R55" t="n">
+      <c r="AH55" t="n">
         <v>13600</v>
       </c>
-      <c r="S55" t="n">
+      <c r="AI55" t="n">
         <v>0.39</v>
       </c>
-      <c r="T55" t="n">
+      <c r="AJ55" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Tacke TW 45</t>
         </is>
-      </c>
-      <c r="B56" t="n">
-        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>54</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" t="n">
+        <v>54</v>
+      </c>
+      <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>54</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+      <c r="J56" t="n">
+        <v>54</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54</v>
+      </c>
+      <c r="L56" t="n">
+        <v>54</v>
+      </c>
+      <c r="M56" t="n">
+        <v>54</v>
+      </c>
+      <c r="N56" t="n">
+        <v>54</v>
+      </c>
+      <c r="O56" t="n">
+        <v>54</v>
+      </c>
+      <c r="P56" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>54</v>
+      </c>
+      <c r="R56" t="n">
+        <v>54</v>
+      </c>
+      <c r="S56" t="n">
+        <v>54</v>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
         <v>45</v>
       </c>
-      <c r="G56" t="n">
-        <v>3</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="W56" t="n">
+        <v>3</v>
+      </c>
+      <c r="X56" t="n">
         <v>12.5</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
-      <c r="K56" t="n">
+      <c r="Z56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA56" t="n">
         <v>24</v>
       </c>
-      <c r="L56" t="n">
+      <c r="AB56" t="n">
         <v>20</v>
       </c>
-      <c r="M56" t="n">
+      <c r="AC56" t="n">
         <v>217279</v>
       </c>
-      <c r="N56" t="n">
+      <c r="AD56" t="n">
         <v>4050</v>
       </c>
-      <c r="O56" t="n">
+      <c r="AE56" t="n">
         <v>57</v>
       </c>
-      <c r="P56" t="n">
+      <c r="AF56" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="AG56" t="n">
         <v>4</v>
       </c>
-      <c r="R56" t="n">
+      <c r="AH56" t="n">
         <v>6800</v>
       </c>
-      <c r="S56" t="n">
+      <c r="AI56" t="n">
         <v>0.37</v>
       </c>
-      <c r="T56" t="n">
+      <c r="AJ56" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Tacke TW 80</t>
         </is>
-      </c>
-      <c r="B57" t="n">
-        <v>55</v>
       </c>
       <c r="C57" t="n">
         <v>55</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55</v>
+      </c>
+      <c r="H57" t="n">
+        <v>55</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>55</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55</v>
+      </c>
+      <c r="L57" t="n">
+        <v>55</v>
+      </c>
+      <c r="M57" t="n">
+        <v>55</v>
+      </c>
+      <c r="N57" t="n">
+        <v>55</v>
+      </c>
+      <c r="O57" t="n">
+        <v>55</v>
+      </c>
+      <c r="P57" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>55</v>
+      </c>
+      <c r="R57" t="n">
+        <v>55</v>
+      </c>
+      <c r="S57" t="n">
+        <v>55</v>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
         <v>80</v>
       </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="W57" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" t="n">
         <v>11.5</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="J57" t="n">
-        <v>3</v>
-      </c>
-      <c r="K57" t="n">
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
         <v>40</v>
       </c>
-      <c r="L57" t="n">
+      <c r="AB57" t="n">
         <v>25</v>
       </c>
-      <c r="M57" t="n">
+      <c r="AC57" t="n">
         <v>374779</v>
       </c>
-      <c r="N57" t="n">
+      <c r="AD57" t="n">
         <v>7200</v>
       </c>
-      <c r="O57" t="n">
+      <c r="AE57" t="n">
         <v>57</v>
       </c>
-      <c r="P57" t="n">
+      <c r="AF57" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="AG57" t="n">
         <v>4</v>
       </c>
-      <c r="R57" t="n">
+      <c r="AH57" t="n">
         <v>6800</v>
       </c>
-      <c r="S57" t="n">
+      <c r="AI57" t="n">
         <v>0.32</v>
       </c>
-      <c r="T57" t="n">
+      <c r="AJ57" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Tellus T-1780</t>
         </is>
-      </c>
-      <c r="B58" t="n">
-        <v>56</v>
       </c>
       <c r="C58" t="n">
         <v>56</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>56</v>
+      </c>
+      <c r="F58" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" t="n">
+        <v>56</v>
+      </c>
+      <c r="H58" t="n">
+        <v>56</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" t="n">
+        <v>56</v>
+      </c>
+      <c r="K58" t="n">
+        <v>56</v>
+      </c>
+      <c r="L58" t="n">
+        <v>56</v>
+      </c>
+      <c r="M58" t="n">
+        <v>56</v>
+      </c>
+      <c r="N58" t="n">
+        <v>56</v>
+      </c>
+      <c r="O58" t="n">
+        <v>56</v>
+      </c>
+      <c r="P58" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>56</v>
+      </c>
+      <c r="R58" t="n">
+        <v>56</v>
+      </c>
+      <c r="S58" t="n">
+        <v>56</v>
+      </c>
+      <c r="T58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
         <v>80</v>
       </c>
-      <c r="G58" t="n">
-        <v>3</v>
-      </c>
-      <c r="H58" t="n">
+      <c r="W58" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" t="n">
         <v>14</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="Y58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="J58" t="n">
-        <v>3</v>
-      </c>
-      <c r="K58" t="n">
+      <c r="Z58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA58" t="n">
         <v>40.8</v>
       </c>
-      <c r="L58" t="n">
+      <c r="AB58" t="n">
         <v>28</v>
       </c>
-      <c r="M58" t="n">
+      <c r="AC58" t="n">
         <v>374779</v>
       </c>
-      <c r="N58" t="n">
+      <c r="AD58" t="n">
         <v>7200</v>
       </c>
-      <c r="O58" t="n">
+      <c r="AE58" t="n">
         <v>57</v>
       </c>
-      <c r="P58" t="n">
+      <c r="AF58" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="AG58" t="n">
         <v>4</v>
       </c>
-      <c r="R58" t="n">
+      <c r="AH58" t="n">
         <v>6800</v>
       </c>
-      <c r="S58" t="n">
+      <c r="AI58" t="n">
         <v>0.32</v>
       </c>
-      <c r="T58" t="n">
+      <c r="AJ58" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Wind Turbine Company WTC 100</t>
         </is>
-      </c>
-      <c r="B59" t="n">
-        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>57</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>57</v>
+      </c>
+      <c r="F59" t="n">
+        <v>57</v>
+      </c>
+      <c r="G59" t="n">
+        <v>57</v>
+      </c>
+      <c r="H59" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>57</v>
+      </c>
+      <c r="K59" t="n">
+        <v>57</v>
+      </c>
+      <c r="L59" t="n">
+        <v>57</v>
+      </c>
+      <c r="M59" t="n">
+        <v>57</v>
+      </c>
+      <c r="N59" t="n">
+        <v>57</v>
+      </c>
+      <c r="O59" t="n">
+        <v>57</v>
+      </c>
+      <c r="P59" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>57</v>
+      </c>
+      <c r="R59" t="n">
+        <v>57</v>
+      </c>
+      <c r="S59" t="n">
+        <v>57</v>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>100</v>
       </c>
-      <c r="G59" t="n">
+      <c r="W59" t="n">
         <v>2.5</v>
       </c>
-      <c r="H59" t="n">
+      <c r="X59" t="n">
         <v>11</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="Z59" t="n">
         <v>2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="AA59" t="n">
         <v>50</v>
       </c>
-      <c r="L59" t="n">
+      <c r="AB59" t="n">
         <v>20</v>
       </c>
-      <c r="M59" t="n">
+      <c r="AC59" t="n">
         <v>463079</v>
       </c>
-      <c r="N59" t="n">
+      <c r="AD59" t="n">
         <v>9000</v>
       </c>
-      <c r="O59" t="n">
+      <c r="AE59" t="n">
         <v>42</v>
       </c>
-      <c r="P59" t="n">
+      <c r="AF59" t="n">
         <v>12.6</v>
       </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
+      <c r="AG59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH59" t="n">
         <v>5100</v>
       </c>
-      <c r="S59" t="n">
+      <c r="AI59" t="n">
         <v>0.26</v>
       </c>
-      <c r="T59" t="n">
+      <c r="AJ59" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>TUGE 10 kW</t>
         </is>
-      </c>
-      <c r="B60" t="n">
-        <v>58</v>
       </c>
       <c r="C60" t="n">
         <v>58</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>58</v>
+      </c>
+      <c r="F60" t="n">
+        <v>58</v>
+      </c>
+      <c r="G60" t="n">
+        <v>58</v>
+      </c>
+      <c r="H60" t="n">
+        <v>58</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>58</v>
+      </c>
+      <c r="K60" t="n">
+        <v>58</v>
+      </c>
+      <c r="L60" t="n">
+        <v>58</v>
+      </c>
+      <c r="M60" t="n">
+        <v>58</v>
+      </c>
+      <c r="N60" t="n">
+        <v>58</v>
+      </c>
+      <c r="O60" t="n">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>58</v>
+      </c>
+      <c r="R60" t="n">
+        <v>58</v>
+      </c>
+      <c r="S60" t="n">
+        <v>58</v>
+      </c>
+      <c r="T60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
         <v>10</v>
       </c>
-      <c r="G60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H60" t="n">
+      <c r="W60" t="n">
+        <v>3</v>
+      </c>
+      <c r="X60" t="n">
         <v>11</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="Y60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
+      <c r="Z60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA60" t="n">
         <v>22</v>
       </c>
-      <c r="L60" t="n">
+      <c r="AB60" t="n">
         <v>25</v>
       </c>
-      <c r="M60" t="n">
+      <c r="AC60" t="n">
         <v>66579</v>
       </c>
-      <c r="N60" t="n">
+      <c r="AD60" t="n">
         <v>900</v>
       </c>
-      <c r="O60" t="n">
+      <c r="AE60" t="n">
         <v>135</v>
       </c>
-      <c r="P60" t="n">
+      <c r="AF60" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="AG60" t="n">
         <v>8</v>
       </c>
-      <c r="R60" t="n">
+      <c r="AH60" t="n">
         <v>13600</v>
       </c>
-      <c r="S60" t="n">
+      <c r="AI60" t="n">
         <v>0.47</v>
       </c>
-      <c r="T60" t="n">
+      <c r="AJ60" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Venturicon 3.ZERO</t>
         </is>
-      </c>
-      <c r="B61" t="n">
-        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>59</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" t="n">
+        <v>59</v>
+      </c>
+      <c r="G61" t="n">
+        <v>59</v>
+      </c>
+      <c r="H61" t="n">
+        <v>59</v>
+      </c>
+      <c r="I61" t="n">
+        <v>59</v>
+      </c>
+      <c r="J61" t="n">
+        <v>59</v>
+      </c>
+      <c r="K61" t="n">
+        <v>59</v>
+      </c>
+      <c r="L61" t="n">
+        <v>59</v>
+      </c>
+      <c r="M61" t="n">
+        <v>59</v>
+      </c>
+      <c r="N61" t="n">
+        <v>59</v>
+      </c>
+      <c r="O61" t="n">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>59</v>
+      </c>
+      <c r="R61" t="n">
+        <v>59</v>
+      </c>
+      <c r="S61" t="n">
+        <v>59</v>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
         <v>3.2</v>
       </c>
-      <c r="G61" t="n">
-        <v>3</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
         <v>18</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="Y61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="J61" t="n">
+      <c r="Z61" t="n">
         <v>5</v>
       </c>
-      <c r="K61" t="n">
+      <c r="AA61" t="n">
         <v>4</v>
       </c>
-      <c r="L61" t="n">
+      <c r="AB61" t="n">
         <v>25</v>
       </c>
-      <c r="M61" t="n">
+      <c r="AC61" t="n">
         <v>41079</v>
       </c>
-      <c r="N61" t="n">
+      <c r="AD61" t="n">
         <v>288</v>
       </c>
-      <c r="O61" t="n">
+      <c r="AE61" t="n">
         <v>173</v>
       </c>
-      <c r="P61" t="n">
+      <c r="AF61" t="n">
         <v>51.9</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="AG61" t="n">
         <v>11</v>
       </c>
-      <c r="R61" t="n">
+      <c r="AH61" t="n">
         <v>18700</v>
       </c>
-      <c r="S61" t="n">
+      <c r="AI61" t="n">
         <v>2.42</v>
       </c>
-      <c r="T61" t="n">
+      <c r="AJ61" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Vergnet GEV MP C 200/30</t>
         </is>
-      </c>
-      <c r="B62" t="n">
-        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>60</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
-        </is>
+      <c r="D62" t="n">
+        <v>60</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>30.0 m</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="K62" t="n">
         <v>60</v>
       </c>
       <c r="L62" t="n">
+        <v>60</v>
+      </c>
+      <c r="M62" t="n">
+        <v>60</v>
+      </c>
+      <c r="N62" t="n">
+        <v>60</v>
+      </c>
+      <c r="O62" t="n">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>60</v>
+      </c>
+      <c r="R62" t="n">
+        <v>60</v>
+      </c>
+      <c r="S62" t="n">
+        <v>60</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>200</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X62" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>30.0 m</t>
+        </is>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB62" t="n">
         <v>25</v>
       </c>
-      <c r="M62" t="n">
+      <c r="AC62" t="n">
         <v>918179</v>
       </c>
-      <c r="N62" t="n">
+      <c r="AD62" t="n">
         <v>18000</v>
       </c>
-      <c r="O62" t="n">
+      <c r="AE62" t="n">
         <v>92</v>
       </c>
-      <c r="P62" t="n">
+      <c r="AF62" t="n">
         <v>27.6</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="AG62" t="n">
         <v>6</v>
       </c>
-      <c r="R62" t="n">
+      <c r="AH62" t="n">
         <v>10200</v>
       </c>
-      <c r="S62" t="n">
+      <c r="AI62" t="n">
         <v>0.32</v>
       </c>
-      <c r="T62" t="n">
+      <c r="AJ62" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Vergnet GEV MP C 200/32</t>
         </is>
-      </c>
-      <c r="B63" t="n">
-        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>61</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>61</v>
+      </c>
+      <c r="G63" t="n">
+        <v>61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" t="n">
+        <v>61</v>
+      </c>
+      <c r="K63" t="n">
+        <v>61</v>
+      </c>
+      <c r="L63" t="n">
+        <v>61</v>
+      </c>
+      <c r="M63" t="n">
+        <v>61</v>
+      </c>
+      <c r="N63" t="n">
+        <v>61</v>
+      </c>
+      <c r="O63" t="n">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>61</v>
+      </c>
+      <c r="R63" t="n">
+        <v>61</v>
+      </c>
+      <c r="S63" t="n">
+        <v>61</v>
+      </c>
+      <c r="T63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
         <v>200</v>
       </c>
-      <c r="G63" t="n">
+      <c r="W63" t="n">
         <v>3.5</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="J63" t="n">
+      <c r="Z63" t="n">
         <v>2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="AA63" t="n">
         <v>60</v>
       </c>
-      <c r="L63" t="n">
+      <c r="AB63" t="n">
         <v>25</v>
       </c>
-      <c r="M63" t="n">
+      <c r="AC63" t="n">
         <v>918179</v>
       </c>
-      <c r="N63" t="n">
+      <c r="AD63" t="n">
         <v>18000</v>
       </c>
-      <c r="O63" t="n">
+      <c r="AE63" t="n">
         <v>92</v>
       </c>
-      <c r="P63" t="n">
+      <c r="AF63" t="n">
         <v>27.6</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="AG63" t="n">
         <v>6</v>
       </c>
-      <c r="R63" t="n">
+      <c r="AH63" t="n">
         <v>10200</v>
       </c>
-      <c r="S63" t="n">
+      <c r="AI63" t="n">
         <v>0.29</v>
       </c>
-      <c r="T63" t="n">
+      <c r="AJ63" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Vestas V29</t>
         </is>
-      </c>
-      <c r="B64" t="n">
-        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>62</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="n">
+        <v>62</v>
+      </c>
+      <c r="E64" t="n">
+        <v>62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62</v>
+      </c>
+      <c r="G64" t="n">
+        <v>62</v>
+      </c>
+      <c r="H64" t="n">
+        <v>62</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>62</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62</v>
+      </c>
+      <c r="L64" t="n">
+        <v>62</v>
+      </c>
+      <c r="M64" t="n">
+        <v>62</v>
+      </c>
+      <c r="N64" t="n">
+        <v>62</v>
+      </c>
+      <c r="O64" t="n">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>62</v>
+      </c>
+      <c r="R64" t="n">
+        <v>62</v>
+      </c>
+      <c r="S64" t="n">
+        <v>62</v>
+      </c>
+      <c r="T64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
         <v>225</v>
       </c>
-      <c r="G64" t="n">
+      <c r="W64" t="n">
         <v>3.5</v>
       </c>
-      <c r="H64" t="n">
+      <c r="X64" t="n">
         <v>14</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="Y64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="J64" t="n">
-        <v>3</v>
-      </c>
-      <c r="K64" t="n">
+      <c r="Z64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA64" t="n">
         <v>51</v>
       </c>
-      <c r="L64" t="n">
+      <c r="AB64" t="n">
         <v>25</v>
       </c>
-      <c r="M64" t="n">
+      <c r="AC64" t="n">
         <v>1030679</v>
       </c>
-      <c r="N64" t="n">
+      <c r="AD64" t="n">
         <v>20250</v>
       </c>
-      <c r="O64" t="n">
+      <c r="AE64" t="n">
         <v>92</v>
       </c>
-      <c r="P64" t="n">
+      <c r="AF64" t="n">
         <v>27.6</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="AG64" t="n">
         <v>6</v>
       </c>
-      <c r="R64" t="n">
+      <c r="AH64" t="n">
         <v>10200</v>
       </c>
-      <c r="S64" t="n">
+      <c r="AI64" t="n">
         <v>0.37</v>
       </c>
-      <c r="T64" t="n">
+      <c r="AJ64" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>WESPA 200/29</t>
         </is>
-      </c>
-      <c r="B65" t="n">
-        <v>63</v>
       </c>
       <c r="C65" t="n">
         <v>63</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="n">
+        <v>63</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63</v>
+      </c>
+      <c r="F65" t="n">
+        <v>63</v>
+      </c>
+      <c r="G65" t="n">
+        <v>63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>63</v>
+      </c>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
+      <c r="K65" t="n">
+        <v>63</v>
+      </c>
+      <c r="L65" t="n">
+        <v>63</v>
+      </c>
+      <c r="M65" t="n">
+        <v>63</v>
+      </c>
+      <c r="N65" t="n">
+        <v>63</v>
+      </c>
+      <c r="O65" t="n">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>63</v>
+      </c>
+      <c r="R65" t="n">
+        <v>63</v>
+      </c>
+      <c r="S65" t="n">
+        <v>63</v>
+      </c>
+      <c r="T65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
         <v>200</v>
       </c>
-      <c r="G65" t="n">
+      <c r="W65" t="n">
         <v>4</v>
       </c>
-      <c r="H65" t="n">
+      <c r="X65" t="n">
         <v>14</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="Y65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
-      <c r="K65" t="n">
+      <c r="Z65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA65" t="n">
         <v>50</v>
       </c>
-      <c r="L65" t="n">
+      <c r="AB65" t="n">
         <v>25</v>
       </c>
-      <c r="M65" t="n">
+      <c r="AC65" t="n">
         <v>921579</v>
       </c>
-      <c r="N65" t="n">
+      <c r="AD65" t="n">
         <v>18000</v>
       </c>
-      <c r="O65" t="n">
+      <c r="AE65" t="n">
         <v>135</v>
       </c>
-      <c r="P65" t="n">
+      <c r="AF65" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="AG65" t="n">
         <v>8</v>
       </c>
-      <c r="R65" t="n">
+      <c r="AH65" t="n">
         <v>13600</v>
       </c>
-      <c r="S65" t="n">
+      <c r="AI65" t="n">
         <v>0.4</v>
       </c>
-      <c r="T65" t="n">
+      <c r="AJ65" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>WESPA 200/31</t>
         </is>
-      </c>
-      <c r="B66" t="n">
-        <v>64</v>
       </c>
       <c r="C66" t="n">
         <v>64</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="n">
+        <v>64</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>64</v>
+      </c>
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
+        <v>64</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>64</v>
+      </c>
+      <c r="L66" t="n">
+        <v>64</v>
+      </c>
+      <c r="M66" t="n">
+        <v>64</v>
+      </c>
+      <c r="N66" t="n">
+        <v>64</v>
+      </c>
+      <c r="O66" t="n">
+        <v>64</v>
+      </c>
+      <c r="P66" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>64</v>
+      </c>
+      <c r="R66" t="n">
+        <v>64</v>
+      </c>
+      <c r="S66" t="n">
+        <v>64</v>
+      </c>
+      <c r="T66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
         <v>200</v>
       </c>
-      <c r="G66" t="n">
+      <c r="W66" t="n">
         <v>4</v>
       </c>
-      <c r="H66" t="n">
+      <c r="X66" t="n">
         <v>13.5</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="Y66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
-      <c r="K66" t="n">
+      <c r="Z66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA66" t="n">
         <v>50</v>
       </c>
-      <c r="L66" t="n">
+      <c r="AB66" t="n">
         <v>25</v>
       </c>
-      <c r="M66" t="n">
+      <c r="AC66" t="n">
         <v>921579</v>
       </c>
-      <c r="N66" t="n">
+      <c r="AD66" t="n">
         <v>18000</v>
       </c>
-      <c r="O66" t="n">
+      <c r="AE66" t="n">
         <v>135</v>
       </c>
-      <c r="P66" t="n">
+      <c r="AF66" t="n">
         <v>40.5</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="AG66" t="n">
         <v>8</v>
       </c>
-      <c r="R66" t="n">
+      <c r="AH66" t="n">
         <v>13600</v>
       </c>
-      <c r="S66" t="n">
+      <c r="AI66" t="n">
         <v>0.35</v>
       </c>
-      <c r="T66" t="n">
+      <c r="AJ66" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Wind World W2700</t>
         </is>
-      </c>
-      <c r="B67" t="n">
-        <v>65</v>
       </c>
       <c r="C67" t="n">
         <v>65</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="n">
+        <v>65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>65</v>
+      </c>
+      <c r="F67" t="n">
+        <v>65</v>
+      </c>
+      <c r="G67" t="n">
+        <v>65</v>
+      </c>
+      <c r="H67" t="n">
+        <v>65</v>
+      </c>
+      <c r="I67" t="n">
+        <v>65</v>
+      </c>
+      <c r="J67" t="n">
+        <v>65</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65</v>
+      </c>
+      <c r="L67" t="n">
+        <v>65</v>
+      </c>
+      <c r="M67" t="n">
+        <v>65</v>
+      </c>
+      <c r="N67" t="n">
+        <v>65</v>
+      </c>
+      <c r="O67" t="n">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>65</v>
+      </c>
+      <c r="R67" t="n">
+        <v>65</v>
+      </c>
+      <c r="S67" t="n">
+        <v>65</v>
+      </c>
+      <c r="T67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>150</v>
       </c>
-      <c r="G67" t="n">
+      <c r="W67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="n">
+      <c r="X67" t="n">
         <v>11</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="J67" t="n">
-        <v>3</v>
-      </c>
-      <c r="K67" t="n">
+      <c r="Z67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA67" t="n">
         <v>41</v>
       </c>
-      <c r="L67" t="n">
+      <c r="AB67" t="n">
         <v>25</v>
       </c>
-      <c r="M67" t="n">
+      <c r="AC67" t="n">
         <v>689779</v>
       </c>
-      <c r="N67" t="n">
+      <c r="AD67" t="n">
         <v>13500</v>
       </c>
-      <c r="O67" t="n">
+      <c r="AE67" t="n">
         <v>59</v>
       </c>
-      <c r="P67" t="n">
+      <c r="AF67" t="n">
         <v>17.7</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="AG67" t="n">
         <v>4</v>
       </c>
-      <c r="R67" t="n">
+      <c r="AH67" t="n">
         <v>6800</v>
       </c>
-      <c r="S67" t="n">
+      <c r="AI67" t="n">
         <v>0.29</v>
       </c>
-      <c r="T67" t="n">
+      <c r="AJ67" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Windspot 7.5Kw</t>
         </is>
-      </c>
-      <c r="B68" t="n">
-        <v>66</v>
       </c>
       <c r="C68" t="n">
         <v>66</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="n">
+        <v>66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>66</v>
+      </c>
+      <c r="F68" t="n">
+        <v>66</v>
+      </c>
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" t="n">
+        <v>66</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+      <c r="J68" t="n">
+        <v>66</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66</v>
+      </c>
+      <c r="L68" t="n">
+        <v>66</v>
+      </c>
+      <c r="M68" t="n">
+        <v>66</v>
+      </c>
+      <c r="N68" t="n">
+        <v>66</v>
+      </c>
+      <c r="O68" t="n">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>66</v>
+      </c>
+      <c r="R68" t="n">
+        <v>66</v>
+      </c>
+      <c r="S68" t="n">
+        <v>66</v>
+      </c>
+      <c r="T68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
         <v>7.5</v>
       </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="n">
+      <c r="W68" t="n">
+        <v>3</v>
+      </c>
+      <c r="X68" t="n">
         <v>12</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="Y68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="J68" t="n">
-        <v>3</v>
-      </c>
-      <c r="K68" t="n">
+      <c r="Z68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA68" t="n">
         <v>18</v>
       </c>
-      <c r="L68" t="n">
+      <c r="AB68" t="n">
         <v>20</v>
       </c>
-      <c r="M68" t="n">
+      <c r="AC68" t="n">
         <v>48529</v>
       </c>
-      <c r="N68" t="n">
+      <c r="AD68" t="n">
         <v>675</v>
       </c>
-      <c r="O68" t="n">
+      <c r="AE68" t="n">
         <v>57</v>
       </c>
-      <c r="P68" t="n">
+      <c r="AF68" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="AG68" t="n">
         <v>4</v>
       </c>
-      <c r="R68" t="n">
+      <c r="AH68" t="n">
         <v>6800</v>
       </c>
-      <c r="S68" t="n">
+      <c r="AI68" t="n">
         <v>0.36</v>
       </c>
-      <c r="T68" t="n">
+      <c r="AJ68" t="n">
         <v>57</v>
       </c>
     </row>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,170 +441,185 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.19</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.18</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.17</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Gesamtinvestitionskosten</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Betriebskosten</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>max Flauten time</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Battery Capacity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>number of batteries</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>battery cost</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>LCOE</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Flautenzeit</t>
         </is>
@@ -670,59 +685,68 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>225</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>3.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="Z2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
         <v>30</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>25</v>
       </c>
-      <c r="AC2" t="n">
-        <v>1030679</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>20250</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
+        <v>1024131</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>26798</v>
+      </c>
+      <c r="AH2" t="n">
         <v>91</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>6</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>10200</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AM2" t="n">
         <v>91</v>
       </c>
     </row>
@@ -786,59 +810,68 @@
       <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
-        </is>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
         <v>225</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>4</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
         <v>50</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>25</v>
       </c>
-      <c r="AC3" t="n">
-        <v>1034079</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20250</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>1027531</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>26798</v>
+      </c>
+      <c r="AH3" t="n">
         <v>135</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>8</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK3" t="n">
         <v>13600</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AL3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AM3" t="n">
         <v>135</v>
       </c>
     </row>
@@ -902,59 +935,68 @@
       <c r="S4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>90</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>13</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
         <v>30</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
         <v>25</v>
       </c>
-      <c r="AC4" t="n">
-        <v>426579</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8100</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
+        <v>420031</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14648</v>
+      </c>
+      <c r="AH4" t="n">
         <v>135</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>8</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>13600</v>
       </c>
-      <c r="AI4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AM4" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1018,59 +1060,68 @@
       <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
         <v>1</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>200</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="Z5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
         <v>30</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>25</v>
       </c>
-      <c r="AC5" t="n">
-        <v>921579</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
+        <v>915031</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH5" t="n">
         <v>135</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>8</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AK5" t="n">
         <v>13600</v>
       </c>
-      <c r="AI5" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AM5" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1134,59 +1185,68 @@
       <c r="S6" t="n">
         <v>4</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
         <v>1</v>
       </c>
-      <c r="V6" t="n">
+      <c r="Y6" t="n">
         <v>200</v>
       </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
         <v>10.9</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
         <v>40.3</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>20</v>
       </c>
-      <c r="AC6" t="n">
-        <v>914779</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
+        <v>908231</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH6" t="n">
         <v>57</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>4</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>6800</v>
       </c>
-      <c r="AI6" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AM6" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1250,59 +1310,68 @@
       <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="X7" t="n">
         <v>1</v>
       </c>
-      <c r="V7" t="n">
+      <c r="Y7" t="n">
         <v>75</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="Z7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>23</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>23</v>
       </c>
-      <c r="AC7" t="n">
-        <v>364179</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6750</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>357631</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13298</v>
+      </c>
+      <c r="AH7" t="n">
         <v>173</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>51.9</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>11</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>18700</v>
       </c>
-      <c r="AI7" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AM7" t="n">
         <v>173</v>
       </c>
     </row>
@@ -1366,59 +1435,68 @@
       <c r="S8" t="n">
         <v>6</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="X8" t="n">
         <v>1</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>150</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>3.5</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="Z8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="n">
         <v>40</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>25</v>
       </c>
-      <c r="AC8" t="n">
-        <v>693179</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
+        <v>686631</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH8" t="n">
         <v>91</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>6</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>10200</v>
       </c>
-      <c r="AI8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AM8" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1482,59 +1560,68 @@
       <c r="S9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>1</v>
       </c>
-      <c r="V9" t="n">
+      <c r="Y9" t="n">
         <v>10</v>
       </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="Z9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="n">
         <v>18</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>25</v>
       </c>
-      <c r="AC9" t="n">
-        <v>66579</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
+        <v>60031</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7448</v>
+      </c>
+      <c r="AH9" t="n">
         <v>135</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>8</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>13600</v>
       </c>
-      <c r="AI9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AM9" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1598,59 +1685,68 @@
       <c r="S10" t="n">
         <v>8</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="n">
+      <c r="Y10" t="n">
         <v>20</v>
       </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="n">
         <v>9</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="n">
         <v>20</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>25</v>
       </c>
-      <c r="AC10" t="n">
-        <v>104779</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1800</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
+        <v>98231</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8348</v>
+      </c>
+      <c r="AH10" t="n">
         <v>57</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>4</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>6800</v>
       </c>
-      <c r="AI10" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AM10" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1714,59 +1810,68 @@
       <c r="S11" t="n">
         <v>9</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>1</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>30</v>
       </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
         <v>10</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="Z11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="n">
         <v>30</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" t="n">
-        <v>149779</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2700</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
+        <v>143231</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9248</v>
+      </c>
+      <c r="AH11" t="n">
         <v>57</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>4</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AK11" t="n">
         <v>6800</v>
       </c>
-      <c r="AI11" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AM11" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1830,59 +1935,68 @@
       <c r="S12" t="n">
         <v>10</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="U12" t="n">
+      <c r="X12" t="n">
         <v>1</v>
       </c>
-      <c r="V12" t="n">
+      <c r="Y12" t="n">
         <v>50</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>3.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
         <v>40</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>20</v>
       </c>
-      <c r="AC12" t="n">
-        <v>243179</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>4500</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>236631</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11048</v>
+      </c>
+      <c r="AH12" t="n">
         <v>91</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>6</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AK12" t="n">
         <v>10200</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AM12" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1946,59 +2060,68 @@
       <c r="S13" t="n">
         <v>11</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="X13" t="n">
         <v>1</v>
       </c>
-      <c r="V13" t="n">
+      <c r="Y13" t="n">
         <v>60</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>2.5</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>9</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="Z13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="n">
         <v>50</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>25</v>
       </c>
-      <c r="AC13" t="n">
-        <v>283079</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
+        <v>276531</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH13" t="n">
         <v>42</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK13" t="n">
         <v>5100</v>
       </c>
-      <c r="AI13" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM13" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2062,59 +2185,68 @@
       <c r="S14" t="n">
         <v>12</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" t="n">
+        <v>12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="U14" t="n">
+      <c r="X14" t="n">
         <v>1</v>
       </c>
-      <c r="V14" t="n">
+      <c r="Y14" t="n">
         <v>100</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>2.5</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="Z14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="n">
         <v>60</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>20</v>
       </c>
-      <c r="AC14" t="n">
-        <v>463079</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
+        <v>456531</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15548</v>
+      </c>
+      <c r="AH14" t="n">
         <v>42</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5100</v>
       </c>
-      <c r="AI14" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM14" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2178,59 +2310,68 @@
       <c r="S15" t="n">
         <v>13</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" t="n">
+        <v>13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>1</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
         <v>60</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>2.5</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="Z15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
         <v>50</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>20</v>
       </c>
-      <c r="AC15" t="n">
-        <v>283079</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
+        <v>276531</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH15" t="n">
         <v>42</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="n">
         <v>5100</v>
       </c>
-      <c r="AI15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AL15" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM15" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2294,59 +2435,68 @@
       <c r="S16" t="n">
         <v>14</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" t="n">
+        <v>14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="U16" t="n">
+      <c r="X16" t="n">
         <v>1</v>
       </c>
-      <c r="V16" t="n">
+      <c r="Y16" t="n">
         <v>100</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>2.5</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>10</v>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="Z16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="n">
         <v>30</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>20</v>
       </c>
-      <c r="AC16" t="n">
-        <v>463079</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
+        <v>456531</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15548</v>
+      </c>
+      <c r="AH16" t="n">
         <v>42</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK16" t="n">
         <v>5100</v>
       </c>
-      <c r="AI16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM16" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2410,59 +2560,68 @@
       <c r="S17" t="n">
         <v>15</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>1</v>
       </c>
-      <c r="V17" t="n">
+      <c r="Y17" t="n">
         <v>200</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>2.5</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="Z17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="n">
         <v>30</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
         <v>20</v>
       </c>
-      <c r="AC17" t="n">
-        <v>913079</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
+        <v>906531</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH17" t="n">
         <v>42</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="n">
         <v>5100</v>
       </c>
-      <c r="AI17" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AM17" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2526,59 +2685,68 @@
       <c r="S18" t="n">
         <v>16</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
+        <v>16</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="U18" t="n">
+      <c r="X18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="n">
+      <c r="Y18" t="n">
         <v>20</v>
       </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="n">
         <v>10</v>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>2</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>20</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
         <v>25</v>
       </c>
-      <c r="AC18" t="n">
-        <v>104779</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1800</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
+        <v>98231</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8348</v>
+      </c>
+      <c r="AH18" t="n">
         <v>57</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>4</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AK18" t="n">
         <v>6800</v>
       </c>
-      <c r="AI18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM18" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2642,60 +2810,69 @@
       <c r="S19" t="n">
         <v>17</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" t="n">
+        <v>17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="U19" t="n">
+      <c r="X19" t="n">
         <v>1</v>
       </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
         <v>57</v>
       </c>
-      <c r="W19" t="n">
-        <v>3</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="n">
         <v>11</v>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>2</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AD19" t="n">
         <v>31</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AE19" t="n">
         <v>25</v>
       </c>
-      <c r="AC19" t="n">
-        <v>274679</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5130</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
+        <v>268131</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11678</v>
+      </c>
+      <c r="AH19" t="n">
         <v>91</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>6</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AK19" t="n">
         <v>10200</v>
       </c>
-      <c r="AI19" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>59</v>
+      <c r="AL19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -2758,59 +2935,68 @@
       <c r="S20" t="n">
         <v>18</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>1</v>
       </c>
-      <c r="V20" t="n">
+      <c r="Y20" t="n">
         <v>60</v>
       </c>
-      <c r="W20" t="n">
-        <v>3</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="n">
         <v>11</v>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>2</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
         <v>31</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
         <v>25</v>
       </c>
-      <c r="AC20" t="n">
-        <v>284779</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
+        <v>278231</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH20" t="n">
         <v>59</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>17.7</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>4</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>6800</v>
       </c>
-      <c r="AI20" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AL20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AM20" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2874,59 +3060,68 @@
       <c r="S21" t="n">
         <v>19</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" t="n">
+        <v>19</v>
+      </c>
+      <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" t="n">
+        <v>19</v>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
         </is>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
         <v>1</v>
       </c>
-      <c r="V21" t="n">
+      <c r="Y21" t="n">
         <v>60</v>
       </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>37</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>19</v>
       </c>
-      <c r="AC21" t="n">
-        <v>284779</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
+        <v>278231</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH21" t="n">
         <v>57</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>4</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>6800</v>
       </c>
-      <c r="AI21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AL21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AM21" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2990,59 +3185,68 @@
       <c r="S22" t="n">
         <v>20</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>1</v>
       </c>
-      <c r="V22" t="n">
+      <c r="Y22" t="n">
         <v>6.2</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>2</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>6</v>
       </c>
-      <c r="Y22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="Z22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="n">
         <v>18</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
         <v>14</v>
       </c>
-      <c r="AC22" t="n">
-        <v>39279</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>558</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
+        <v>32731</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>7106</v>
+      </c>
+      <c r="AH22" t="n">
         <v>22</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
         <v>6.6</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>2</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AK22" t="n">
         <v>3400</v>
       </c>
-      <c r="AI22" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AM22" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3106,59 +3310,68 @@
       <c r="S23" t="n">
         <v>21</v>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="U23" t="n">
+      <c r="X23" t="n">
         <v>1</v>
       </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>250</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>2.5</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>9</v>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="Z23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="n">
         <v>28</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
         <v>32</v>
       </c>
-      <c r="AC23" t="n">
-        <v>1138079</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
+        <v>1131531</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH23" t="n">
         <v>42</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK23" t="n">
         <v>5100</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM23" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3222,60 +3435,69 @@
       <c r="S24" t="n">
         <v>22</v>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" t="n">
+        <v>22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>22</v>
+      </c>
+      <c r="V24" t="n">
+        <v>22</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>1</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>10</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>3.4</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>15.6</v>
       </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="Z24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AC24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="n">
         <v>30</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AE24" t="n">
         <v>60</v>
       </c>
-      <c r="AC24" t="n">
-        <v>63179</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
+        <v>56631</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>7448</v>
+      </c>
+      <c r="AH24" t="n">
         <v>95</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AI24" t="n">
         <v>28.5</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>6</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
         <v>10200</v>
       </c>
-      <c r="AI24" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>92</v>
+      <c r="AL24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3338,59 +3560,68 @@
       <c r="S25" t="n">
         <v>23</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" t="n">
+        <v>23</v>
+      </c>
+      <c r="U25" t="n">
+        <v>23</v>
+      </c>
+      <c r="V25" t="n">
+        <v>23</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="U25" t="n">
+      <c r="X25" t="n">
         <v>1</v>
       </c>
-      <c r="V25" t="n">
+      <c r="Y25" t="n">
         <v>150</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>3.5</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="Z25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
         <v>40</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
         <v>25</v>
       </c>
-      <c r="AC25" t="n">
-        <v>693179</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
+        <v>686631</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH25" t="n">
         <v>91</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AI25" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>6</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AK25" t="n">
         <v>10200</v>
       </c>
-      <c r="AI25" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AM25" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3454,57 +3685,66 @@
       <c r="S26" t="n">
         <v>24</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" t="n">
+        <v>24</v>
+      </c>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>24</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="U26" t="n">
+      <c r="X26" t="n">
         <v>1</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>250</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>4.8</v>
       </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="Z26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="n">
         <v>42.7</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AE26" t="n">
         <v>28.9</v>
       </c>
-      <c r="AC26" t="n">
-        <v>1151679</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
+        <v>1145131</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH26" t="n">
         <v>173</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AI26" t="n">
         <v>51.9</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AJ26" t="n">
         <v>11</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>18700</v>
       </c>
-      <c r="AI26" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM26" t="n">
         <v>173</v>
       </c>
     </row>
@@ -3568,59 +3808,68 @@
       <c r="S27" t="n">
         <v>25</v>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" t="n">
+        <v>25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>25</v>
+      </c>
+      <c r="V27" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
         <v>1</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Y27" t="n">
         <v>75</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>4</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>18</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="Z27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AC27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="n">
         <v>24</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AE27" t="n">
         <v>30</v>
       </c>
-      <c r="AC27" t="n">
-        <v>364179</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6750</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
+        <v>357631</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13298</v>
+      </c>
+      <c r="AH27" t="n">
         <v>173</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AI27" t="n">
         <v>51.9</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AJ27" t="n">
         <v>11</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
         <v>18700</v>
       </c>
-      <c r="AI27" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AJ27" t="n">
+      <c r="AL27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AM27" t="n">
         <v>173</v>
       </c>
     </row>
@@ -3684,59 +3933,68 @@
       <c r="S28" t="n">
         <v>26</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" t="n">
+        <v>26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>26</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="U28" t="n">
+      <c r="X28" t="n">
         <v>1</v>
       </c>
-      <c r="V28" t="n">
+      <c r="Y28" t="n">
         <v>110</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>4</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>18</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="Z28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AC28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD28" t="n">
         <v>24</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AE28" t="n">
         <v>30</v>
       </c>
-      <c r="AC28" t="n">
-        <v>516579</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9900</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
+        <v>510031</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>16448</v>
+      </c>
+      <c r="AH28" t="n">
         <v>135</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>8</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>13600</v>
       </c>
-      <c r="AI28" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AJ28" t="n">
+      <c r="AL28" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AM28" t="n">
         <v>135</v>
       </c>
     </row>
@@ -3800,59 +4058,68 @@
       <c r="S29" t="n">
         <v>27</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" t="n">
+        <v>27</v>
+      </c>
+      <c r="U29" t="n">
+        <v>27</v>
+      </c>
+      <c r="V29" t="n">
+        <v>27</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>1</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>18.5</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>4.5</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>14</v>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>2</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
         <v>18.6</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AE29" t="n">
         <v>30</v>
       </c>
-      <c r="AC29" t="n">
-        <v>108229</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1665</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
+        <v>101681</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8213</v>
+      </c>
+      <c r="AH29" t="n">
         <v>162</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
         <v>48.6</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AJ29" t="n">
         <v>10</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
         <v>17000</v>
       </c>
-      <c r="AI29" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM29" t="n">
         <v>162</v>
       </c>
     </row>
@@ -3916,59 +4183,68 @@
       <c r="S30" t="n">
         <v>28</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>28</v>
+      </c>
+      <c r="V30" t="n">
+        <v>28</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
         </is>
       </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
         <v>22</v>
       </c>
-      <c r="W30" t="n">
-        <v>3</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
         <v>13</v>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>10.0 m</t>
         </is>
       </c>
-      <c r="Z30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA30" t="n">
+      <c r="AC30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD30" t="n">
         <v>24</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AE30" t="n">
         <v>28</v>
       </c>
-      <c r="AC30" t="n">
-        <v>120579</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1980</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
+        <v>114031</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>8528</v>
+      </c>
+      <c r="AH30" t="n">
         <v>135</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AI30" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AJ30" t="n">
         <v>8</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AK30" t="n">
         <v>13600</v>
       </c>
-      <c r="AI30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AM30" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4032,59 +4308,68 @@
       <c r="S31" t="n">
         <v>29</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" t="n">
+        <v>29</v>
+      </c>
+      <c r="U31" t="n">
+        <v>29</v>
+      </c>
+      <c r="V31" t="n">
+        <v>29</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="U31" t="n">
+      <c r="X31" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>30</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>4</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>18</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="Z31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AC31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD31" t="n">
         <v>24</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AE31" t="n">
         <v>25</v>
       </c>
-      <c r="AC31" t="n">
-        <v>156579</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2700</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
+        <v>150031</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9248</v>
+      </c>
+      <c r="AH31" t="n">
         <v>135</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AI31" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
         <v>8</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AK31" t="n">
         <v>13600</v>
       </c>
-      <c r="AI31" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AJ31" t="n">
+      <c r="AL31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AM31" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4148,59 +4433,68 @@
       <c r="S32" t="n">
         <v>30</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" t="n">
+        <v>30</v>
+      </c>
+      <c r="U32" t="n">
+        <v>30</v>
+      </c>
+      <c r="V32" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
         <v>1</v>
       </c>
-      <c r="V32" t="n">
+      <c r="Y32" t="n">
         <v>55</v>
       </c>
-      <c r="W32" t="n">
-        <v>3</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA32" t="n">
         <v>13</v>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="Z32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA32" t="n">
+      <c r="AC32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD32" t="n">
         <v>24</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AE32" t="n">
         <v>28</v>
       </c>
-      <c r="AC32" t="n">
-        <v>262279</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>4950</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
+        <v>255731</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11498</v>
+      </c>
+      <c r="AH32" t="n">
         <v>59</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AI32" t="n">
         <v>17.7</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
         <v>4</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
         <v>6800</v>
       </c>
-      <c r="AI32" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AL32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM32" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4264,59 +4558,68 @@
       <c r="S33" t="n">
         <v>31</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T33" t="n">
+        <v>31</v>
+      </c>
+      <c r="U33" t="n">
+        <v>31</v>
+      </c>
+      <c r="V33" t="n">
+        <v>31</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="X33" t="n">
         <v>1</v>
       </c>
-      <c r="V33" t="n">
+      <c r="Y33" t="n">
         <v>95</v>
       </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
         <v>13</v>
       </c>
-      <c r="Y33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="Z33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="AC33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD33" t="n">
         <v>24.5</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AE33" t="n">
         <v>28</v>
       </c>
-      <c r="AC33" t="n">
-        <v>442279</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>8550</v>
-      </c>
-      <c r="AE33" t="n">
+      <c r="AF33" t="n">
+        <v>435731</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15098</v>
+      </c>
+      <c r="AH33" t="n">
         <v>59</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AI33" t="n">
         <v>17.7</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
         <v>4</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AK33" t="n">
         <v>6800</v>
       </c>
-      <c r="AI33" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AJ33" t="n">
+      <c r="AL33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM33" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4380,59 +4683,68 @@
       <c r="S34" t="n">
         <v>32</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T34" t="n">
+        <v>32</v>
+      </c>
+      <c r="U34" t="n">
+        <v>32</v>
+      </c>
+      <c r="V34" t="n">
+        <v>32</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="U34" t="n">
+      <c r="X34" t="n">
         <v>1</v>
       </c>
-      <c r="V34" t="n">
+      <c r="Y34" t="n">
         <v>100</v>
       </c>
-      <c r="W34" t="n">
-        <v>3</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA34" t="n">
         <v>12</v>
       </c>
-      <c r="Y34" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="Z34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AC34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="n">
         <v>24.5</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AE34" t="n">
         <v>28</v>
       </c>
-      <c r="AC34" t="n">
-        <v>464779</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
+        <v>458231</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15548</v>
+      </c>
+      <c r="AH34" t="n">
         <v>59</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
         <v>17.7</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
         <v>4</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AK34" t="n">
         <v>6800</v>
       </c>
-      <c r="AI34" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AM34" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4496,59 +4808,68 @@
       <c r="S35" t="n">
         <v>33</v>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="T35" t="n">
+        <v>33</v>
+      </c>
+      <c r="U35" t="n">
+        <v>33</v>
+      </c>
+      <c r="V35" t="n">
+        <v>33</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="U35" t="n">
+      <c r="X35" t="n">
         <v>1</v>
       </c>
-      <c r="V35" t="n">
+      <c r="Y35" t="n">
         <v>55</v>
       </c>
-      <c r="W35" t="n">
-        <v>3</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="n">
         <v>12</v>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="Z35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AC35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD35" t="n">
         <v>28.5</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AE35" t="n">
         <v>25</v>
       </c>
-      <c r="AC35" t="n">
-        <v>262279</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>4950</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
+        <v>255731</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11498</v>
+      </c>
+      <c r="AH35" t="n">
         <v>57</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AI35" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
         <v>4</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AK35" t="n">
         <v>6800</v>
       </c>
-      <c r="AI35" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AL35" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AM35" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4612,59 +4933,68 @@
       <c r="S36" t="n">
         <v>34</v>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T36" t="n">
+        <v>34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>34</v>
+      </c>
+      <c r="V36" t="n">
+        <v>34</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="U36" t="n">
+      <c r="X36" t="n">
         <v>1</v>
       </c>
-      <c r="V36" t="n">
+      <c r="Y36" t="n">
         <v>80</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>2.5</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>13</v>
       </c>
-      <c r="Y36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="Z36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA36" t="n">
+      <c r="AC36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD36" t="n">
         <v>30.5</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AE36" t="n">
         <v>25</v>
       </c>
-      <c r="AC36" t="n">
-        <v>373079</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>7200</v>
-      </c>
-      <c r="AE36" t="n">
+      <c r="AF36" t="n">
+        <v>366531</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13748</v>
+      </c>
+      <c r="AH36" t="n">
         <v>42</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AI36" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK36" t="n">
         <v>5100</v>
       </c>
-      <c r="AI36" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AJ36" t="n">
+      <c r="AL36" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM36" t="n">
         <v>42</v>
       </c>
     </row>
@@ -4728,59 +5058,68 @@
       <c r="S37" t="n">
         <v>35</v>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T37" t="n">
+        <v>35</v>
+      </c>
+      <c r="U37" t="n">
+        <v>35</v>
+      </c>
+      <c r="V37" t="n">
+        <v>35</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>1</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Y37" t="n">
         <v>60</v>
       </c>
-      <c r="W37" t="n">
-        <v>3</v>
-      </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="Z37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA37" t="n">
+      <c r="AC37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD37" t="n">
         <v>36</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AE37" t="n">
         <v>25</v>
       </c>
-      <c r="AC37" t="n">
-        <v>284779</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AF37" t="n">
+        <v>278231</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH37" t="n">
         <v>57</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AI37" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
         <v>4</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AK37" t="n">
         <v>6800</v>
       </c>
-      <c r="AI37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AL37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AM37" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4844,59 +5183,68 @@
       <c r="S38" t="n">
         <v>36</v>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="T38" t="n">
+        <v>36</v>
+      </c>
+      <c r="U38" t="n">
+        <v>36</v>
+      </c>
+      <c r="V38" t="n">
+        <v>36</v>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>1</v>
       </c>
-      <c r="V38" t="n">
+      <c r="Y38" t="n">
         <v>95</v>
       </c>
-      <c r="W38" t="n">
-        <v>3</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA38" t="n">
         <v>12</v>
       </c>
-      <c r="Y38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="Z38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AC38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD38" t="n">
         <v>37</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AE38" t="n">
         <v>25</v>
       </c>
-      <c r="AC38" t="n">
-        <v>442279</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>8550</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
+        <v>435731</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15098</v>
+      </c>
+      <c r="AH38" t="n">
         <v>57</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AI38" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
         <v>4</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AK38" t="n">
         <v>6800</v>
       </c>
-      <c r="AI38" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AJ38" t="n">
+      <c r="AL38" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AM38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4960,60 +5308,69 @@
       <c r="S39" t="n">
         <v>37</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="T39" t="n">
+        <v>37</v>
+      </c>
+      <c r="U39" t="n">
+        <v>37</v>
+      </c>
+      <c r="V39" t="n">
+        <v>37</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="U39" t="n">
+      <c r="X39" t="n">
         <v>1</v>
       </c>
-      <c r="V39" t="n">
+      <c r="Y39" t="n">
         <v>5</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>2.5</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>12</v>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="Z39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AC39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD39" t="n">
         <v>15</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AE39" t="n">
         <v>60</v>
       </c>
-      <c r="AC39" t="n">
-        <v>40679</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
+        <v>34131</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>6998</v>
+      </c>
+      <c r="AH39" t="n">
         <v>91</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AI39" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AJ39" t="n">
         <v>6</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
         <v>10200</v>
       </c>
-      <c r="AI39" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>42</v>
+      <c r="AL39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -5076,57 +5433,66 @@
       <c r="S40" t="n">
         <v>38</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T40" t="n">
+        <v>38</v>
+      </c>
+      <c r="U40" t="n">
+        <v>38</v>
+      </c>
+      <c r="V40" t="n">
+        <v>38</v>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
         <v>1</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Y40" t="n">
         <v>20</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>3.5</v>
       </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="Z40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA40" t="n">
+      <c r="AC40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD40" t="n">
         <v>48.5</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AE40" t="n">
         <v>30</v>
       </c>
-      <c r="AC40" t="n">
-        <v>108179</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1800</v>
-      </c>
-      <c r="AE40" t="n">
+      <c r="AF40" t="n">
+        <v>101631</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8348</v>
+      </c>
+      <c r="AH40" t="n">
         <v>91</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AI40" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AJ40" t="n">
         <v>6</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AK40" t="n">
         <v>10200</v>
       </c>
-      <c r="AI40" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AJ40" t="n">
+      <c r="AL40" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AM40" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5190,60 +5556,69 @@
       <c r="S41" t="n">
         <v>39</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T41" t="n">
+        <v>39</v>
+      </c>
+      <c r="U41" t="n">
+        <v>39</v>
+      </c>
+      <c r="V41" t="n">
+        <v>39</v>
+      </c>
+      <c r="W41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="U41" t="n">
+      <c r="X41" t="n">
         <v>1</v>
       </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>50</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>2.5</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>14</v>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="Z41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA41" t="n">
+      <c r="AC41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD41" t="n">
         <v>37</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AE41" t="n">
         <v>25</v>
       </c>
-      <c r="AC41" t="n">
-        <v>243179</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>4500</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AF41" t="n">
+        <v>236631</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>11048</v>
+      </c>
+      <c r="AH41" t="n">
         <v>91</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AI41" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AJ41" t="n">
         <v>6</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AK41" t="n">
         <v>10200</v>
       </c>
-      <c r="AI41" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>59</v>
+      <c r="AL41" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -5306,59 +5681,68 @@
       <c r="S42" t="n">
         <v>40</v>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>40</v>
+      </c>
+      <c r="U42" t="n">
+        <v>40</v>
+      </c>
+      <c r="V42" t="n">
+        <v>40</v>
+      </c>
+      <c r="W42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="U42" t="n">
+      <c r="X42" t="n">
         <v>1</v>
       </c>
-      <c r="V42" t="n">
+      <c r="Y42" t="n">
         <v>18</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>3.5</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>23</v>
       </c>
-      <c r="Y42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="Z42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA42" t="n">
+      <c r="AC42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD42" t="n">
         <v>20</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AE42" t="n">
         <v>25</v>
       </c>
-      <c r="AC42" t="n">
-        <v>99179</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1620</v>
-      </c>
-      <c r="AE42" t="n">
+      <c r="AF42" t="n">
+        <v>92631</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8168</v>
+      </c>
+      <c r="AH42" t="n">
         <v>91</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AI42" t="n">
         <v>27.3</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AJ42" t="n">
         <v>6</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AK42" t="n">
         <v>10200</v>
       </c>
-      <c r="AI42" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AJ42" t="n">
+      <c r="AL42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AM42" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5422,59 +5806,68 @@
       <c r="S43" t="n">
         <v>41</v>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>41</v>
+      </c>
+      <c r="U43" t="n">
+        <v>41</v>
+      </c>
+      <c r="V43" t="n">
+        <v>41</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="U43" t="n">
+      <c r="X43" t="n">
         <v>1</v>
       </c>
-      <c r="V43" t="n">
+      <c r="Y43" t="n">
         <v>250</v>
       </c>
-      <c r="W43" t="n">
-        <v>3</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="n">
         <v>9</v>
       </c>
-      <c r="Y43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="Z43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA43" t="n">
+      <c r="AC43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD43" t="n">
         <v>19.47</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AE43" t="n">
         <v>25</v>
       </c>
-      <c r="AC43" t="n">
-        <v>1139779</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE43" t="n">
+      <c r="AF43" t="n">
+        <v>1133231</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH43" t="n">
         <v>57</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AI43" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AJ43" t="n">
         <v>4</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AK43" t="n">
         <v>6800</v>
       </c>
-      <c r="AI43" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AJ43" t="n">
+      <c r="AL43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AM43" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5538,59 +5931,68 @@
       <c r="S44" t="n">
         <v>42</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T44" t="n">
+        <v>42</v>
+      </c>
+      <c r="U44" t="n">
+        <v>42</v>
+      </c>
+      <c r="V44" t="n">
+        <v>42</v>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="U44" t="n">
+      <c r="X44" t="n">
         <v>1</v>
       </c>
-      <c r="V44" t="n">
+      <c r="Y44" t="n">
         <v>11</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>3.8</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
         <v>2</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AD44" t="n">
         <v>10</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AE44" t="n">
         <v>24</v>
       </c>
-      <c r="AC44" t="n">
-        <v>67679</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE44" t="n">
+      <c r="AF44" t="n">
+        <v>61131</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7538</v>
+      </c>
+      <c r="AH44" t="n">
         <v>95</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AI44" t="n">
         <v>28.5</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AJ44" t="n">
         <v>6</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AK44" t="n">
         <v>10200</v>
       </c>
-      <c r="AI44" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ44" t="n">
+      <c r="AL44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AM44" t="n">
         <v>95</v>
       </c>
     </row>
@@ -5654,59 +6056,68 @@
       <c r="S45" t="n">
         <v>43</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T45" t="n">
+        <v>43</v>
+      </c>
+      <c r="U45" t="n">
+        <v>43</v>
+      </c>
+      <c r="V45" t="n">
+        <v>43</v>
+      </c>
+      <c r="W45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="X45" t="n">
         <v>1</v>
       </c>
-      <c r="V45" t="n">
+      <c r="Y45" t="n">
         <v>150</v>
       </c>
-      <c r="W45" t="n">
-        <v>3</v>
-      </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA45" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="Z45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA45" t="n">
+      <c r="AC45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD45" t="n">
         <v>50</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AE45" t="n">
         <v>25</v>
       </c>
-      <c r="AC45" t="n">
-        <v>696579</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE45" t="n">
+      <c r="AF45" t="n">
+        <v>690031</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH45" t="n">
         <v>135</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AI45" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AJ45" t="n">
         <v>8</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AK45" t="n">
         <v>13600</v>
       </c>
-      <c r="AI45" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM45" t="n">
         <v>135</v>
       </c>
     </row>
@@ -5770,59 +6181,68 @@
       <c r="S46" t="n">
         <v>44</v>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="T46" t="n">
+        <v>44</v>
+      </c>
+      <c r="U46" t="n">
+        <v>44</v>
+      </c>
+      <c r="V46" t="n">
+        <v>44</v>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="U46" t="n">
+      <c r="X46" t="n">
         <v>1</v>
       </c>
-      <c r="V46" t="n">
+      <c r="Y46" t="n">
         <v>250</v>
       </c>
-      <c r="W46" t="n">
-        <v>3</v>
-      </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="Z46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA46" t="n">
+      <c r="AC46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD46" t="n">
         <v>50</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AE46" t="n">
         <v>25</v>
       </c>
-      <c r="AC46" t="n">
-        <v>1146579</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AF46" t="n">
+        <v>1140031</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH46" t="n">
         <v>135</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AI46" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AJ46" t="n">
         <v>8</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AK46" t="n">
         <v>13600</v>
       </c>
-      <c r="AI46" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AJ46" t="n">
+      <c r="AL46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AM46" t="n">
         <v>135</v>
       </c>
     </row>
@@ -5886,59 +6306,68 @@
       <c r="S47" t="n">
         <v>45</v>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="T47" t="n">
+        <v>45</v>
+      </c>
+      <c r="U47" t="n">
+        <v>45</v>
+      </c>
+      <c r="V47" t="n">
+        <v>45</v>
+      </c>
+      <c r="W47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="U47" t="n">
+      <c r="X47" t="n">
         <v>1</v>
       </c>
-      <c r="V47" t="n">
+      <c r="Y47" t="n">
         <v>250</v>
       </c>
-      <c r="W47" t="n">
-        <v>3</v>
-      </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA47" t="n">
         <v>15</v>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="Z47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA47" t="n">
+      <c r="AC47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD47" t="n">
         <v>50</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AE47" t="n">
         <v>25</v>
       </c>
-      <c r="AC47" t="n">
-        <v>1149979</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE47" t="n">
+      <c r="AF47" t="n">
+        <v>1143431</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH47" t="n">
         <v>162</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AI47" t="n">
         <v>48.6</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AJ47" t="n">
         <v>10</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AK47" t="n">
         <v>17000</v>
       </c>
-      <c r="AI47" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AJ47" t="n">
+      <c r="AL47" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AM47" t="n">
         <v>162</v>
       </c>
     </row>
@@ -6002,59 +6431,68 @@
       <c r="S48" t="n">
         <v>46</v>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="T48" t="n">
+        <v>46</v>
+      </c>
+      <c r="U48" t="n">
+        <v>46</v>
+      </c>
+      <c r="V48" t="n">
+        <v>46</v>
+      </c>
+      <c r="W48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="U48" t="n">
+      <c r="X48" t="n">
         <v>1</v>
       </c>
-      <c r="V48" t="n">
+      <c r="Y48" t="n">
         <v>150</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>4</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AA48" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="Z48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA48" t="n">
+      <c r="AC48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD48" t="n">
         <v>32.5</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AE48" t="n">
         <v>25</v>
       </c>
-      <c r="AC48" t="n">
-        <v>696579</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE48" t="n">
+      <c r="AF48" t="n">
+        <v>690031</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH48" t="n">
         <v>135</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AI48" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AJ48" t="n">
         <v>8</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AK48" t="n">
         <v>13600</v>
       </c>
-      <c r="AI48" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AJ48" t="n">
+      <c r="AL48" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AM48" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6118,59 +6556,68 @@
       <c r="S49" t="n">
         <v>47</v>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="T49" t="n">
+        <v>47</v>
+      </c>
+      <c r="U49" t="n">
+        <v>47</v>
+      </c>
+      <c r="V49" t="n">
+        <v>47</v>
+      </c>
+      <c r="W49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="U49" t="n">
+      <c r="X49" t="n">
         <v>1</v>
       </c>
-      <c r="V49" t="n">
+      <c r="Y49" t="n">
         <v>200</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>4</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AA49" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="Z49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA49" t="n">
+      <c r="AC49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD49" t="n">
         <v>30</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AE49" t="n">
         <v>25</v>
       </c>
-      <c r="AC49" t="n">
-        <v>921579</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AF49" t="n">
+        <v>915031</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH49" t="n">
         <v>135</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AI49" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AJ49" t="n">
         <v>8</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AK49" t="n">
         <v>13600</v>
       </c>
-      <c r="AI49" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AJ49" t="n">
+      <c r="AL49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AM49" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6234,59 +6681,68 @@
       <c r="S50" t="n">
         <v>48</v>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="T50" t="n">
+        <v>48</v>
+      </c>
+      <c r="U50" t="n">
+        <v>48</v>
+      </c>
+      <c r="V50" t="n">
+        <v>48</v>
+      </c>
+      <c r="W50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="U50" t="n">
+      <c r="X50" t="n">
         <v>1</v>
       </c>
-      <c r="V50" t="n">
+      <c r="Y50" t="n">
         <v>60</v>
       </c>
-      <c r="W50" t="n">
-        <v>3</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA50" t="n">
         <v>11</v>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="Z50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA50" t="n">
+      <c r="AC50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD50" t="n">
         <v>37</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AE50" t="n">
         <v>25</v>
       </c>
-      <c r="AC50" t="n">
-        <v>284779</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>5400</v>
-      </c>
-      <c r="AE50" t="n">
+      <c r="AF50" t="n">
+        <v>278231</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11948</v>
+      </c>
+      <c r="AH50" t="n">
         <v>57</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AI50" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AJ50" t="n">
         <v>4</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AK50" t="n">
         <v>6800</v>
       </c>
-      <c r="AI50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ50" t="n">
+      <c r="AL50" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AM50" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6350,59 +6806,68 @@
       <c r="S51" t="n">
         <v>49</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T51" t="n">
+        <v>49</v>
+      </c>
+      <c r="U51" t="n">
+        <v>49</v>
+      </c>
+      <c r="V51" t="n">
+        <v>49</v>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="U51" t="n">
+      <c r="X51" t="n">
         <v>1</v>
       </c>
-      <c r="V51" t="n">
+      <c r="Y51" t="n">
         <v>100</v>
       </c>
-      <c r="W51" t="n">
-        <v>3</v>
-      </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA51" t="n">
         <v>12</v>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="Z51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA51" t="n">
+      <c r="AC51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD51" t="n">
         <v>37</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AE51" t="n">
         <v>25</v>
       </c>
-      <c r="AC51" t="n">
-        <v>464779</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AE51" t="n">
+      <c r="AF51" t="n">
+        <v>458231</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>15548</v>
+      </c>
+      <c r="AH51" t="n">
         <v>57</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AI51" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AJ51" t="n">
         <v>4</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AK51" t="n">
         <v>6800</v>
       </c>
-      <c r="AI51" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AJ51" t="n">
+      <c r="AL51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AM51" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6466,57 +6931,66 @@
       <c r="S52" t="n">
         <v>50</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T52" t="n">
+        <v>50</v>
+      </c>
+      <c r="U52" t="n">
+        <v>50</v>
+      </c>
+      <c r="V52" t="n">
+        <v>50</v>
+      </c>
+      <c r="W52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="U52" t="n">
+      <c r="X52" t="n">
         <v>1</v>
       </c>
-      <c r="V52" t="n">
+      <c r="Y52" t="n">
         <v>150</v>
       </c>
-      <c r="W52" t="n">
+      <c r="Z52" t="n">
         <v>4</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AA52" t="n">
         <v>14</v>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="n">
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="n">
         <v>30</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AE52" t="n">
         <v>25</v>
       </c>
-      <c r="AC52" t="n">
-        <v>696579</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE52" t="n">
+      <c r="AF52" t="n">
+        <v>690031</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH52" t="n">
         <v>135</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AI52" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AJ52" t="n">
         <v>8</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AK52" t="n">
         <v>13600</v>
       </c>
-      <c r="AI52" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AJ52" t="n">
+      <c r="AL52" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AM52" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6580,59 +7054,68 @@
       <c r="S53" t="n">
         <v>51</v>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="T53" t="n">
+        <v>51</v>
+      </c>
+      <c r="U53" t="n">
+        <v>51</v>
+      </c>
+      <c r="V53" t="n">
+        <v>51</v>
+      </c>
+      <c r="W53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="U53" t="n">
+      <c r="X53" t="n">
         <v>1</v>
       </c>
-      <c r="V53" t="n">
+      <c r="Y53" t="n">
         <v>225</v>
       </c>
-      <c r="W53" t="n">
+      <c r="Z53" t="n">
         <v>4</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AA53" t="n">
         <v>14</v>
       </c>
-      <c r="Y53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="Z53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA53" t="n">
+      <c r="AC53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD53" t="n">
         <v>40</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AE53" t="n">
         <v>25</v>
       </c>
-      <c r="AC53" t="n">
-        <v>1037479</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>20250</v>
-      </c>
-      <c r="AE53" t="n">
+      <c r="AF53" t="n">
+        <v>1030931</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>26798</v>
+      </c>
+      <c r="AH53" t="n">
         <v>164</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AI53" t="n">
         <v>49.2</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AJ53" t="n">
         <v>10</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AK53" t="n">
         <v>17000</v>
       </c>
-      <c r="AI53" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AJ53" t="n">
+      <c r="AL53" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AM53" t="n">
         <v>164</v>
       </c>
     </row>
@@ -6696,60 +7179,69 @@
       <c r="S54" t="n">
         <v>52</v>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="T54" t="n">
+        <v>52</v>
+      </c>
+      <c r="U54" t="n">
+        <v>52</v>
+      </c>
+      <c r="V54" t="n">
+        <v>52</v>
+      </c>
+      <c r="W54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="U54" t="n">
+      <c r="X54" t="n">
         <v>1</v>
       </c>
-      <c r="V54" t="n">
-        <v>3</v>
-      </c>
-      <c r="W54" t="n">
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
         <v>4</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AA54" t="n">
         <v>13</v>
       </c>
-      <c r="Y54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="Z54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA54" t="n">
+      <c r="AC54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD54" t="n">
         <v>10.9</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AE54" t="n">
         <v>17</v>
       </c>
-      <c r="AC54" t="n">
-        <v>38479</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>270</v>
-      </c>
-      <c r="AE54" t="n">
+      <c r="AF54" t="n">
+        <v>31931</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>6818</v>
+      </c>
+      <c r="AH54" t="n">
         <v>162</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AI54" t="n">
         <v>48.6</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AJ54" t="n">
         <v>10</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AK54" t="n">
         <v>17000</v>
       </c>
-      <c r="AI54" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>135</v>
+      <c r="AL54" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="55">
@@ -6812,59 +7304,68 @@
       <c r="S55" t="n">
         <v>53</v>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="T55" t="n">
+        <v>53</v>
+      </c>
+      <c r="U55" t="n">
+        <v>53</v>
+      </c>
+      <c r="V55" t="n">
+        <v>53</v>
+      </c>
+      <c r="W55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="U55" t="n">
+      <c r="X55" t="n">
         <v>1</v>
       </c>
-      <c r="V55" t="n">
+      <c r="Y55" t="n">
         <v>250</v>
       </c>
-      <c r="W55" t="n">
+      <c r="Z55" t="n">
         <v>4</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AA55" t="n">
         <v>14</v>
       </c>
-      <c r="Y55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="Z55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA55" t="n">
+      <c r="AC55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD55" t="n">
         <v>48.4</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AE55" t="n">
         <v>25</v>
       </c>
-      <c r="AC55" t="n">
-        <v>1146579</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AE55" t="n">
+      <c r="AF55" t="n">
+        <v>1140031</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>29048</v>
+      </c>
+      <c r="AH55" t="n">
         <v>135</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AI55" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AJ55" t="n">
         <v>8</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AK55" t="n">
         <v>13600</v>
       </c>
-      <c r="AI55" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AJ55" t="n">
+      <c r="AL55" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AM55" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6928,59 +7429,68 @@
       <c r="S56" t="n">
         <v>54</v>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="T56" t="n">
+        <v>54</v>
+      </c>
+      <c r="U56" t="n">
+        <v>54</v>
+      </c>
+      <c r="V56" t="n">
+        <v>54</v>
+      </c>
+      <c r="W56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="U56" t="n">
+      <c r="X56" t="n">
         <v>1</v>
       </c>
-      <c r="V56" t="n">
+      <c r="Y56" t="n">
         <v>45</v>
       </c>
-      <c r="W56" t="n">
-        <v>3</v>
-      </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA56" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="Z56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA56" t="n">
+      <c r="AC56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD56" t="n">
         <v>24</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AE56" t="n">
         <v>20</v>
       </c>
-      <c r="AC56" t="n">
-        <v>217279</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AE56" t="n">
+      <c r="AF56" t="n">
+        <v>210731</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10598</v>
+      </c>
+      <c r="AH56" t="n">
         <v>57</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AI56" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AJ56" t="n">
         <v>4</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AK56" t="n">
         <v>6800</v>
       </c>
-      <c r="AI56" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AJ56" t="n">
+      <c r="AL56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AM56" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7044,59 +7554,68 @@
       <c r="S57" t="n">
         <v>55</v>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="T57" t="n">
+        <v>55</v>
+      </c>
+      <c r="U57" t="n">
+        <v>55</v>
+      </c>
+      <c r="V57" t="n">
+        <v>55</v>
+      </c>
+      <c r="W57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="U57" t="n">
+      <c r="X57" t="n">
         <v>1</v>
       </c>
-      <c r="V57" t="n">
+      <c r="Y57" t="n">
         <v>80</v>
       </c>
-      <c r="W57" t="n">
-        <v>3</v>
-      </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="Z57" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA57" t="n">
+      <c r="AC57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD57" t="n">
         <v>40</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AE57" t="n">
         <v>25</v>
       </c>
-      <c r="AC57" t="n">
-        <v>374779</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>7200</v>
-      </c>
-      <c r="AE57" t="n">
+      <c r="AF57" t="n">
+        <v>368231</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>13748</v>
+      </c>
+      <c r="AH57" t="n">
         <v>57</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AI57" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AJ57" t="n">
         <v>4</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AK57" t="n">
         <v>6800</v>
       </c>
-      <c r="AI57" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ57" t="n">
+      <c r="AL57" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AM57" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7160,59 +7679,68 @@
       <c r="S58" t="n">
         <v>56</v>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="T58" t="n">
+        <v>56</v>
+      </c>
+      <c r="U58" t="n">
+        <v>56</v>
+      </c>
+      <c r="V58" t="n">
+        <v>56</v>
+      </c>
+      <c r="W58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="U58" t="n">
+      <c r="X58" t="n">
         <v>1</v>
       </c>
-      <c r="V58" t="n">
+      <c r="Y58" t="n">
         <v>80</v>
       </c>
-      <c r="W58" t="n">
-        <v>3</v>
-      </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA58" t="n">
         <v>14</v>
       </c>
-      <c r="Y58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="Z58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="AC58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD58" t="n">
         <v>40.8</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AE58" t="n">
         <v>28</v>
       </c>
-      <c r="AC58" t="n">
-        <v>374779</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>7200</v>
-      </c>
-      <c r="AE58" t="n">
+      <c r="AF58" t="n">
+        <v>368231</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>13748</v>
+      </c>
+      <c r="AH58" t="n">
         <v>57</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AI58" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AJ58" t="n">
         <v>4</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AK58" t="n">
         <v>6800</v>
       </c>
-      <c r="AI58" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ58" t="n">
+      <c r="AL58" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AM58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7276,59 +7804,68 @@
       <c r="S59" t="n">
         <v>57</v>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="T59" t="n">
+        <v>57</v>
+      </c>
+      <c r="U59" t="n">
+        <v>57</v>
+      </c>
+      <c r="V59" t="n">
+        <v>57</v>
+      </c>
+      <c r="W59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="U59" t="n">
+      <c r="X59" t="n">
         <v>1</v>
       </c>
-      <c r="V59" t="n">
+      <c r="Y59" t="n">
         <v>100</v>
       </c>
-      <c r="W59" t="n">
+      <c r="Z59" t="n">
         <v>2.5</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AA59" t="n">
         <v>11</v>
       </c>
-      <c r="Y59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="Z59" t="n">
+      <c r="AC59" t="n">
         <v>2</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AD59" t="n">
         <v>50</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AE59" t="n">
         <v>20</v>
       </c>
-      <c r="AC59" t="n">
-        <v>463079</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AE59" t="n">
+      <c r="AF59" t="n">
+        <v>456531</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>15548</v>
+      </c>
+      <c r="AH59" t="n">
         <v>42</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AI59" t="n">
         <v>12.6</v>
       </c>
-      <c r="AG59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH59" t="n">
+      <c r="AJ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK59" t="n">
         <v>5100</v>
       </c>
-      <c r="AI59" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AJ59" t="n">
+      <c r="AL59" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AM59" t="n">
         <v>42</v>
       </c>
     </row>
@@ -7392,59 +7929,68 @@
       <c r="S60" t="n">
         <v>58</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="T60" t="n">
+        <v>58</v>
+      </c>
+      <c r="U60" t="n">
+        <v>58</v>
+      </c>
+      <c r="V60" t="n">
+        <v>58</v>
+      </c>
+      <c r="W60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="U60" t="n">
+      <c r="X60" t="n">
         <v>1</v>
       </c>
-      <c r="V60" t="n">
+      <c r="Y60" t="n">
         <v>10</v>
       </c>
-      <c r="W60" t="n">
-        <v>3</v>
-      </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA60" t="n">
         <v>11</v>
       </c>
-      <c r="Y60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="Z60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA60" t="n">
+      <c r="AC60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD60" t="n">
         <v>22</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AE60" t="n">
         <v>25</v>
       </c>
-      <c r="AC60" t="n">
-        <v>66579</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE60" t="n">
+      <c r="AF60" t="n">
+        <v>60031</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>7448</v>
+      </c>
+      <c r="AH60" t="n">
         <v>135</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AI60" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AJ60" t="n">
         <v>8</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AK60" t="n">
         <v>13600</v>
       </c>
-      <c r="AI60" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AJ60" t="n">
+      <c r="AL60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AM60" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7508,60 +8054,69 @@
       <c r="S61" t="n">
         <v>59</v>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="T61" t="n">
+        <v>59</v>
+      </c>
+      <c r="U61" t="n">
+        <v>59</v>
+      </c>
+      <c r="V61" t="n">
+        <v>59</v>
+      </c>
+      <c r="W61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="U61" t="n">
+      <c r="X61" t="n">
         <v>1</v>
       </c>
-      <c r="V61" t="n">
+      <c r="Y61" t="n">
         <v>3.2</v>
       </c>
-      <c r="W61" t="n">
-        <v>3</v>
-      </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA61" t="n">
         <v>18</v>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="Z61" t="n">
+      <c r="AC61" t="n">
         <v>5</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AD61" t="n">
         <v>4</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AE61" t="n">
         <v>25</v>
       </c>
-      <c r="AC61" t="n">
-        <v>41079</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>288</v>
-      </c>
-      <c r="AE61" t="n">
+      <c r="AF61" t="n">
+        <v>34531</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>6836</v>
+      </c>
+      <c r="AH61" t="n">
         <v>173</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AI61" t="n">
         <v>51.9</v>
       </c>
-      <c r="AG61" t="n">
+      <c r="AJ61" t="n">
         <v>11</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AK61" t="n">
         <v>18700</v>
       </c>
-      <c r="AI61" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>57</v>
+      <c r="AL61" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -7624,59 +8179,68 @@
       <c r="S62" t="n">
         <v>60</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="T62" t="n">
+        <v>60</v>
+      </c>
+      <c r="U62" t="n">
+        <v>60</v>
+      </c>
+      <c r="V62" t="n">
+        <v>60</v>
+      </c>
+      <c r="W62" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
         </is>
       </c>
-      <c r="U62" t="n">
+      <c r="X62" t="n">
         <v>1</v>
       </c>
-      <c r="V62" t="n">
+      <c r="Y62" t="n">
         <v>200</v>
       </c>
-      <c r="W62" t="n">
+      <c r="Z62" t="n">
         <v>3.5</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AA62" t="n">
         <v>12</v>
       </c>
-      <c r="Y62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="Z62" t="n">
+      <c r="AC62" t="n">
         <v>2</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AD62" t="n">
         <v>60</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AE62" t="n">
         <v>25</v>
       </c>
-      <c r="AC62" t="n">
-        <v>918179</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE62" t="n">
+      <c r="AF62" t="n">
+        <v>911631</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH62" t="n">
         <v>92</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AI62" t="n">
         <v>27.6</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AJ62" t="n">
         <v>6</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AK62" t="n">
         <v>10200</v>
       </c>
-      <c r="AI62" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AJ62" t="n">
+      <c r="AL62" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AM62" t="n">
         <v>92</v>
       </c>
     </row>
@@ -7740,57 +8304,66 @@
       <c r="S63" t="n">
         <v>61</v>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="T63" t="n">
+        <v>61</v>
+      </c>
+      <c r="U63" t="n">
+        <v>61</v>
+      </c>
+      <c r="V63" t="n">
+        <v>61</v>
+      </c>
+      <c r="W63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="U63" t="n">
+      <c r="X63" t="n">
         <v>1</v>
       </c>
-      <c r="V63" t="n">
+      <c r="Y63" t="n">
         <v>200</v>
       </c>
-      <c r="W63" t="n">
+      <c r="Z63" t="n">
         <v>3.5</v>
       </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="Z63" t="n">
+      <c r="AC63" t="n">
         <v>2</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AD63" t="n">
         <v>60</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AE63" t="n">
         <v>25</v>
       </c>
-      <c r="AC63" t="n">
-        <v>918179</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE63" t="n">
+      <c r="AF63" t="n">
+        <v>911631</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH63" t="n">
         <v>92</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AI63" t="n">
         <v>27.6</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AJ63" t="n">
         <v>6</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AK63" t="n">
         <v>10200</v>
       </c>
-      <c r="AI63" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AJ63" t="n">
+      <c r="AL63" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AM63" t="n">
         <v>92</v>
       </c>
     </row>
@@ -7854,59 +8427,68 @@
       <c r="S64" t="n">
         <v>62</v>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="T64" t="n">
+        <v>62</v>
+      </c>
+      <c r="U64" t="n">
+        <v>62</v>
+      </c>
+      <c r="V64" t="n">
+        <v>62</v>
+      </c>
+      <c r="W64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="U64" t="n">
+      <c r="X64" t="n">
         <v>1</v>
       </c>
-      <c r="V64" t="n">
+      <c r="Y64" t="n">
         <v>225</v>
       </c>
-      <c r="W64" t="n">
+      <c r="Z64" t="n">
         <v>3.5</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AA64" t="n">
         <v>14</v>
       </c>
-      <c r="Y64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="Z64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA64" t="n">
+      <c r="AC64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD64" t="n">
         <v>51</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AE64" t="n">
         <v>25</v>
       </c>
-      <c r="AC64" t="n">
-        <v>1030679</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>20250</v>
-      </c>
-      <c r="AE64" t="n">
+      <c r="AF64" t="n">
+        <v>1024131</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>26798</v>
+      </c>
+      <c r="AH64" t="n">
         <v>92</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AI64" t="n">
         <v>27.6</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AJ64" t="n">
         <v>6</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AK64" t="n">
         <v>10200</v>
       </c>
-      <c r="AI64" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AJ64" t="n">
+      <c r="AL64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM64" t="n">
         <v>92</v>
       </c>
     </row>
@@ -7970,59 +8552,68 @@
       <c r="S65" t="n">
         <v>63</v>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="T65" t="n">
+        <v>63</v>
+      </c>
+      <c r="U65" t="n">
+        <v>63</v>
+      </c>
+      <c r="V65" t="n">
+        <v>63</v>
+      </c>
+      <c r="W65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="U65" t="n">
+      <c r="X65" t="n">
         <v>1</v>
       </c>
-      <c r="V65" t="n">
+      <c r="Y65" t="n">
         <v>200</v>
       </c>
-      <c r="W65" t="n">
+      <c r="Z65" t="n">
         <v>4</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AA65" t="n">
         <v>14</v>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="Z65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA65" t="n">
+      <c r="AC65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD65" t="n">
         <v>50</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AE65" t="n">
         <v>25</v>
       </c>
-      <c r="AC65" t="n">
-        <v>921579</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE65" t="n">
+      <c r="AF65" t="n">
+        <v>915031</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH65" t="n">
         <v>135</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AI65" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AJ65" t="n">
         <v>8</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AK65" t="n">
         <v>13600</v>
       </c>
-      <c r="AI65" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ65" t="n">
+      <c r="AL65" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AM65" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8086,59 +8677,68 @@
       <c r="S66" t="n">
         <v>64</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="T66" t="n">
+        <v>64</v>
+      </c>
+      <c r="U66" t="n">
+        <v>64</v>
+      </c>
+      <c r="V66" t="n">
+        <v>64</v>
+      </c>
+      <c r="W66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="U66" t="n">
+      <c r="X66" t="n">
         <v>1</v>
       </c>
-      <c r="V66" t="n">
+      <c r="Y66" t="n">
         <v>200</v>
       </c>
-      <c r="W66" t="n">
+      <c r="Z66" t="n">
         <v>4</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AA66" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="Z66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA66" t="n">
+      <c r="AC66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD66" t="n">
         <v>50</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AE66" t="n">
         <v>25</v>
       </c>
-      <c r="AC66" t="n">
-        <v>921579</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AE66" t="n">
+      <c r="AF66" t="n">
+        <v>915031</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>24548</v>
+      </c>
+      <c r="AH66" t="n">
         <v>135</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AI66" t="n">
         <v>40.5</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AJ66" t="n">
         <v>8</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AK66" t="n">
         <v>13600</v>
       </c>
-      <c r="AI66" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AJ66" t="n">
+      <c r="AL66" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AM66" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8202,59 +8802,68 @@
       <c r="S67" t="n">
         <v>65</v>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="T67" t="n">
+        <v>65</v>
+      </c>
+      <c r="U67" t="n">
+        <v>65</v>
+      </c>
+      <c r="V67" t="n">
+        <v>65</v>
+      </c>
+      <c r="W67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="U67" t="n">
+      <c r="X67" t="n">
         <v>1</v>
       </c>
-      <c r="V67" t="n">
+      <c r="Y67" t="n">
         <v>150</v>
       </c>
-      <c r="W67" t="n">
+      <c r="Z67" t="n">
         <v>2</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AA67" t="n">
         <v>11</v>
       </c>
-      <c r="Y67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="Z67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA67" t="n">
+      <c r="AC67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD67" t="n">
         <v>41</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AE67" t="n">
         <v>25</v>
       </c>
-      <c r="AC67" t="n">
-        <v>689779</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>13500</v>
-      </c>
-      <c r="AE67" t="n">
+      <c r="AF67" t="n">
+        <v>683231</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>20048</v>
+      </c>
+      <c r="AH67" t="n">
         <v>59</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AI67" t="n">
         <v>17.7</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AJ67" t="n">
         <v>4</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AK67" t="n">
         <v>6800</v>
       </c>
-      <c r="AI67" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AJ67" t="n">
+      <c r="AL67" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AM67" t="n">
         <v>59</v>
       </c>
     </row>
@@ -8318,59 +8927,68 @@
       <c r="S68" t="n">
         <v>66</v>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="T68" t="n">
+        <v>66</v>
+      </c>
+      <c r="U68" t="n">
+        <v>66</v>
+      </c>
+      <c r="V68" t="n">
+        <v>66</v>
+      </c>
+      <c r="W68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="U68" t="n">
+      <c r="X68" t="n">
         <v>1</v>
       </c>
-      <c r="V68" t="n">
+      <c r="Y68" t="n">
         <v>7.5</v>
       </c>
-      <c r="W68" t="n">
-        <v>3</v>
-      </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA68" t="n">
         <v>12</v>
       </c>
-      <c r="Y68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="Z68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="AC68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD68" t="n">
         <v>18</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AE68" t="n">
         <v>20</v>
       </c>
-      <c r="AC68" t="n">
-        <v>48529</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>675</v>
-      </c>
-      <c r="AE68" t="n">
+      <c r="AF68" t="n">
+        <v>41981</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>7223</v>
+      </c>
+      <c r="AH68" t="n">
         <v>57</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AI68" t="n">
         <v>17.1</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AJ68" t="n">
         <v>4</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AK68" t="n">
         <v>6800</v>
       </c>
-      <c r="AI68" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AJ68" t="n">
+      <c r="AL68" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AM68" t="n">
         <v>57</v>
       </c>
     </row>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AV68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,185 +441,230 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.28</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.27</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.26</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.25</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.24</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.23</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.22</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.21</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.20</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Gesamtinvestitionskosten</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Betriebskosten</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>max Flauten time</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Battery Capacity</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>number of batteries</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>battery cost</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>LCOE</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Flautenzeit</t>
         </is>
@@ -694,59 +739,86 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="X2" t="n">
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AH2" t="n">
         <v>225</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AI2" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AJ2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
         <v>30</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AN2" t="n">
         <v>25</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AO2" t="n">
         <v>1024131</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AP2" t="n">
         <v>26798</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AQ2" t="n">
         <v>91</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AR2" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AS2" t="n">
         <v>6</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AT2" t="n">
         <v>10200</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AU2" t="n">
         <v>0.38</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AV2" t="n">
         <v>91</v>
       </c>
     </row>
@@ -819,59 +891,86 @@
       <c r="V3" t="n">
         <v>1</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
-        </is>
+      <c r="W3" t="n">
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
       </c>
       <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="n">
         <v>225</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AI3" t="n">
         <v>4</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AJ3" t="n">
         <v>13</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
         <v>50</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AN3" t="n">
         <v>25</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AO3" t="n">
         <v>1027531</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AP3" t="n">
         <v>26798</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AQ3" t="n">
         <v>135</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AR3" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AS3" t="n">
         <v>8</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AT3" t="n">
         <v>13600</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AU3" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AV3" t="n">
         <v>135</v>
       </c>
     </row>
@@ -944,59 +1043,86 @@
       <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="X4" t="n">
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AH4" t="n">
         <v>90</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AI4" t="n">
         <v>4</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AL4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="n">
         <v>30</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
         <v>25</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AO4" t="n">
         <v>420031</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AP4" t="n">
         <v>14648</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AQ4" t="n">
         <v>135</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AR4" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AS4" t="n">
         <v>8</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AT4" t="n">
         <v>13600</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AU4" t="n">
         <v>0.49</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AV4" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1069,59 +1195,86 @@
       <c r="V5" t="n">
         <v>3</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="X5" t="n">
+      <c r="AG5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AH5" t="n">
         <v>200</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AI5" t="n">
         <v>4</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="n">
         <v>30</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AN5" t="n">
         <v>25</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AO5" t="n">
         <v>915031</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AP5" t="n">
         <v>24548</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AQ5" t="n">
         <v>135</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AR5" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AS5" t="n">
         <v>8</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AT5" t="n">
         <v>13600</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AU5" t="n">
         <v>0.52</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AV5" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1194,59 +1347,86 @@
       <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
         </is>
       </c>
-      <c r="X6" t="n">
+      <c r="AG6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AH6" t="n">
         <v>200</v>
       </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10.9</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="n">
         <v>40.3</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AN6" t="n">
         <v>20</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AO6" t="n">
         <v>908231</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AP6" t="n">
         <v>24548</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AQ6" t="n">
         <v>57</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AR6" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AS6" t="n">
         <v>4</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AT6" t="n">
         <v>6800</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AU6" t="n">
         <v>0.29</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1319,59 +1499,86 @@
       <c r="V7" t="n">
         <v>5</v>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
-        </is>
+      <c r="W7" t="n">
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
         <v>5</v>
       </c>
       <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AL7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM7" t="n">
         <v>23</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AN7" t="n">
         <v>23</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AO7" t="n">
         <v>357631</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AP7" t="n">
         <v>13298</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AQ7" t="n">
         <v>173</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AR7" t="n">
         <v>51.9</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AS7" t="n">
         <v>11</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AT7" t="n">
         <v>18700</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AU7" t="n">
         <v>0.53</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AV7" t="n">
         <v>173</v>
       </c>
     </row>
@@ -1444,59 +1651,86 @@
       <c r="V8" t="n">
         <v>6</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
         </is>
       </c>
-      <c r="X8" t="n">
+      <c r="AG8" t="n">
         <v>1</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AH8" t="n">
         <v>150</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AI8" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AJ8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="n">
         <v>40</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AN8" t="n">
         <v>25</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AO8" t="n">
         <v>686631</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AP8" t="n">
         <v>20048</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AQ8" t="n">
         <v>91</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AR8" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AS8" t="n">
         <v>6</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AT8" t="n">
         <v>10200</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AU8" t="n">
         <v>0.38</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AV8" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1569,59 +1803,86 @@
       <c r="V9" t="n">
         <v>7</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="X9" t="n">
+      <c r="AG9" t="n">
         <v>1</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AH9" t="n">
         <v>10</v>
       </c>
-      <c r="Z9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AI9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="n">
         <v>18</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AN9" t="n">
         <v>25</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AO9" t="n">
         <v>60031</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AP9" t="n">
         <v>7448</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AQ9" t="n">
         <v>135</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AR9" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AS9" t="n">
         <v>8</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AT9" t="n">
         <v>13600</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AU9" t="n">
         <v>0.87</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AV9" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1694,59 +1955,86 @@
       <c r="V10" t="n">
         <v>8</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="X10" t="n">
+      <c r="AG10" t="n">
         <v>1</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AH10" t="n">
         <v>20</v>
       </c>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AI10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>9</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AL10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="n">
         <v>20</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AN10" t="n">
         <v>25</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AO10" t="n">
         <v>98231</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AP10" t="n">
         <v>8348</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AQ10" t="n">
         <v>57</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AR10" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AS10" t="n">
         <v>4</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AT10" t="n">
         <v>6800</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AU10" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AV10" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1819,59 +2107,86 @@
       <c r="V11" t="n">
         <v>9</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="X11" t="n">
+      <c r="AG11" t="n">
         <v>1</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AH11" t="n">
         <v>30</v>
       </c>
-      <c r="Z11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>10</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="n">
         <v>30</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AN11" t="n">
         <v>25</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AO11" t="n">
         <v>143231</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AP11" t="n">
         <v>9248</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AQ11" t="n">
         <v>57</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AR11" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AS11" t="n">
         <v>4</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AT11" t="n">
         <v>6800</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AU11" t="n">
         <v>0.34</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AV11" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1944,59 +2259,86 @@
       <c r="V12" t="n">
         <v>10</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="X12" t="n">
+      <c r="AG12" t="n">
         <v>1</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AH12" t="n">
         <v>50</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AI12" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AJ12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="n">
         <v>40</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AN12" t="n">
         <v>20</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AO12" t="n">
         <v>236631</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AP12" t="n">
         <v>11048</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AQ12" t="n">
         <v>91</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AS12" t="n">
         <v>6</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AT12" t="n">
         <v>10200</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AU12" t="n">
         <v>0.28</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AV12" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2069,59 +2411,86 @@
       <c r="V13" t="n">
         <v>11</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="X13" t="n">
+      <c r="AG13" t="n">
         <v>1</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AH13" t="n">
         <v>60</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AI13" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AJ13" t="n">
         <v>9</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AL13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM13" t="n">
         <v>50</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AN13" t="n">
         <v>25</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AO13" t="n">
         <v>276531</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AP13" t="n">
         <v>11948</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AQ13" t="n">
         <v>42</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AR13" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT13" t="n">
         <v>5100</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AU13" t="n">
         <v>0.23</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AV13" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2194,59 +2563,86 @@
       <c r="V14" t="n">
         <v>12</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W14" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="X14" t="n">
+      <c r="AG14" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AH14" t="n">
         <v>100</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AI14" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AJ14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AL14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="n">
         <v>60</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AN14" t="n">
         <v>20</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AO14" t="n">
         <v>456531</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AP14" t="n">
         <v>15548</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AQ14" t="n">
         <v>42</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AR14" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
         <v>5100</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AU14" t="n">
         <v>0.25</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AV14" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2319,59 +2715,86 @@
       <c r="V15" t="n">
         <v>13</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="X15" t="n">
+      <c r="AG15" t="n">
         <v>1</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AH15" t="n">
         <v>60</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AI15" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AJ15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AL15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM15" t="n">
         <v>50</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AN15" t="n">
         <v>20</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AO15" t="n">
         <v>276531</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AP15" t="n">
         <v>11948</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AQ15" t="n">
         <v>42</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AR15" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="n">
         <v>5100</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AU15" t="n">
         <v>0.19</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AV15" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2444,59 +2867,86 @@
       <c r="V16" t="n">
         <v>14</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="W16" t="n">
+        <v>14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="X16" t="n">
+      <c r="AG16" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AH16" t="n">
         <v>100</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AI16" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AJ16" t="n">
         <v>10</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AC16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM16" t="n">
         <v>30</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AN16" t="n">
         <v>20</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AO16" t="n">
         <v>456531</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AP16" t="n">
         <v>15548</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AQ16" t="n">
         <v>42</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AR16" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AS16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="n">
         <v>5100</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AU16" t="n">
         <v>0.23</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AV16" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2569,59 +3019,86 @@
       <c r="V17" t="n">
         <v>15</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="X17" t="n">
+      <c r="AG17" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AH17" t="n">
         <v>200</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AI17" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AJ17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM17" t="n">
         <v>30</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AN17" t="n">
         <v>20</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AO17" t="n">
         <v>906531</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AP17" t="n">
         <v>24548</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AQ17" t="n">
         <v>42</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AR17" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AS17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT17" t="n">
         <v>5100</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AU17" t="n">
         <v>0.28</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AV17" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2694,59 +3171,86 @@
       <c r="V18" t="n">
         <v>16</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="X18" t="n">
+      <c r="AG18" t="n">
         <v>1</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AH18" t="n">
         <v>20</v>
       </c>
-      <c r="Z18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>10</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="AC18" t="n">
+      <c r="AL18" t="n">
         <v>2</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AM18" t="n">
         <v>20</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AN18" t="n">
         <v>25</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AO18" t="n">
         <v>98231</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AP18" t="n">
         <v>8348</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AQ18" t="n">
         <v>57</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AR18" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AS18" t="n">
         <v>4</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AT18" t="n">
         <v>6800</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AU18" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AV18" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2819,59 +3323,86 @@
       <c r="V19" t="n">
         <v>17</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="X19" t="n">
+      <c r="AG19" t="n">
         <v>1</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AH19" t="n">
         <v>57</v>
       </c>
-      <c r="Z19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA19" t="n">
+      <c r="AI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="AC19" t="n">
+      <c r="AL19" t="n">
         <v>2</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AM19" t="n">
         <v>31</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AN19" t="n">
         <v>25</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AO19" t="n">
         <v>268131</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AP19" t="n">
         <v>11678</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AQ19" t="n">
         <v>91</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AR19" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AS19" t="n">
         <v>6</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AT19" t="n">
         <v>10200</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AU19" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AV19" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2944,59 +3475,86 @@
       <c r="V20" t="n">
         <v>18</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W20" t="n">
+        <v>18</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="X20" t="n">
+      <c r="AG20" t="n">
         <v>1</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AH20" t="n">
         <v>60</v>
       </c>
-      <c r="Z20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA20" t="n">
+      <c r="AI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>11</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="AC20" t="n">
+      <c r="AL20" t="n">
         <v>2</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AM20" t="n">
         <v>31</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AN20" t="n">
         <v>25</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AO20" t="n">
         <v>278231</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AP20" t="n">
         <v>11948</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AQ20" t="n">
         <v>59</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AR20" t="n">
         <v>17.7</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AS20" t="n">
         <v>4</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AT20" t="n">
         <v>6800</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AU20" t="n">
         <v>0.34</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AV20" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3069,59 +3627,86 @@
       <c r="V21" t="n">
         <v>19</v>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
-        </is>
+      <c r="W21" t="n">
+        <v>19</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>28.0 m</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>28.0 m</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO21" t="n">
         <v>278231</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AP21" t="n">
         <v>11948</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AQ21" t="n">
         <v>57</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AR21" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AS21" t="n">
         <v>4</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AT21" t="n">
         <v>6800</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AU21" t="n">
         <v>0.24</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AV21" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3194,59 +3779,86 @@
       <c r="V22" t="n">
         <v>20</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="W22" t="n">
+        <v>20</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="X22" t="n">
+      <c r="AG22" t="n">
         <v>1</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AH22" t="n">
         <v>6.2</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AI22" t="n">
         <v>2</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AJ22" t="n">
         <v>6</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AL22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="n">
         <v>18</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AN22" t="n">
         <v>14</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AO22" t="n">
         <v>32731</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AP22" t="n">
         <v>7106</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AQ22" t="n">
         <v>22</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AR22" t="n">
         <v>6.6</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AS22" t="n">
         <v>2</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AT22" t="n">
         <v>3400</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AU22" t="n">
         <v>0.48</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AV22" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3319,59 +3931,86 @@
       <c r="V23" t="n">
         <v>21</v>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="X23" t="n">
+      <c r="AG23" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AH23" t="n">
         <v>250</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AI23" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AJ23" t="n">
         <v>9</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM23" t="n">
         <v>28</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AN23" t="n">
         <v>32</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AO23" t="n">
         <v>1131531</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AP23" t="n">
         <v>29048</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AQ23" t="n">
         <v>42</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AR23" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="n">
         <v>5100</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AU23" t="n">
         <v>0.25</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AV23" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3444,59 +4083,86 @@
       <c r="V24" t="n">
         <v>22</v>
       </c>
-      <c r="W24" t="inlineStr">
+      <c r="W24" t="n">
+        <v>22</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="X24" t="n">
+      <c r="AG24" t="n">
         <v>1</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AH24" t="n">
         <v>10</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AI24" t="n">
         <v>3.4</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AJ24" t="n">
         <v>15.6</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM24" t="n">
         <v>30</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AN24" t="n">
         <v>60</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AO24" t="n">
         <v>56631</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AP24" t="n">
         <v>7448</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AQ24" t="n">
         <v>95</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AR24" t="n">
         <v>28.5</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AS24" t="n">
         <v>6</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AT24" t="n">
         <v>10200</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AU24" t="n">
         <v>1.18</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AV24" t="n">
         <v>95</v>
       </c>
     </row>
@@ -3569,59 +4235,86 @@
       <c r="V25" t="n">
         <v>23</v>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="W25" t="n">
+        <v>23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="X25" t="n">
+      <c r="AG25" t="n">
         <v>1</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AH25" t="n">
         <v>150</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AI25" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AJ25" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AC25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="n">
+      <c r="AL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
         <v>40</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AN25" t="n">
         <v>25</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AO25" t="n">
         <v>686631</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AP25" t="n">
         <v>20048</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AQ25" t="n">
         <v>91</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AR25" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AS25" t="n">
         <v>6</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AT25" t="n">
         <v>10200</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AU25" t="n">
         <v>0.42</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AV25" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3694,57 +4387,84 @@
       <c r="V26" t="n">
         <v>24</v>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W26" t="n">
+        <v>24</v>
+      </c>
+      <c r="X26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="X26" t="n">
+      <c r="AG26" t="n">
         <v>1</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AH26" t="n">
         <v>250</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AI26" t="n">
         <v>4.8</v>
       </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr">
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="AC26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD26" t="n">
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
         <v>42.7</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AN26" t="n">
         <v>28.9</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AO26" t="n">
         <v>1145131</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AP26" t="n">
         <v>29048</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AQ26" t="n">
         <v>173</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AR26" t="n">
         <v>51.9</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AS26" t="n">
         <v>11</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AT26" t="n">
         <v>18700</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AU26" t="n">
         <v>0.6</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AV26" t="n">
         <v>173</v>
       </c>
     </row>
@@ -3817,59 +4537,86 @@
       <c r="V27" t="n">
         <v>25</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="W27" t="n">
+        <v>25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="X27" t="n">
+      <c r="AG27" t="n">
         <v>1</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AH27" t="n">
         <v>75</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AI27" t="n">
         <v>4</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AJ27" t="n">
         <v>18</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AL27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM27" t="n">
         <v>24</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AN27" t="n">
         <v>30</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AO27" t="n">
         <v>357631</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AP27" t="n">
         <v>13298</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AQ27" t="n">
         <v>173</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AR27" t="n">
         <v>51.9</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AS27" t="n">
         <v>11</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AT27" t="n">
         <v>18700</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AU27" t="n">
         <v>0.67</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AV27" t="n">
         <v>173</v>
       </c>
     </row>
@@ -3942,59 +4689,86 @@
       <c r="V28" t="n">
         <v>26</v>
       </c>
-      <c r="W28" t="inlineStr">
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="X28" t="n">
+      <c r="AG28" t="n">
         <v>1</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AH28" t="n">
         <v>110</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AI28" t="n">
         <v>4</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AJ28" t="n">
         <v>18</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AL28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM28" t="n">
         <v>24</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AN28" t="n">
         <v>30</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AO28" t="n">
         <v>510031</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AP28" t="n">
         <v>16448</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AQ28" t="n">
         <v>135</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AR28" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AS28" t="n">
         <v>8</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AT28" t="n">
         <v>13600</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AU28" t="n">
         <v>0.43</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AV28" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4067,59 +4841,86 @@
       <c r="V29" t="n">
         <v>27</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W29" t="n">
+        <v>27</v>
+      </c>
+      <c r="X29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="X29" t="n">
+      <c r="AG29" t="n">
         <v>1</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AH29" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AI29" t="n">
         <v>4.5</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AJ29" t="n">
         <v>14</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="AC29" t="n">
+      <c r="AL29" t="n">
         <v>2</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AM29" t="n">
         <v>18.6</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AN29" t="n">
         <v>30</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AO29" t="n">
         <v>101681</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AP29" t="n">
         <v>8213</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AQ29" t="n">
         <v>162</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AR29" t="n">
         <v>48.6</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AS29" t="n">
         <v>10</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AT29" t="n">
         <v>17000</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AU29" t="n">
         <v>0.84</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AV29" t="n">
         <v>162</v>
       </c>
     </row>
@@ -4192,59 +4993,86 @@
       <c r="V30" t="n">
         <v>28</v>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
-        </is>
+      <c r="W30" t="n">
+        <v>28</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>10.0 m</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>28</v>
       </c>
       <c r="AC30" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
         <v>28</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>10.0 m</t>
+        </is>
+      </c>
+      <c r="AL30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO30" t="n">
         <v>114031</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AP30" t="n">
         <v>8528</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AQ30" t="n">
         <v>135</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AR30" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AS30" t="n">
         <v>8</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AT30" t="n">
         <v>13600</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AU30" t="n">
         <v>0.77</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AV30" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4317,59 +5145,86 @@
       <c r="V31" t="n">
         <v>29</v>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="W31" t="n">
+        <v>29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="X31" t="n">
+      <c r="AG31" t="n">
         <v>1</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AH31" t="n">
         <v>30</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AI31" t="n">
         <v>4</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AJ31" t="n">
         <v>18</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AL31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM31" t="n">
         <v>24</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AN31" t="n">
         <v>25</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AO31" t="n">
         <v>150031</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AP31" t="n">
         <v>9248</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AQ31" t="n">
         <v>135</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AR31" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AS31" t="n">
         <v>8</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AT31" t="n">
         <v>13600</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AU31" t="n">
         <v>0.7</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AV31" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4442,59 +5297,86 @@
       <c r="V32" t="n">
         <v>30</v>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="W32" t="n">
+        <v>30</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="X32" t="n">
+      <c r="AG32" t="n">
         <v>1</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AH32" t="n">
         <v>55</v>
       </c>
-      <c r="Z32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA32" t="n">
+      <c r="AI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>13</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AL32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM32" t="n">
         <v>24</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AN32" t="n">
         <v>28</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AO32" t="n">
         <v>255731</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AP32" t="n">
         <v>11498</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AQ32" t="n">
         <v>59</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AR32" t="n">
         <v>17.7</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AS32" t="n">
         <v>4</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AT32" t="n">
         <v>6800</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AU32" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AV32" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4567,59 +5449,86 @@
       <c r="V33" t="n">
         <v>31</v>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="W33" t="n">
+        <v>31</v>
+      </c>
+      <c r="X33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="X33" t="n">
+      <c r="AG33" t="n">
         <v>1</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AH33" t="n">
         <v>95</v>
       </c>
-      <c r="Z33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="AI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>13</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="AC33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AL33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM33" t="n">
         <v>24.5</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AN33" t="n">
         <v>28</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AO33" t="n">
         <v>435731</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AP33" t="n">
         <v>15098</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AQ33" t="n">
         <v>59</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AR33" t="n">
         <v>17.7</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AS33" t="n">
         <v>4</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AT33" t="n">
         <v>6800</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AU33" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AV33" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4692,59 +5601,86 @@
       <c r="V34" t="n">
         <v>32</v>
       </c>
-      <c r="W34" t="inlineStr">
+      <c r="W34" t="n">
+        <v>32</v>
+      </c>
+      <c r="X34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="X34" t="n">
+      <c r="AG34" t="n">
         <v>1</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AH34" t="n">
         <v>100</v>
       </c>
-      <c r="Z34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>12</v>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="AC34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AL34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM34" t="n">
         <v>24.5</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AN34" t="n">
         <v>28</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AO34" t="n">
         <v>458231</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AP34" t="n">
         <v>15548</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AQ34" t="n">
         <v>59</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AR34" t="n">
         <v>17.7</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AS34" t="n">
         <v>4</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AT34" t="n">
         <v>6800</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AU34" t="n">
         <v>0.41</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AV34" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4817,59 +5753,86 @@
       <c r="V35" t="n">
         <v>33</v>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="W35" t="n">
+        <v>33</v>
+      </c>
+      <c r="X35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="X35" t="n">
+      <c r="AG35" t="n">
         <v>1</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AH35" t="n">
         <v>55</v>
       </c>
-      <c r="Z35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA35" t="n">
+      <c r="AI35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>12</v>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="AC35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AL35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM35" t="n">
         <v>28.5</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AN35" t="n">
         <v>25</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AO35" t="n">
         <v>255731</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AP35" t="n">
         <v>11498</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AQ35" t="n">
         <v>57</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AR35" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AS35" t="n">
         <v>4</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="AT35" t="n">
         <v>6800</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AU35" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AV35" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4942,59 +5905,86 @@
       <c r="V36" t="n">
         <v>34</v>
       </c>
-      <c r="W36" t="inlineStr">
+      <c r="W36" t="n">
+        <v>34</v>
+      </c>
+      <c r="X36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="X36" t="n">
+      <c r="AG36" t="n">
         <v>1</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AH36" t="n">
         <v>80</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AI36" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AJ36" t="n">
         <v>13</v>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="AC36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AL36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM36" t="n">
         <v>30.5</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AN36" t="n">
         <v>25</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AO36" t="n">
         <v>366531</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AP36" t="n">
         <v>13748</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AQ36" t="n">
         <v>42</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AR36" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK36" t="n">
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT36" t="n">
         <v>5100</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AU36" t="n">
         <v>0.36</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AV36" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5067,59 +6057,86 @@
       <c r="V37" t="n">
         <v>35</v>
       </c>
-      <c r="W37" t="inlineStr">
+      <c r="W37" t="n">
+        <v>35</v>
+      </c>
+      <c r="X37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="X37" t="n">
+      <c r="AG37" t="n">
         <v>1</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AH37" t="n">
         <v>60</v>
       </c>
-      <c r="Z37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA37" t="n">
+      <c r="AI37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="AC37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AL37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM37" t="n">
         <v>36</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AN37" t="n">
         <v>25</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AO37" t="n">
         <v>278231</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AP37" t="n">
         <v>11948</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AQ37" t="n">
         <v>57</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AR37" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AS37" t="n">
         <v>4</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AT37" t="n">
         <v>6800</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AU37" t="n">
         <v>0.31</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AV37" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5192,59 +6209,86 @@
       <c r="V38" t="n">
         <v>36</v>
       </c>
-      <c r="W38" t="inlineStr">
+      <c r="W38" t="n">
+        <v>36</v>
+      </c>
+      <c r="X38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="X38" t="n">
+      <c r="AG38" t="n">
         <v>1</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AH38" t="n">
         <v>95</v>
       </c>
-      <c r="Z38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>12</v>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AC38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AL38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM38" t="n">
         <v>37</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AN38" t="n">
         <v>25</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AO38" t="n">
         <v>435731</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AP38" t="n">
         <v>15098</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AQ38" t="n">
         <v>57</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AR38" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AS38" t="n">
         <v>4</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="AT38" t="n">
         <v>6800</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AU38" t="n">
         <v>0.31</v>
       </c>
-      <c r="AM38" t="n">
+      <c r="AV38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5317,59 +6361,86 @@
       <c r="V39" t="n">
         <v>37</v>
       </c>
-      <c r="W39" t="inlineStr">
+      <c r="W39" t="n">
+        <v>37</v>
+      </c>
+      <c r="X39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="X39" t="n">
+      <c r="AG39" t="n">
         <v>1</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AH39" t="n">
         <v>5</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AI39" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AJ39" t="n">
         <v>12</v>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="AC39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD39" t="n">
+      <c r="AL39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM39" t="n">
         <v>15</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AN39" t="n">
         <v>60</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AO39" t="n">
         <v>34131</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AP39" t="n">
         <v>6998</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AQ39" t="n">
         <v>91</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AR39" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AS39" t="n">
         <v>6</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AT39" t="n">
         <v>10200</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AU39" t="n">
         <v>1.25</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AV39" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5442,57 +6513,84 @@
       <c r="V40" t="n">
         <v>38</v>
       </c>
-      <c r="W40" t="inlineStr">
+      <c r="W40" t="n">
+        <v>38</v>
+      </c>
+      <c r="X40" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="X40" t="n">
+      <c r="AG40" t="n">
         <v>1</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AH40" t="n">
         <v>20</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AI40" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr">
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="AC40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD40" t="n">
+      <c r="AL40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM40" t="n">
         <v>48.5</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AN40" t="n">
         <v>30</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AO40" t="n">
         <v>101631</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AP40" t="n">
         <v>8348</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AQ40" t="n">
         <v>91</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AR40" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AS40" t="n">
         <v>6</v>
       </c>
-      <c r="AK40" t="n">
+      <c r="AT40" t="n">
         <v>10200</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AU40" t="n">
         <v>0.79</v>
       </c>
-      <c r="AM40" t="n">
+      <c r="AV40" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5565,59 +6663,86 @@
       <c r="V41" t="n">
         <v>39</v>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="W41" t="n">
+        <v>39</v>
+      </c>
+      <c r="X41" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AF41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="X41" t="n">
+      <c r="AG41" t="n">
         <v>1</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AH41" t="n">
         <v>50</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AI41" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AJ41" t="n">
         <v>14</v>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AK41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="AC41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD41" t="n">
+      <c r="AL41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM41" t="n">
         <v>37</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AN41" t="n">
         <v>25</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AO41" t="n">
         <v>236631</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AP41" t="n">
         <v>11048</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AQ41" t="n">
         <v>91</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AR41" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AS41" t="n">
         <v>6</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AT41" t="n">
         <v>10200</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AU41" t="n">
         <v>0.45</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AV41" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5690,59 +6815,86 @@
       <c r="V42" t="n">
         <v>40</v>
       </c>
-      <c r="W42" t="inlineStr">
+      <c r="W42" t="n">
+        <v>40</v>
+      </c>
+      <c r="X42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="X42" t="n">
+      <c r="AG42" t="n">
         <v>1</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AH42" t="n">
         <v>18</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AI42" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AJ42" t="n">
         <v>23</v>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AK42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="AC42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD42" t="n">
+      <c r="AL42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM42" t="n">
         <v>20</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AN42" t="n">
         <v>25</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AO42" t="n">
         <v>92631</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AP42" t="n">
         <v>8168</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AQ42" t="n">
         <v>91</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AR42" t="n">
         <v>27.3</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AS42" t="n">
         <v>6</v>
       </c>
-      <c r="AK42" t="n">
+      <c r="AT42" t="n">
         <v>10200</v>
       </c>
-      <c r="AL42" t="n">
+      <c r="AU42" t="n">
         <v>0.75</v>
       </c>
-      <c r="AM42" t="n">
+      <c r="AV42" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5815,59 +6967,86 @@
       <c r="V43" t="n">
         <v>41</v>
       </c>
-      <c r="W43" t="inlineStr">
+      <c r="W43" t="n">
+        <v>41</v>
+      </c>
+      <c r="X43" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="X43" t="n">
+      <c r="AG43" t="n">
         <v>1</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AH43" t="n">
         <v>250</v>
       </c>
-      <c r="Z43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA43" t="n">
+      <c r="AI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>9</v>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="AC43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD43" t="n">
+      <c r="AL43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM43" t="n">
         <v>19.47</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AN43" t="n">
         <v>25</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AO43" t="n">
         <v>1133231</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AP43" t="n">
         <v>29048</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AQ43" t="n">
         <v>57</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AR43" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AS43" t="n">
         <v>4</v>
       </c>
-      <c r="AK43" t="n">
+      <c r="AT43" t="n">
         <v>6800</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AU43" t="n">
         <v>0.25</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AV43" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5940,59 +7119,86 @@
       <c r="V44" t="n">
         <v>42</v>
       </c>
-      <c r="W44" t="inlineStr">
+      <c r="W44" t="n">
+        <v>42</v>
+      </c>
+      <c r="X44" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="X44" t="n">
+      <c r="AG44" t="n">
         <v>1</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AH44" t="n">
         <v>11</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AI44" t="n">
         <v>3.8</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AJ44" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AK44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="AC44" t="n">
+      <c r="AL44" t="n">
         <v>2</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AM44" t="n">
         <v>10</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AN44" t="n">
         <v>24</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AO44" t="n">
         <v>61131</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AP44" t="n">
         <v>7538</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AQ44" t="n">
         <v>95</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AR44" t="n">
         <v>28.5</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AS44" t="n">
         <v>6</v>
       </c>
-      <c r="AK44" t="n">
+      <c r="AT44" t="n">
         <v>10200</v>
       </c>
-      <c r="AL44" t="n">
+      <c r="AU44" t="n">
         <v>0.67</v>
       </c>
-      <c r="AM44" t="n">
+      <c r="AV44" t="n">
         <v>95</v>
       </c>
     </row>
@@ -6065,59 +7271,86 @@
       <c r="V45" t="n">
         <v>43</v>
       </c>
-      <c r="W45" t="inlineStr">
+      <c r="W45" t="n">
+        <v>43</v>
+      </c>
+      <c r="X45" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AF45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="X45" t="n">
+      <c r="AG45" t="n">
         <v>1</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AH45" t="n">
         <v>150</v>
       </c>
-      <c r="Z45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA45" t="n">
+      <c r="AI45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AK45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AC45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD45" t="n">
+      <c r="AL45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="n">
         <v>50</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AN45" t="n">
         <v>25</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AO45" t="n">
         <v>690031</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AP45" t="n">
         <v>20048</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AQ45" t="n">
         <v>135</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AR45" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AS45" t="n">
         <v>8</v>
       </c>
-      <c r="AK45" t="n">
+      <c r="AT45" t="n">
         <v>13600</v>
       </c>
-      <c r="AL45" t="n">
+      <c r="AU45" t="n">
         <v>0.36</v>
       </c>
-      <c r="AM45" t="n">
+      <c r="AV45" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6190,59 +7423,86 @@
       <c r="V46" t="n">
         <v>44</v>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="W46" t="n">
+        <v>44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="X46" t="n">
+      <c r="AG46" t="n">
         <v>1</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AH46" t="n">
         <v>250</v>
       </c>
-      <c r="Z46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA46" t="n">
+      <c r="AI46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AC46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD46" t="n">
+      <c r="AL46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" t="n">
         <v>50</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AN46" t="n">
         <v>25</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AO46" t="n">
         <v>1140031</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AP46" t="n">
         <v>29048</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AQ46" t="n">
         <v>135</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AR46" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AS46" t="n">
         <v>8</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AT46" t="n">
         <v>13600</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AU46" t="n">
         <v>0.6</v>
       </c>
-      <c r="AM46" t="n">
+      <c r="AV46" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6315,59 +7575,86 @@
       <c r="V47" t="n">
         <v>45</v>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="W47" t="n">
+        <v>45</v>
+      </c>
+      <c r="X47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="X47" t="n">
+      <c r="AG47" t="n">
         <v>1</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AH47" t="n">
         <v>250</v>
       </c>
-      <c r="Z47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA47" t="n">
+      <c r="AI47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>15</v>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="AC47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD47" t="n">
+      <c r="AL47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" t="n">
         <v>50</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AN47" t="n">
         <v>25</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AO47" t="n">
         <v>1143431</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AP47" t="n">
         <v>29048</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AQ47" t="n">
         <v>162</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AR47" t="n">
         <v>48.6</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AS47" t="n">
         <v>10</v>
       </c>
-      <c r="AK47" t="n">
+      <c r="AT47" t="n">
         <v>17000</v>
       </c>
-      <c r="AL47" t="n">
+      <c r="AU47" t="n">
         <v>0.51</v>
       </c>
-      <c r="AM47" t="n">
+      <c r="AV47" t="n">
         <v>162</v>
       </c>
     </row>
@@ -6440,59 +7727,86 @@
       <c r="V48" t="n">
         <v>46</v>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="W48" t="n">
+        <v>46</v>
+      </c>
+      <c r="X48" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="X48" t="n">
+      <c r="AG48" t="n">
         <v>1</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AH48" t="n">
         <v>150</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AI48" t="n">
         <v>4</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AJ48" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="AC48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD48" t="n">
+      <c r="AL48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM48" t="n">
         <v>32.5</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AN48" t="n">
         <v>25</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AO48" t="n">
         <v>690031</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AP48" t="n">
         <v>20048</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AQ48" t="n">
         <v>135</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AR48" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AS48" t="n">
         <v>8</v>
       </c>
-      <c r="AK48" t="n">
+      <c r="AT48" t="n">
         <v>13600</v>
       </c>
-      <c r="AL48" t="n">
+      <c r="AU48" t="n">
         <v>0.39</v>
       </c>
-      <c r="AM48" t="n">
+      <c r="AV48" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6565,59 +7879,86 @@
       <c r="V49" t="n">
         <v>47</v>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="W49" t="n">
+        <v>47</v>
+      </c>
+      <c r="X49" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="X49" t="n">
+      <c r="AG49" t="n">
         <v>1</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AH49" t="n">
         <v>200</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AI49" t="n">
         <v>4</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AJ49" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AK49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="AC49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD49" t="n">
+      <c r="AL49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM49" t="n">
         <v>30</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AN49" t="n">
         <v>25</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AO49" t="n">
         <v>915031</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AP49" t="n">
         <v>24548</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AQ49" t="n">
         <v>135</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AR49" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AS49" t="n">
         <v>8</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AT49" t="n">
         <v>13600</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AU49" t="n">
         <v>0.34</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AV49" t="n">
         <v>135</v>
       </c>
     </row>
@@ -6690,59 +8031,86 @@
       <c r="V50" t="n">
         <v>48</v>
       </c>
-      <c r="W50" t="inlineStr">
+      <c r="W50" t="n">
+        <v>48</v>
+      </c>
+      <c r="X50" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="X50" t="n">
+      <c r="AG50" t="n">
         <v>1</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AH50" t="n">
         <v>60</v>
       </c>
-      <c r="Z50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA50" t="n">
+      <c r="AI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>11</v>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AC50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AL50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM50" t="n">
         <v>37</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AN50" t="n">
         <v>25</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AO50" t="n">
         <v>278231</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AP50" t="n">
         <v>11948</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AQ50" t="n">
         <v>57</v>
       </c>
-      <c r="AI50" t="n">
+      <c r="AR50" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AS50" t="n">
         <v>4</v>
       </c>
-      <c r="AK50" t="n">
+      <c r="AT50" t="n">
         <v>6800</v>
       </c>
-      <c r="AL50" t="n">
+      <c r="AU50" t="n">
         <v>0.31</v>
       </c>
-      <c r="AM50" t="n">
+      <c r="AV50" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6815,59 +8183,86 @@
       <c r="V51" t="n">
         <v>49</v>
       </c>
-      <c r="W51" t="inlineStr">
+      <c r="W51" t="n">
+        <v>49</v>
+      </c>
+      <c r="X51" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AF51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="X51" t="n">
+      <c r="AG51" t="n">
         <v>1</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AH51" t="n">
         <v>100</v>
       </c>
-      <c r="Z51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA51" t="n">
+      <c r="AI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>12</v>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AC51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD51" t="n">
+      <c r="AL51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM51" t="n">
         <v>37</v>
       </c>
-      <c r="AE51" t="n">
+      <c r="AN51" t="n">
         <v>25</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AO51" t="n">
         <v>458231</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AP51" t="n">
         <v>15548</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AQ51" t="n">
         <v>57</v>
       </c>
-      <c r="AI51" t="n">
+      <c r="AR51" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AS51" t="n">
         <v>4</v>
       </c>
-      <c r="AK51" t="n">
+      <c r="AT51" t="n">
         <v>6800</v>
       </c>
-      <c r="AL51" t="n">
+      <c r="AU51" t="n">
         <v>0.32</v>
       </c>
-      <c r="AM51" t="n">
+      <c r="AV51" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6940,57 +8335,84 @@
       <c r="V52" t="n">
         <v>50</v>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="W52" t="n">
+        <v>50</v>
+      </c>
+      <c r="X52" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="X52" t="n">
+      <c r="AG52" t="n">
         <v>1</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AH52" t="n">
         <v>150</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AI52" t="n">
         <v>4</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AJ52" t="n">
         <v>14</v>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AK52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="n">
         <v>30</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AN52" t="n">
         <v>25</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AO52" t="n">
         <v>690031</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AP52" t="n">
         <v>20048</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AQ52" t="n">
         <v>135</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AR52" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AS52" t="n">
         <v>8</v>
       </c>
-      <c r="AK52" t="n">
+      <c r="AT52" t="n">
         <v>13600</v>
       </c>
-      <c r="AL52" t="n">
+      <c r="AU52" t="n">
         <v>0.46</v>
       </c>
-      <c r="AM52" t="n">
+      <c r="AV52" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7063,59 +8485,86 @@
       <c r="V53" t="n">
         <v>51</v>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="W53" t="n">
+        <v>51</v>
+      </c>
+      <c r="X53" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="X53" t="n">
+      <c r="AG53" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AH53" t="n">
         <v>225</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AI53" t="n">
         <v>4</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AJ53" t="n">
         <v>14</v>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AK53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="AC53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD53" t="n">
+      <c r="AL53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM53" t="n">
         <v>40</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AN53" t="n">
         <v>25</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AO53" t="n">
         <v>1030931</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AP53" t="n">
         <v>26798</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AQ53" t="n">
         <v>164</v>
       </c>
-      <c r="AI53" t="n">
+      <c r="AR53" t="n">
         <v>49.2</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AS53" t="n">
         <v>10</v>
       </c>
-      <c r="AK53" t="n">
+      <c r="AT53" t="n">
         <v>17000</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AU53" t="n">
         <v>0.65</v>
       </c>
-      <c r="AM53" t="n">
+      <c r="AV53" t="n">
         <v>164</v>
       </c>
     </row>
@@ -7188,59 +8637,86 @@
       <c r="V54" t="n">
         <v>52</v>
       </c>
-      <c r="W54" t="inlineStr">
+      <c r="W54" t="n">
+        <v>52</v>
+      </c>
+      <c r="X54" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="X54" t="n">
+      <c r="AG54" t="n">
         <v>1</v>
       </c>
-      <c r="Y54" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z54" t="n">
+      <c r="AH54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI54" t="n">
         <v>4</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AJ54" t="n">
         <v>13</v>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AK54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="AC54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD54" t="n">
+      <c r="AL54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM54" t="n">
         <v>10.9</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AN54" t="n">
         <v>17</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AO54" t="n">
         <v>31931</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AP54" t="n">
         <v>6818</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AQ54" t="n">
         <v>162</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AR54" t="n">
         <v>48.6</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AS54" t="n">
         <v>10</v>
       </c>
-      <c r="AK54" t="n">
+      <c r="AT54" t="n">
         <v>17000</v>
       </c>
-      <c r="AL54" t="n">
+      <c r="AU54" t="n">
         <v>3.34</v>
       </c>
-      <c r="AM54" t="n">
+      <c r="AV54" t="n">
         <v>162</v>
       </c>
     </row>
@@ -7313,59 +8789,86 @@
       <c r="V55" t="n">
         <v>53</v>
       </c>
-      <c r="W55" t="inlineStr">
+      <c r="W55" t="n">
+        <v>53</v>
+      </c>
+      <c r="X55" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AF55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="X55" t="n">
+      <c r="AG55" t="n">
         <v>1</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AH55" t="n">
         <v>250</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AI55" t="n">
         <v>4</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AJ55" t="n">
         <v>14</v>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AK55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="AC55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD55" t="n">
+      <c r="AL55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM55" t="n">
         <v>48.4</v>
       </c>
-      <c r="AE55" t="n">
+      <c r="AN55" t="n">
         <v>25</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AO55" t="n">
         <v>1140031</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AP55" t="n">
         <v>29048</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AQ55" t="n">
         <v>135</v>
       </c>
-      <c r="AI55" t="n">
+      <c r="AR55" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ55" t="n">
+      <c r="AS55" t="n">
         <v>8</v>
       </c>
-      <c r="AK55" t="n">
+      <c r="AT55" t="n">
         <v>13600</v>
       </c>
-      <c r="AL55" t="n">
+      <c r="AU55" t="n">
         <v>0.41</v>
       </c>
-      <c r="AM55" t="n">
+      <c r="AV55" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7438,59 +8941,86 @@
       <c r="V56" t="n">
         <v>54</v>
       </c>
-      <c r="W56" t="inlineStr">
+      <c r="W56" t="n">
+        <v>54</v>
+      </c>
+      <c r="X56" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AF56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="X56" t="n">
+      <c r="AG56" t="n">
         <v>1</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AH56" t="n">
         <v>45</v>
       </c>
-      <c r="Z56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA56" t="n">
+      <c r="AI56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AK56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="AC56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD56" t="n">
+      <c r="AL56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM56" t="n">
         <v>24</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AN56" t="n">
         <v>20</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AO56" t="n">
         <v>210731</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AP56" t="n">
         <v>10598</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AQ56" t="n">
         <v>57</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AR56" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AS56" t="n">
         <v>4</v>
       </c>
-      <c r="AK56" t="n">
+      <c r="AT56" t="n">
         <v>6800</v>
       </c>
-      <c r="AL56" t="n">
+      <c r="AU56" t="n">
         <v>0.48</v>
       </c>
-      <c r="AM56" t="n">
+      <c r="AV56" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7563,59 +9093,86 @@
       <c r="V57" t="n">
         <v>55</v>
       </c>
-      <c r="W57" t="inlineStr">
+      <c r="W57" t="n">
+        <v>55</v>
+      </c>
+      <c r="X57" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="X57" t="n">
+      <c r="AG57" t="n">
         <v>1</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AH57" t="n">
         <v>80</v>
       </c>
-      <c r="Z57" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA57" t="n">
+      <c r="AI57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>11.5</v>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AK57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AC57" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD57" t="n">
+      <c r="AL57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM57" t="n">
         <v>40</v>
       </c>
-      <c r="AE57" t="n">
+      <c r="AN57" t="n">
         <v>25</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AO57" t="n">
         <v>368231</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AP57" t="n">
         <v>13748</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AQ57" t="n">
         <v>57</v>
       </c>
-      <c r="AI57" t="n">
+      <c r="AR57" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AS57" t="n">
         <v>4</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AT57" t="n">
         <v>6800</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AU57" t="n">
         <v>0.38</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="AV57" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7688,59 +9245,86 @@
       <c r="V58" t="n">
         <v>56</v>
       </c>
-      <c r="W58" t="inlineStr">
+      <c r="W58" t="n">
+        <v>56</v>
+      </c>
+      <c r="X58" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="X58" t="n">
+      <c r="AG58" t="n">
         <v>1</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AH58" t="n">
         <v>80</v>
       </c>
-      <c r="Z58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="AI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>14</v>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AK58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AC58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD58" t="n">
+      <c r="AL58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM58" t="n">
         <v>40.8</v>
       </c>
-      <c r="AE58" t="n">
+      <c r="AN58" t="n">
         <v>28</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AO58" t="n">
         <v>368231</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AP58" t="n">
         <v>13748</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AQ58" t="n">
         <v>57</v>
       </c>
-      <c r="AI58" t="n">
+      <c r="AR58" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AS58" t="n">
         <v>4</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AT58" t="n">
         <v>6800</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AU58" t="n">
         <v>0.38</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AV58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7813,59 +9397,86 @@
       <c r="V59" t="n">
         <v>57</v>
       </c>
-      <c r="W59" t="inlineStr">
+      <c r="W59" t="n">
+        <v>57</v>
+      </c>
+      <c r="X59" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AF59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="X59" t="n">
+      <c r="AG59" t="n">
         <v>1</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AH59" t="n">
         <v>100</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AI59" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AJ59" t="n">
         <v>11</v>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="AC59" t="n">
+      <c r="AL59" t="n">
         <v>2</v>
       </c>
-      <c r="AD59" t="n">
+      <c r="AM59" t="n">
         <v>50</v>
       </c>
-      <c r="AE59" t="n">
+      <c r="AN59" t="n">
         <v>20</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AO59" t="n">
         <v>456531</v>
       </c>
-      <c r="AG59" t="n">
+      <c r="AP59" t="n">
         <v>15548</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AQ59" t="n">
         <v>42</v>
       </c>
-      <c r="AI59" t="n">
+      <c r="AR59" t="n">
         <v>12.6</v>
       </c>
-      <c r="AJ59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK59" t="n">
+      <c r="AS59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT59" t="n">
         <v>5100</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AU59" t="n">
         <v>0.29</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AV59" t="n">
         <v>42</v>
       </c>
     </row>
@@ -7938,59 +9549,86 @@
       <c r="V60" t="n">
         <v>58</v>
       </c>
-      <c r="W60" t="inlineStr">
+      <c r="W60" t="n">
+        <v>58</v>
+      </c>
+      <c r="X60" t="n">
+        <v>58</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="X60" t="n">
+      <c r="AG60" t="n">
         <v>1</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AH60" t="n">
         <v>10</v>
       </c>
-      <c r="Z60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA60" t="n">
+      <c r="AI60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>11</v>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AK60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="AC60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD60" t="n">
+      <c r="AL60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM60" t="n">
         <v>22</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="AN60" t="n">
         <v>25</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AO60" t="n">
         <v>60031</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AP60" t="n">
         <v>7448</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AQ60" t="n">
         <v>135</v>
       </c>
-      <c r="AI60" t="n">
+      <c r="AR60" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AS60" t="n">
         <v>8</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AT60" t="n">
         <v>13600</v>
       </c>
-      <c r="AL60" t="n">
+      <c r="AU60" t="n">
         <v>0.95</v>
       </c>
-      <c r="AM60" t="n">
+      <c r="AV60" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8063,59 +9701,86 @@
       <c r="V61" t="n">
         <v>59</v>
       </c>
-      <c r="W61" t="inlineStr">
+      <c r="W61" t="n">
+        <v>59</v>
+      </c>
+      <c r="X61" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AF61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="X61" t="n">
+      <c r="AG61" t="n">
         <v>1</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AH61" t="n">
         <v>3.2</v>
       </c>
-      <c r="Z61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA61" t="n">
+      <c r="AI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>18</v>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AK61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="AC61" t="n">
+      <c r="AL61" t="n">
         <v>5</v>
       </c>
-      <c r="AD61" t="n">
+      <c r="AM61" t="n">
         <v>4</v>
       </c>
-      <c r="AE61" t="n">
+      <c r="AN61" t="n">
         <v>25</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AO61" t="n">
         <v>34531</v>
       </c>
-      <c r="AG61" t="n">
+      <c r="AP61" t="n">
         <v>6836</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AQ61" t="n">
         <v>173</v>
       </c>
-      <c r="AI61" t="n">
+      <c r="AR61" t="n">
         <v>51.9</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AS61" t="n">
         <v>11</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AT61" t="n">
         <v>18700</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AU61" t="n">
         <v>6.84</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AV61" t="n">
         <v>173</v>
       </c>
     </row>
@@ -8188,59 +9853,86 @@
       <c r="V62" t="n">
         <v>60</v>
       </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
-        </is>
+      <c r="W62" t="n">
+        <v>60</v>
       </c>
       <c r="X62" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="Y62" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="Z62" t="n">
-        <v>3.5</v>
+        <v>60</v>
       </c>
       <c r="AA62" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>30.0 m</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>60</v>
       </c>
       <c r="AC62" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AD62" t="n">
         <v>60</v>
       </c>
       <c r="AE62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
+        </is>
+      </c>
+      <c r="AG62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>30.0 m</t>
+        </is>
+      </c>
+      <c r="AL62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN62" t="n">
         <v>25</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AO62" t="n">
         <v>911631</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AP62" t="n">
         <v>24548</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AQ62" t="n">
         <v>92</v>
       </c>
-      <c r="AI62" t="n">
+      <c r="AR62" t="n">
         <v>27.6</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AS62" t="n">
         <v>6</v>
       </c>
-      <c r="AK62" t="n">
+      <c r="AT62" t="n">
         <v>10200</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AU62" t="n">
         <v>0.34</v>
       </c>
-      <c r="AM62" t="n">
+      <c r="AV62" t="n">
         <v>92</v>
       </c>
     </row>
@@ -8313,57 +10005,84 @@
       <c r="V63" t="n">
         <v>61</v>
       </c>
-      <c r="W63" t="inlineStr">
+      <c r="W63" t="n">
+        <v>61</v>
+      </c>
+      <c r="X63" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="X63" t="n">
+      <c r="AG63" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AH63" t="n">
         <v>200</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AI63" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr">
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="AC63" t="n">
+      <c r="AL63" t="n">
         <v>2</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AM63" t="n">
         <v>60</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AN63" t="n">
         <v>25</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AO63" t="n">
         <v>911631</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AP63" t="n">
         <v>24548</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AQ63" t="n">
         <v>92</v>
       </c>
-      <c r="AI63" t="n">
+      <c r="AR63" t="n">
         <v>27.6</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AS63" t="n">
         <v>6</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AT63" t="n">
         <v>10200</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AU63" t="n">
         <v>0.31</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AV63" t="n">
         <v>92</v>
       </c>
     </row>
@@ -8436,59 +10155,86 @@
       <c r="V64" t="n">
         <v>62</v>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="W64" t="n">
+        <v>62</v>
+      </c>
+      <c r="X64" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="X64" t="n">
+      <c r="AG64" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AH64" t="n">
         <v>225</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AI64" t="n">
         <v>3.5</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AJ64" t="n">
         <v>14</v>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="AC64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD64" t="n">
+      <c r="AL64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM64" t="n">
         <v>51</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AN64" t="n">
         <v>25</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AO64" t="n">
         <v>1024131</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AP64" t="n">
         <v>26798</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AQ64" t="n">
         <v>92</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AR64" t="n">
         <v>27.6</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AS64" t="n">
         <v>6</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AT64" t="n">
         <v>10200</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AU64" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AV64" t="n">
         <v>92</v>
       </c>
     </row>
@@ -8561,59 +10307,86 @@
       <c r="V65" t="n">
         <v>63</v>
       </c>
-      <c r="W65" t="inlineStr">
+      <c r="W65" t="n">
+        <v>63</v>
+      </c>
+      <c r="X65" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AF65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="X65" t="n">
+      <c r="AG65" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AH65" t="n">
         <v>200</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AI65" t="n">
         <v>4</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AJ65" t="n">
         <v>14</v>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="AC65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD65" t="n">
+      <c r="AL65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM65" t="n">
         <v>50</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AN65" t="n">
         <v>25</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AO65" t="n">
         <v>915031</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AP65" t="n">
         <v>24548</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AQ65" t="n">
         <v>135</v>
       </c>
-      <c r="AI65" t="n">
+      <c r="AR65" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AS65" t="n">
         <v>8</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AT65" t="n">
         <v>13600</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AU65" t="n">
         <v>0.42</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="AV65" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8686,59 +10459,86 @@
       <c r="V66" t="n">
         <v>64</v>
       </c>
-      <c r="W66" t="inlineStr">
+      <c r="W66" t="n">
+        <v>64</v>
+      </c>
+      <c r="X66" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AF66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="X66" t="n">
+      <c r="AG66" t="n">
         <v>1</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AH66" t="n">
         <v>200</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AI66" t="n">
         <v>4</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AJ66" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="AC66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD66" t="n">
+      <c r="AL66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM66" t="n">
         <v>50</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AN66" t="n">
         <v>25</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AO66" t="n">
         <v>915031</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AP66" t="n">
         <v>24548</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AQ66" t="n">
         <v>135</v>
       </c>
-      <c r="AI66" t="n">
+      <c r="AR66" t="n">
         <v>40.5</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AS66" t="n">
         <v>8</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AT66" t="n">
         <v>13600</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AU66" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AV66" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8811,59 +10611,86 @@
       <c r="V67" t="n">
         <v>65</v>
       </c>
-      <c r="W67" t="inlineStr">
+      <c r="W67" t="n">
+        <v>65</v>
+      </c>
+      <c r="X67" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="X67" t="n">
+      <c r="AG67" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AH67" t="n">
         <v>150</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AI67" t="n">
         <v>2</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AJ67" t="n">
         <v>11</v>
       </c>
-      <c r="AB67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AC67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD67" t="n">
+      <c r="AL67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM67" t="n">
         <v>41</v>
       </c>
-      <c r="AE67" t="n">
+      <c r="AN67" t="n">
         <v>25</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AO67" t="n">
         <v>683231</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AP67" t="n">
         <v>20048</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AQ67" t="n">
         <v>59</v>
       </c>
-      <c r="AI67" t="n">
+      <c r="AR67" t="n">
         <v>17.7</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AS67" t="n">
         <v>4</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AT67" t="n">
         <v>6800</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AU67" t="n">
         <v>0.32</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AV67" t="n">
         <v>59</v>
       </c>
     </row>
@@ -8936,59 +10763,86 @@
       <c r="V68" t="n">
         <v>66</v>
       </c>
-      <c r="W68" t="inlineStr">
+      <c r="W68" t="n">
+        <v>66</v>
+      </c>
+      <c r="X68" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="X68" t="n">
+      <c r="AG68" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AH68" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA68" t="n">
+      <c r="AI68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>12</v>
       </c>
-      <c r="AB68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="AC68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD68" t="n">
+      <c r="AL68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM68" t="n">
         <v>18</v>
       </c>
-      <c r="AE68" t="n">
+      <c r="AN68" t="n">
         <v>20</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AO68" t="n">
         <v>41981</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AP68" t="n">
         <v>7223</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AQ68" t="n">
         <v>57</v>
       </c>
-      <c r="AI68" t="n">
+      <c r="AR68" t="n">
         <v>17.1</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AS68" t="n">
         <v>4</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AT68" t="n">
         <v>6800</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AU68" t="n">
         <v>0.87</v>
       </c>
-      <c r="AM68" t="n">
+      <c r="AV68" t="n">
         <v>57</v>
       </c>
     </row>

--- a/data/technical_information.xlsx
+++ b/data/technical_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV68"/>
+  <dimension ref="A1:AY68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,230 +441,245 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.31</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.30</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.29</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.28</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.27</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.26</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.25</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.24</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.23</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.22</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.21</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.20</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Links</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Rated power:</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Cutin wind speed:</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Rated wind speed:</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Diameter:</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Number of blades:</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Hub height:</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Cutout wind speed:</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Gesamtinvestitionskosten</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Betriebskosten</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>max Flauten time</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Battery Capacity</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>number of batteries</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>battery cost</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>LCOE</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Flautenzeit</t>
         </is>
@@ -766,59 +781,68 @@
       <c r="AE2" t="n">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/817-acsa-a27-225</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>1</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>225</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AM2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="n">
         <v>30</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>25</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>1024131</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AS2" t="n">
         <v>26798</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AT2" t="n">
         <v>91</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AU2" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AV2" t="n">
         <v>6</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AW2" t="n">
         <v>10200</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AX2" t="n">
         <v>0.38</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AY2" t="n">
         <v>91</v>
       </c>
     </row>
@@ -918,59 +942,68 @@
       <c r="AE3" t="n">
         <v>1</v>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
-        </is>
+      <c r="AF3" t="n">
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>https://en.wind-turbine-models.com/turbines/2376-acsa-a29-225</t>
+        </is>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
         <v>225</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
         <v>4</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AM3" t="n">
         <v>13</v>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="AL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP3" t="n">
         <v>50</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>25</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>1027531</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AS3" t="n">
         <v>26798</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AT3" t="n">
         <v>135</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AU3" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AV3" t="n">
         <v>8</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AW3" t="n">
         <v>13600</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AX3" t="n">
         <v>0.35</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AY3" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1070,59 +1103,68 @@
       <c r="AE4" t="n">
         <v>2</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1870-awp-a-s-awp-90-18</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>1</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>90</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AL4" t="n">
         <v>4</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AM4" t="n">
         <v>13</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>18.6 m</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="n">
         <v>30</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AQ4" t="n">
         <v>25</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AR4" t="n">
         <v>420031</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AS4" t="n">
         <v>14648</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AT4" t="n">
         <v>135</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AU4" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AV4" t="n">
         <v>8</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AW4" t="n">
         <v>13600</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AX4" t="n">
         <v>0.49</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AY4" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1222,59 +1264,68 @@
       <c r="AE5" t="n">
         <v>3</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1872-awp-a-s-awp-200-23</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>1</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AK5" t="n">
         <v>200</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
         <v>4</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AM5" t="n">
         <v>13</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AL5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="n">
         <v>30</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AQ5" t="n">
         <v>25</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AR5" t="n">
         <v>915031</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AS5" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AT5" t="n">
         <v>135</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AU5" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AV5" t="n">
         <v>8</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AW5" t="n">
         <v>13600</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AX5" t="n">
         <v>0.52</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AY5" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1374,59 +1425,68 @@
       <c r="AE6" t="n">
         <v>4</v>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1829-aeolia-windtech-d2cf-200</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>1</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>200</v>
       </c>
-      <c r="AI6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="n">
         <v>10.9</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="AL6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP6" t="n">
         <v>40.3</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AQ6" t="n">
         <v>20</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AR6" t="n">
         <v>908231</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AT6" t="n">
         <v>57</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AU6" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AV6" t="n">
         <v>4</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AW6" t="n">
         <v>6800</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AX6" t="n">
         <v>0.29</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AY6" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1526,59 +1586,68 @@
       <c r="AE7" t="n">
         <v>5</v>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1378-aerodan-75-15</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>1</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>75</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AL7" t="n">
         <v>5</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
         <v>12</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AQ7" t="n">
         <v>23</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AR7" t="n">
         <v>357631</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>13298</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AT7" t="n">
         <v>173</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AU7" t="n">
         <v>51.9</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AV7" t="n">
         <v>11</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AW7" t="n">
         <v>18700</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AX7" t="n">
         <v>0.53</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AY7" t="n">
         <v>173</v>
       </c>
     </row>
@@ -1678,59 +1747,68 @@
       <c r="AE8" t="n">
         <v>6</v>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/124-an-bonus-150-30</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>1</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>150</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AL8" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AL8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="n">
         <v>40</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>25</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>686631</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AT8" t="n">
         <v>91</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AU8" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AV8" t="n">
         <v>6</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AW8" t="n">
         <v>10200</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AX8" t="n">
         <v>0.38</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AY8" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1830,59 +1908,68 @@
       <c r="AE9" t="n">
         <v>7</v>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1689-hummer-h8.16-10kw</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>1</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>10</v>
       </c>
-      <c r="AI9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="n">
         <v>11</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>8.2 m</t>
         </is>
       </c>
-      <c r="AL9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP9" t="n">
         <v>18</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AQ9" t="n">
         <v>25</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AR9" t="n">
         <v>60031</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AS9" t="n">
         <v>7448</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AT9" t="n">
         <v>135</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AU9" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AV9" t="n">
         <v>8</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AW9" t="n">
         <v>13600</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AX9" t="n">
         <v>0.87</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AY9" t="n">
         <v>135</v>
       </c>
     </row>
@@ -1982,59 +2069,68 @@
       <c r="AE10" t="n">
         <v>8</v>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1688-hummer-h13.2-20kw</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>1</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>20</v>
       </c>
-      <c r="AI10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="n">
         <v>9</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="AL10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
         <v>20</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>25</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>98231</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AS10" t="n">
         <v>8348</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AT10" t="n">
         <v>57</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AU10" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AV10" t="n">
         <v>4</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AW10" t="n">
         <v>6800</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AX10" t="n">
         <v>0.35</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AY10" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2134,59 +2230,68 @@
       <c r="AE11" t="n">
         <v>9</v>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1687-hummer-h13.2-30kw</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>1</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AK11" t="n">
         <v>30</v>
       </c>
-      <c r="AI11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="n">
         <v>10</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>13.2 m</t>
         </is>
       </c>
-      <c r="AL11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP11" t="n">
         <v>30</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>25</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>143231</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AS11" t="n">
         <v>9248</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AT11" t="n">
         <v>57</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AU11" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AV11" t="n">
         <v>4</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AW11" t="n">
         <v>6800</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AX11" t="n">
         <v>0.34</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AY11" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2286,59 +2391,68 @@
       <c r="AE12" t="n">
         <v>10</v>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1686-hummer-h17.0-50kw</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>1</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AK12" t="n">
         <v>50</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AL12" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AM12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AL12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP12" t="n">
         <v>40</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>20</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>236631</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AS12" t="n">
         <v>11048</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AT12" t="n">
         <v>91</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AU12" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AV12" t="n">
         <v>6</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AW12" t="n">
         <v>10200</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AX12" t="n">
         <v>0.28</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AY12" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2438,59 +2552,68 @@
       <c r="AE13" t="n">
         <v>11</v>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1685-hummer-h21.0-60kw</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>1</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
         <v>60</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AL13" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AM13" t="n">
         <v>9</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AL13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP13" t="n">
         <v>50</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>25</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>276531</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AS13" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AT13" t="n">
         <v>42</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AU13" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT13" t="n">
+      <c r="AV13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW13" t="n">
         <v>5100</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AX13" t="n">
         <v>0.23</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AY13" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2590,59 +2713,68 @@
       <c r="AE14" t="n">
         <v>12</v>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1684-hummer-h21.0-100kw</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>1</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AK14" t="n">
         <v>100</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AL14" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AM14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AL14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="n">
         <v>60</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>20</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>456531</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AS14" t="n">
         <v>15548</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AT14" t="n">
         <v>42</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AU14" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT14" t="n">
+      <c r="AV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW14" t="n">
         <v>5100</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AX14" t="n">
         <v>0.25</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AY14" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2742,59 +2874,68 @@
       <c r="AE15" t="n">
         <v>13</v>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1683-hummer-h25.0-60kw</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
         <v>1</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AK15" t="n">
         <v>60</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AM15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AL15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="n">
         <v>50</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>20</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>276531</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AS15" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AT15" t="n">
         <v>42</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AU15" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT15" t="n">
+      <c r="AV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="n">
         <v>5100</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AX15" t="n">
         <v>0.19</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AY15" t="n">
         <v>42</v>
       </c>
     </row>
@@ -2894,59 +3035,68 @@
       <c r="AE16" t="n">
         <v>14</v>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1682-hummer-h25.0-100kw</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>1</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>100</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AL16" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AM16" t="n">
         <v>10</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AL16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM16" t="n">
+      <c r="AO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP16" t="n">
         <v>30</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>20</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>456531</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AS16" t="n">
         <v>15548</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AT16" t="n">
         <v>42</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AU16" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT16" t="n">
+      <c r="AV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="n">
         <v>5100</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AX16" t="n">
         <v>0.23</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AY16" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3046,59 +3196,68 @@
       <c r="AE17" t="n">
         <v>15</v>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1681-hummer-h25.0-200kw</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>1</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AK17" t="n">
         <v>200</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AL17" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AM17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>25.0 m</t>
         </is>
       </c>
-      <c r="AL17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP17" t="n">
         <v>30</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>20</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>906531</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AS17" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AT17" t="n">
         <v>42</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AU17" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT17" t="n">
+      <c r="AV17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW17" t="n">
         <v>5100</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AX17" t="n">
         <v>0.28</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AY17" t="n">
         <v>42</v>
       </c>
     </row>
@@ -3198,59 +3357,68 @@
       <c r="AE18" t="n">
         <v>16</v>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1635-aria-libellula-20</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>1</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AK18" t="n">
         <v>20</v>
       </c>
-      <c r="AI18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM18" t="n">
         <v>10</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>17.4 m</t>
         </is>
       </c>
-      <c r="AL18" t="n">
+      <c r="AO18" t="n">
         <v>2</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>20</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>25</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>98231</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AS18" t="n">
         <v>8348</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AT18" t="n">
         <v>57</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AU18" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AV18" t="n">
         <v>4</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AW18" t="n">
         <v>6800</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AX18" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AY18" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3350,59 +3518,68 @@
       <c r="AE19" t="n">
         <v>17</v>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1634-aria-libellula-55</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>1</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AK19" t="n">
         <v>57</v>
       </c>
-      <c r="AI19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM19" t="n">
         <v>11</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="AL19" t="n">
+      <c r="AO19" t="n">
         <v>2</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>31</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>25</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>268131</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AS19" t="n">
         <v>11678</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AT19" t="n">
         <v>91</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AU19" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AV19" t="n">
         <v>6</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AW19" t="n">
         <v>10200</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AX19" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AY19" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3502,59 +3679,68 @@
       <c r="AE20" t="n">
         <v>18</v>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1633-aria-libellula-60i</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>1</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>60</v>
       </c>
-      <c r="AI20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AL20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM20" t="n">
         <v>11</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>19.0 m</t>
         </is>
       </c>
-      <c r="AL20" t="n">
+      <c r="AO20" t="n">
         <v>2</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>31</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>25</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>278231</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AT20" t="n">
         <v>59</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AU20" t="n">
         <v>17.7</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AV20" t="n">
         <v>4</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AW20" t="n">
         <v>6800</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AX20" t="n">
         <v>0.34</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AY20" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3654,59 +3840,68 @@
       <c r="AE21" t="n">
         <v>19</v>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1534-atb-riva-calzoni-atb-60.28-dd</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>1</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>60</v>
       </c>
-      <c r="AI21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AL21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="n">
         <v>7.5</v>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="AL21" t="n">
+      <c r="AO21" t="n">
         <v>2</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>37</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>19</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>278231</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AS21" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AT21" t="n">
         <v>57</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AU21" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AV21" t="n">
         <v>4</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AW21" t="n">
         <v>6800</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AX21" t="n">
         <v>0.24</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AY21" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3806,59 +4001,68 @@
       <c r="AE22" t="n">
         <v>20</v>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1529-aventa-av-7</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>1</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AK22" t="n">
         <v>6.2</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AM22" t="n">
         <v>6</v>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>12.8 m</t>
         </is>
       </c>
-      <c r="AL22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AO22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP22" t="n">
         <v>18</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>14</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>32731</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AS22" t="n">
         <v>7106</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AT22" t="n">
         <v>22</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AU22" t="n">
         <v>6.6</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AV22" t="n">
         <v>2</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AW22" t="n">
         <v>3400</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AX22" t="n">
         <v>0.48</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AY22" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3958,59 +4162,68 @@
       <c r="AE23" t="n">
         <v>21</v>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2061-b.ventus-250-kw</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
         <v>1</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AK23" t="n">
         <v>250</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AL23" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AM23" t="n">
         <v>9</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>42.5 m</t>
         </is>
       </c>
-      <c r="AL23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM23" t="n">
+      <c r="AO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="n">
         <v>28</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>32</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>1131531</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AS23" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AT23" t="n">
         <v>42</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AU23" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT23" t="n">
+      <c r="AV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="n">
         <v>5100</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AX23" t="n">
         <v>0.25</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AY23" t="n">
         <v>42</v>
       </c>
     </row>
@@ -4110,59 +4323,68 @@
       <c r="AE24" t="n">
         <v>22</v>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/501-bergey-bwc-excel-10</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>1</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
         <v>10</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AL24" t="n">
         <v>3.4</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AM24" t="n">
         <v>15.6</v>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>7.0 m</t>
         </is>
       </c>
-      <c r="AL24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="n">
         <v>30</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>60</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>56631</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AS24" t="n">
         <v>7448</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AT24" t="n">
         <v>95</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AU24" t="n">
         <v>28.5</v>
       </c>
-      <c r="AS24" t="n">
+      <c r="AV24" t="n">
         <v>6</v>
       </c>
-      <c r="AT24" t="n">
+      <c r="AW24" t="n">
         <v>10200</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AX24" t="n">
         <v>1.18</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AY24" t="n">
         <v>95</v>
       </c>
     </row>
@@ -4262,59 +4484,68 @@
       <c r="AE25" t="n">
         <v>23</v>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/189-bonus-b23-150-gittermast</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>1</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AK25" t="n">
         <v>150</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AL25" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AM25" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>23.0 m</t>
         </is>
       </c>
-      <c r="AL25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM25" t="n">
+      <c r="AO25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="n">
         <v>40</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>25</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>686631</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AS25" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AT25" t="n">
         <v>91</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AU25" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AV25" t="n">
         <v>6</v>
       </c>
-      <c r="AT25" t="n">
+      <c r="AW25" t="n">
         <v>10200</v>
       </c>
-      <c r="AU25" t="n">
+      <c r="AX25" t="n">
         <v>0.42</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AY25" t="n">
         <v>91</v>
       </c>
     </row>
@@ -4414,57 +4645,66 @@
       <c r="AE26" t="n">
         <v>24</v>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1352-cannon-26-250</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AJ26" t="n">
         <v>1</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>250</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AL26" t="n">
         <v>4.8</v>
       </c>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr">
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="AL26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM26" t="n">
+      <c r="AO26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP26" t="n">
         <v>42.7</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AQ26" t="n">
         <v>28.9</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AR26" t="n">
         <v>1145131</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AS26" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AT26" t="n">
         <v>173</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AU26" t="n">
         <v>51.9</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AV26" t="n">
         <v>11</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AW26" t="n">
         <v>18700</v>
       </c>
-      <c r="AU26" t="n">
+      <c r="AX26" t="n">
         <v>0.6</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AY26" t="n">
         <v>173</v>
       </c>
     </row>
@@ -4564,59 +4804,68 @@
       <c r="AE27" t="n">
         <v>25</v>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1387-dwp-d75-15</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AJ27" t="n">
         <v>1</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
         <v>75</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AL27" t="n">
         <v>4</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AM27" t="n">
         <v>18</v>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>15.3 m</t>
         </is>
       </c>
-      <c r="AL27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM27" t="n">
+      <c r="AO27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="n">
         <v>24</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AQ27" t="n">
         <v>30</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AR27" t="n">
         <v>357631</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AS27" t="n">
         <v>13298</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AT27" t="n">
         <v>173</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AU27" t="n">
         <v>51.9</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AV27" t="n">
         <v>11</v>
       </c>
-      <c r="AT27" t="n">
+      <c r="AW27" t="n">
         <v>18700</v>
       </c>
-      <c r="AU27" t="n">
+      <c r="AX27" t="n">
         <v>0.67</v>
       </c>
-      <c r="AV27" t="n">
+      <c r="AY27" t="n">
         <v>173</v>
       </c>
     </row>
@@ -4716,59 +4965,68 @@
       <c r="AE28" t="n">
         <v>26</v>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1388-dwp-d110-19</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>1</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>110</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AL28" t="n">
         <v>4</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AM28" t="n">
         <v>18</v>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>19.2 m</t>
         </is>
       </c>
-      <c r="AL28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM28" t="n">
+      <c r="AO28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP28" t="n">
         <v>24</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AQ28" t="n">
         <v>30</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AR28" t="n">
         <v>510031</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AS28" t="n">
         <v>16448</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AT28" t="n">
         <v>135</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AU28" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AV28" t="n">
         <v>8</v>
       </c>
-      <c r="AT28" t="n">
+      <c r="AW28" t="n">
         <v>13600</v>
       </c>
-      <c r="AU28" t="n">
+      <c r="AX28" t="n">
         <v>0.43</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AY28" t="n">
         <v>135</v>
       </c>
     </row>
@@ -4868,59 +5126,68 @@
       <c r="AE29" t="n">
         <v>27</v>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI29" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1390-dwt-danish-wind-tech-windane-10</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AJ29" t="n">
         <v>1</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
         <v>18.5</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AL29" t="n">
         <v>4.5</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AM29" t="n">
         <v>14</v>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>9.6 m</t>
         </is>
       </c>
-      <c r="AL29" t="n">
+      <c r="AO29" t="n">
         <v>2</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AP29" t="n">
         <v>18.6</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AQ29" t="n">
         <v>30</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AR29" t="n">
         <v>101681</v>
       </c>
-      <c r="AP29" t="n">
+      <c r="AS29" t="n">
         <v>8213</v>
       </c>
-      <c r="AQ29" t="n">
+      <c r="AT29" t="n">
         <v>162</v>
       </c>
-      <c r="AR29" t="n">
+      <c r="AU29" t="n">
         <v>48.6</v>
       </c>
-      <c r="AS29" t="n">
+      <c r="AV29" t="n">
         <v>10</v>
       </c>
-      <c r="AT29" t="n">
+      <c r="AW29" t="n">
         <v>17000</v>
       </c>
-      <c r="AU29" t="n">
+      <c r="AX29" t="n">
         <v>0.84</v>
       </c>
-      <c r="AV29" t="n">
+      <c r="AY29" t="n">
         <v>162</v>
       </c>
     </row>
@@ -5020,59 +5287,68 @@
       <c r="AE30" t="n">
         <v>28</v>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI30" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2364-danregn-bonus-22</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AJ30" t="n">
         <v>1</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AK30" t="n">
         <v>22</v>
       </c>
-      <c r="AI30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM30" t="n">
         <v>13</v>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>10.0 m</t>
         </is>
       </c>
-      <c r="AL30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM30" t="n">
+      <c r="AO30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP30" t="n">
         <v>24</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AQ30" t="n">
         <v>28</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AR30" t="n">
         <v>114031</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AS30" t="n">
         <v>8528</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AT30" t="n">
         <v>135</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AU30" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AV30" t="n">
         <v>8</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AW30" t="n">
         <v>13600</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AX30" t="n">
         <v>0.77</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AY30" t="n">
         <v>135</v>
       </c>
     </row>
@@ -5172,59 +5448,68 @@
       <c r="AE31" t="n">
         <v>29</v>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI31" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/185-danregn-bonus-30</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
         <v>1</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AK31" t="n">
         <v>30</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AL31" t="n">
         <v>4</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AM31" t="n">
         <v>18</v>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>11.0 m</t>
         </is>
       </c>
-      <c r="AL31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM31" t="n">
+      <c r="AO31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP31" t="n">
         <v>24</v>
       </c>
-      <c r="AN31" t="n">
+      <c r="AQ31" t="n">
         <v>25</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="AR31" t="n">
         <v>150031</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AS31" t="n">
         <v>9248</v>
       </c>
-      <c r="AQ31" t="n">
+      <c r="AT31" t="n">
         <v>135</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AU31" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS31" t="n">
+      <c r="AV31" t="n">
         <v>8</v>
       </c>
-      <c r="AT31" t="n">
+      <c r="AW31" t="n">
         <v>13600</v>
       </c>
-      <c r="AU31" t="n">
+      <c r="AX31" t="n">
         <v>0.7</v>
       </c>
-      <c r="AV31" t="n">
+      <c r="AY31" t="n">
         <v>135</v>
       </c>
     </row>
@@ -5324,59 +5609,68 @@
       <c r="AE32" t="n">
         <v>30</v>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AF32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/184-danregn-bonus-55</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
         <v>1</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
         <v>55</v>
       </c>
-      <c r="AI32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AL32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM32" t="n">
         <v>13</v>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="AL32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM32" t="n">
+      <c r="AO32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP32" t="n">
         <v>24</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AQ32" t="n">
         <v>28</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AR32" t="n">
         <v>255731</v>
       </c>
-      <c r="AP32" t="n">
+      <c r="AS32" t="n">
         <v>11498</v>
       </c>
-      <c r="AQ32" t="n">
+      <c r="AT32" t="n">
         <v>59</v>
       </c>
-      <c r="AR32" t="n">
+      <c r="AU32" t="n">
         <v>17.7</v>
       </c>
-      <c r="AS32" t="n">
+      <c r="AV32" t="n">
         <v>4</v>
       </c>
-      <c r="AT32" t="n">
+      <c r="AW32" t="n">
         <v>6800</v>
       </c>
-      <c r="AU32" t="n">
+      <c r="AX32" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV32" t="n">
+      <c r="AY32" t="n">
         <v>59</v>
       </c>
     </row>
@@ -5476,59 +5770,68 @@
       <c r="AE33" t="n">
         <v>31</v>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AF33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI33" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/186-danregn-bonus-95</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
         <v>1</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AK33" t="n">
         <v>95</v>
       </c>
-      <c r="AI33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ33" t="n">
+      <c r="AL33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM33" t="n">
         <v>13</v>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="AL33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM33" t="n">
+      <c r="AO33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP33" t="n">
         <v>24.5</v>
       </c>
-      <c r="AN33" t="n">
+      <c r="AQ33" t="n">
         <v>28</v>
       </c>
-      <c r="AO33" t="n">
+      <c r="AR33" t="n">
         <v>435731</v>
       </c>
-      <c r="AP33" t="n">
+      <c r="AS33" t="n">
         <v>15098</v>
       </c>
-      <c r="AQ33" t="n">
+      <c r="AT33" t="n">
         <v>59</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AU33" t="n">
         <v>17.7</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AV33" t="n">
         <v>4</v>
       </c>
-      <c r="AT33" t="n">
+      <c r="AW33" t="n">
         <v>6800</v>
       </c>
-      <c r="AU33" t="n">
+      <c r="AX33" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV33" t="n">
+      <c r="AY33" t="n">
         <v>59</v>
       </c>
     </row>
@@ -5628,59 +5931,68 @@
       <c r="AE34" t="n">
         <v>32</v>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AF34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2363-danregn-bonus-100</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
         <v>1</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AK34" t="n">
         <v>100</v>
       </c>
-      <c r="AI34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM34" t="n">
         <v>12</v>
       </c>
-      <c r="AK34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>19.4 m</t>
         </is>
       </c>
-      <c r="AL34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM34" t="n">
+      <c r="AO34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP34" t="n">
         <v>24.5</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AQ34" t="n">
         <v>28</v>
       </c>
-      <c r="AO34" t="n">
+      <c r="AR34" t="n">
         <v>458231</v>
       </c>
-      <c r="AP34" t="n">
+      <c r="AS34" t="n">
         <v>15548</v>
       </c>
-      <c r="AQ34" t="n">
+      <c r="AT34" t="n">
         <v>59</v>
       </c>
-      <c r="AR34" t="n">
+      <c r="AU34" t="n">
         <v>17.7</v>
       </c>
-      <c r="AS34" t="n">
+      <c r="AV34" t="n">
         <v>4</v>
       </c>
-      <c r="AT34" t="n">
+      <c r="AW34" t="n">
         <v>6800</v>
       </c>
-      <c r="AU34" t="n">
+      <c r="AX34" t="n">
         <v>0.41</v>
       </c>
-      <c r="AV34" t="n">
+      <c r="AY34" t="n">
         <v>59</v>
       </c>
     </row>
@@ -5780,59 +6092,68 @@
       <c r="AE35" t="n">
         <v>33</v>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AF35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI35" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/605-enercon-e-16</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
         <v>1</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AK35" t="n">
         <v>55</v>
       </c>
-      <c r="AI35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AL35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM35" t="n">
         <v>12</v>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>16.2 m</t>
         </is>
       </c>
-      <c r="AL35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM35" t="n">
+      <c r="AO35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP35" t="n">
         <v>28.5</v>
       </c>
-      <c r="AN35" t="n">
+      <c r="AQ35" t="n">
         <v>25</v>
       </c>
-      <c r="AO35" t="n">
+      <c r="AR35" t="n">
         <v>255731</v>
       </c>
-      <c r="AP35" t="n">
+      <c r="AS35" t="n">
         <v>11498</v>
       </c>
-      <c r="AQ35" t="n">
+      <c r="AT35" t="n">
         <v>57</v>
       </c>
-      <c r="AR35" t="n">
+      <c r="AU35" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS35" t="n">
+      <c r="AV35" t="n">
         <v>4</v>
       </c>
-      <c r="AT35" t="n">
+      <c r="AW35" t="n">
         <v>6800</v>
       </c>
-      <c r="AU35" t="n">
+      <c r="AX35" t="n">
         <v>0.35</v>
       </c>
-      <c r="AV35" t="n">
+      <c r="AY35" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5932,59 +6253,68 @@
       <c r="AE36" t="n">
         <v>34</v>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AF36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/320-enercon-e-17</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AJ36" t="n">
         <v>1</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AK36" t="n">
         <v>80</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AL36" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AM36" t="n">
         <v>13</v>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>17.2 m</t>
         </is>
       </c>
-      <c r="AL36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM36" t="n">
+      <c r="AO36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP36" t="n">
         <v>30.5</v>
       </c>
-      <c r="AN36" t="n">
+      <c r="AQ36" t="n">
         <v>25</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AR36" t="n">
         <v>366531</v>
       </c>
-      <c r="AP36" t="n">
+      <c r="AS36" t="n">
         <v>13748</v>
       </c>
-      <c r="AQ36" t="n">
+      <c r="AT36" t="n">
         <v>42</v>
       </c>
-      <c r="AR36" t="n">
+      <c r="AU36" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT36" t="n">
+      <c r="AV36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW36" t="n">
         <v>5100</v>
       </c>
-      <c r="AU36" t="n">
+      <c r="AX36" t="n">
         <v>0.36</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AY36" t="n">
         <v>42</v>
       </c>
     </row>
@@ -6084,59 +6414,68 @@
       <c r="AE37" t="n">
         <v>35</v>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AF37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI37" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1675-greenstorm-gs-21-s</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
         <v>1</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AK37" t="n">
         <v>60</v>
       </c>
-      <c r="AI37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AL37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM37" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>22.3 m</t>
         </is>
       </c>
-      <c r="AL37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM37" t="n">
+      <c r="AO37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP37" t="n">
         <v>36</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AQ37" t="n">
         <v>25</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AR37" t="n">
         <v>278231</v>
       </c>
-      <c r="AP37" t="n">
+      <c r="AS37" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AT37" t="n">
         <v>57</v>
       </c>
-      <c r="AR37" t="n">
+      <c r="AU37" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS37" t="n">
+      <c r="AV37" t="n">
         <v>4</v>
       </c>
-      <c r="AT37" t="n">
+      <c r="AW37" t="n">
         <v>6800</v>
       </c>
-      <c r="AU37" t="n">
+      <c r="AX37" t="n">
         <v>0.31</v>
       </c>
-      <c r="AV37" t="n">
+      <c r="AY37" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6236,59 +6575,68 @@
       <c r="AE38" t="n">
         <v>36</v>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AF38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1698-weg-agw-100</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
         <v>1</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AK38" t="n">
         <v>95</v>
       </c>
-      <c r="AI38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ38" t="n">
+      <c r="AL38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM38" t="n">
         <v>12</v>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AL38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM38" t="n">
+      <c r="AO38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP38" t="n">
         <v>37</v>
       </c>
-      <c r="AN38" t="n">
+      <c r="AQ38" t="n">
         <v>25</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AR38" t="n">
         <v>435731</v>
       </c>
-      <c r="AP38" t="n">
+      <c r="AS38" t="n">
         <v>15098</v>
       </c>
-      <c r="AQ38" t="n">
+      <c r="AT38" t="n">
         <v>57</v>
       </c>
-      <c r="AR38" t="n">
+      <c r="AU38" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS38" t="n">
+      <c r="AV38" t="n">
         <v>4</v>
       </c>
-      <c r="AT38" t="n">
+      <c r="AW38" t="n">
         <v>6800</v>
       </c>
-      <c r="AU38" t="n">
+      <c r="AX38" t="n">
         <v>0.31</v>
       </c>
-      <c r="AV38" t="n">
+      <c r="AY38" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6388,59 +6736,68 @@
       <c r="AE39" t="n">
         <v>37</v>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AF39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI39" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2053-iskra-at5-1</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AJ39" t="n">
         <v>1</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
         <v>5</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AL39" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AM39" t="n">
         <v>12</v>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>5.4 m</t>
         </is>
       </c>
-      <c r="AL39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM39" t="n">
+      <c r="AO39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP39" t="n">
         <v>15</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AQ39" t="n">
         <v>60</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AR39" t="n">
         <v>34131</v>
       </c>
-      <c r="AP39" t="n">
+      <c r="AS39" t="n">
         <v>6998</v>
       </c>
-      <c r="AQ39" t="n">
+      <c r="AT39" t="n">
         <v>91</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AU39" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS39" t="n">
+      <c r="AV39" t="n">
         <v>6</v>
       </c>
-      <c r="AT39" t="n">
+      <c r="AW39" t="n">
         <v>10200</v>
       </c>
-      <c r="AU39" t="n">
+      <c r="AX39" t="n">
         <v>1.25</v>
       </c>
-      <c r="AV39" t="n">
+      <c r="AY39" t="n">
         <v>91</v>
       </c>
     </row>
@@ -6540,57 +6897,66 @@
       <c r="AE40" t="n">
         <v>38</v>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AF40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI40" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/537-jacobs-wind-electric-31-20</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AJ40" t="n">
         <v>1</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AK40" t="n">
         <v>20</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AL40" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr">
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
         <is>
           <t>9.5 m</t>
         </is>
       </c>
-      <c r="AL40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM40" t="n">
+      <c r="AO40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP40" t="n">
         <v>48.5</v>
       </c>
-      <c r="AN40" t="n">
+      <c r="AQ40" t="n">
         <v>30</v>
       </c>
-      <c r="AO40" t="n">
+      <c r="AR40" t="n">
         <v>101631</v>
       </c>
-      <c r="AP40" t="n">
+      <c r="AS40" t="n">
         <v>8348</v>
       </c>
-      <c r="AQ40" t="n">
+      <c r="AT40" t="n">
         <v>91</v>
       </c>
-      <c r="AR40" t="n">
+      <c r="AU40" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS40" t="n">
+      <c r="AV40" t="n">
         <v>6</v>
       </c>
-      <c r="AT40" t="n">
+      <c r="AW40" t="n">
         <v>10200</v>
       </c>
-      <c r="AU40" t="n">
+      <c r="AX40" t="n">
         <v>0.79</v>
       </c>
-      <c r="AV40" t="n">
+      <c r="AY40" t="n">
         <v>91</v>
       </c>
     </row>
@@ -6690,59 +7056,68 @@
       <c r="AE41" t="n">
         <v>39</v>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AF41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI41" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/324-krogmann-15-50</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AJ41" t="n">
         <v>1</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AK41" t="n">
         <v>50</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AL41" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AM41" t="n">
         <v>14</v>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>15.0 m</t>
         </is>
       </c>
-      <c r="AL41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM41" t="n">
+      <c r="AO41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP41" t="n">
         <v>37</v>
       </c>
-      <c r="AN41" t="n">
+      <c r="AQ41" t="n">
         <v>25</v>
       </c>
-      <c r="AO41" t="n">
+      <c r="AR41" t="n">
         <v>236631</v>
       </c>
-      <c r="AP41" t="n">
+      <c r="AS41" t="n">
         <v>11048</v>
       </c>
-      <c r="AQ41" t="n">
+      <c r="AT41" t="n">
         <v>91</v>
       </c>
-      <c r="AR41" t="n">
+      <c r="AU41" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS41" t="n">
+      <c r="AV41" t="n">
         <v>6</v>
       </c>
-      <c r="AT41" t="n">
+      <c r="AW41" t="n">
         <v>10200</v>
       </c>
-      <c r="AU41" t="n">
+      <c r="AX41" t="n">
         <v>0.45</v>
       </c>
-      <c r="AV41" t="n">
+      <c r="AY41" t="n">
         <v>91</v>
       </c>
     </row>
@@ -6842,59 +7217,68 @@
       <c r="AE42" t="n">
         <v>40</v>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AF42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/679-kuriant-ke-18-4eh</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AJ42" t="n">
         <v>1</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AK42" t="n">
         <v>18</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AL42" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AM42" t="n">
         <v>23</v>
       </c>
-      <c r="AK42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>10.9 m</t>
         </is>
       </c>
-      <c r="AL42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM42" t="n">
+      <c r="AO42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP42" t="n">
         <v>20</v>
       </c>
-      <c r="AN42" t="n">
+      <c r="AQ42" t="n">
         <v>25</v>
       </c>
-      <c r="AO42" t="n">
+      <c r="AR42" t="n">
         <v>92631</v>
       </c>
-      <c r="AP42" t="n">
+      <c r="AS42" t="n">
         <v>8168</v>
       </c>
-      <c r="AQ42" t="n">
+      <c r="AT42" t="n">
         <v>91</v>
       </c>
-      <c r="AR42" t="n">
+      <c r="AU42" t="n">
         <v>27.3</v>
       </c>
-      <c r="AS42" t="n">
+      <c r="AV42" t="n">
         <v>6</v>
       </c>
-      <c r="AT42" t="n">
+      <c r="AW42" t="n">
         <v>10200</v>
       </c>
-      <c r="AU42" t="n">
+      <c r="AX42" t="n">
         <v>0.75</v>
       </c>
-      <c r="AV42" t="n">
+      <c r="AY42" t="n">
         <v>91</v>
       </c>
     </row>
@@ -6994,59 +7378,68 @@
       <c r="AE43" t="n">
         <v>41</v>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AF43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1816-leitwind-ltw42-250</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AJ43" t="n">
         <v>1</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AK43" t="n">
         <v>250</v>
       </c>
-      <c r="AI43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ43" t="n">
+      <c r="AL43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM43" t="n">
         <v>9</v>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>42.0 m</t>
         </is>
       </c>
-      <c r="AL43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM43" t="n">
+      <c r="AO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP43" t="n">
         <v>19.47</v>
       </c>
-      <c r="AN43" t="n">
+      <c r="AQ43" t="n">
         <v>25</v>
       </c>
-      <c r="AO43" t="n">
+      <c r="AR43" t="n">
         <v>1133231</v>
       </c>
-      <c r="AP43" t="n">
+      <c r="AS43" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ43" t="n">
+      <c r="AT43" t="n">
         <v>57</v>
       </c>
-      <c r="AR43" t="n">
+      <c r="AU43" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS43" t="n">
+      <c r="AV43" t="n">
         <v>4</v>
       </c>
-      <c r="AT43" t="n">
+      <c r="AW43" t="n">
         <v>6800</v>
       </c>
-      <c r="AU43" t="n">
+      <c r="AX43" t="n">
         <v>0.25</v>
       </c>
-      <c r="AV43" t="n">
+      <c r="AY43" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7146,59 +7539,68 @@
       <c r="AE44" t="n">
         <v>42</v>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AF44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1412-man-aeroman-11-11</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AJ44" t="n">
         <v>1</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AK44" t="n">
         <v>11</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AL44" t="n">
         <v>3.8</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AM44" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>11.6 m</t>
         </is>
       </c>
-      <c r="AL44" t="n">
+      <c r="AO44" t="n">
         <v>2</v>
       </c>
-      <c r="AM44" t="n">
+      <c r="AP44" t="n">
         <v>10</v>
       </c>
-      <c r="AN44" t="n">
+      <c r="AQ44" t="n">
         <v>24</v>
       </c>
-      <c r="AO44" t="n">
+      <c r="AR44" t="n">
         <v>61131</v>
       </c>
-      <c r="AP44" t="n">
+      <c r="AS44" t="n">
         <v>7538</v>
       </c>
-      <c r="AQ44" t="n">
+      <c r="AT44" t="n">
         <v>95</v>
       </c>
-      <c r="AR44" t="n">
+      <c r="AU44" t="n">
         <v>28.5</v>
       </c>
-      <c r="AS44" t="n">
+      <c r="AV44" t="n">
         <v>6</v>
       </c>
-      <c r="AT44" t="n">
+      <c r="AW44" t="n">
         <v>10200</v>
       </c>
-      <c r="AU44" t="n">
+      <c r="AX44" t="n">
         <v>0.67</v>
       </c>
-      <c r="AV44" t="n">
+      <c r="AY44" t="n">
         <v>95</v>
       </c>
     </row>
@@ -7298,59 +7700,68 @@
       <c r="AE45" t="n">
         <v>43</v>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AF45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI45" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/24-nordex-n27-150</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AJ45" t="n">
         <v>1</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AK45" t="n">
         <v>150</v>
       </c>
-      <c r="AI45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AL45" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM45" t="n">
+      <c r="AO45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP45" t="n">
         <v>50</v>
       </c>
-      <c r="AN45" t="n">
+      <c r="AQ45" t="n">
         <v>25</v>
       </c>
-      <c r="AO45" t="n">
+      <c r="AR45" t="n">
         <v>690031</v>
       </c>
-      <c r="AP45" t="n">
+      <c r="AS45" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ45" t="n">
+      <c r="AT45" t="n">
         <v>135</v>
       </c>
-      <c r="AR45" t="n">
+      <c r="AU45" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS45" t="n">
+      <c r="AV45" t="n">
         <v>8</v>
       </c>
-      <c r="AT45" t="n">
+      <c r="AW45" t="n">
         <v>13600</v>
       </c>
-      <c r="AU45" t="n">
+      <c r="AX45" t="n">
         <v>0.36</v>
       </c>
-      <c r="AV45" t="n">
+      <c r="AY45" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7450,59 +7861,68 @@
       <c r="AE46" t="n">
         <v>44</v>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AF46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1089-nordex-n27-250</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AJ46" t="n">
         <v>1</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AK46" t="n">
         <v>250</v>
       </c>
-      <c r="AI46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ46" t="n">
+      <c r="AL46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" t="n">
         <v>15.5</v>
       </c>
-      <c r="AK46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AL46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM46" t="n">
+      <c r="AO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP46" t="n">
         <v>50</v>
       </c>
-      <c r="AN46" t="n">
+      <c r="AQ46" t="n">
         <v>25</v>
       </c>
-      <c r="AO46" t="n">
+      <c r="AR46" t="n">
         <v>1140031</v>
       </c>
-      <c r="AP46" t="n">
+      <c r="AS46" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ46" t="n">
+      <c r="AT46" t="n">
         <v>135</v>
       </c>
-      <c r="AR46" t="n">
+      <c r="AU46" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS46" t="n">
+      <c r="AV46" t="n">
         <v>8</v>
       </c>
-      <c r="AT46" t="n">
+      <c r="AW46" t="n">
         <v>13600</v>
       </c>
-      <c r="AU46" t="n">
+      <c r="AX46" t="n">
         <v>0.6</v>
       </c>
-      <c r="AV46" t="n">
+      <c r="AY46" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7602,59 +8022,68 @@
       <c r="AE47" t="n">
         <v>45</v>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AF47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI47" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/56-nordex-n29</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AJ47" t="n">
         <v>1</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AK47" t="n">
         <v>250</v>
       </c>
-      <c r="AI47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ47" t="n">
+      <c r="AL47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" t="n">
         <v>15</v>
       </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>29.7 m</t>
         </is>
       </c>
-      <c r="AL47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM47" t="n">
+      <c r="AO47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP47" t="n">
         <v>50</v>
       </c>
-      <c r="AN47" t="n">
+      <c r="AQ47" t="n">
         <v>25</v>
       </c>
-      <c r="AO47" t="n">
+      <c r="AR47" t="n">
         <v>1143431</v>
       </c>
-      <c r="AP47" t="n">
+      <c r="AS47" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ47" t="n">
+      <c r="AT47" t="n">
         <v>162</v>
       </c>
-      <c r="AR47" t="n">
+      <c r="AU47" t="n">
         <v>48.6</v>
       </c>
-      <c r="AS47" t="n">
+      <c r="AV47" t="n">
         <v>10</v>
       </c>
-      <c r="AT47" t="n">
+      <c r="AW47" t="n">
         <v>17000</v>
       </c>
-      <c r="AU47" t="n">
+      <c r="AX47" t="n">
         <v>0.51</v>
       </c>
-      <c r="AV47" t="n">
+      <c r="AY47" t="n">
         <v>162</v>
       </c>
     </row>
@@ -7754,59 +8183,68 @@
       <c r="AE48" t="n">
         <v>46</v>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AF48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/166-nordtank-ntk-150</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AJ48" t="n">
         <v>1</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AK48" t="n">
         <v>150</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AL48" t="n">
         <v>4</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AM48" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>24.6 m</t>
         </is>
       </c>
-      <c r="AL48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM48" t="n">
+      <c r="AO48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP48" t="n">
         <v>32.5</v>
       </c>
-      <c r="AN48" t="n">
+      <c r="AQ48" t="n">
         <v>25</v>
       </c>
-      <c r="AO48" t="n">
+      <c r="AR48" t="n">
         <v>690031</v>
       </c>
-      <c r="AP48" t="n">
+      <c r="AS48" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ48" t="n">
+      <c r="AT48" t="n">
         <v>135</v>
       </c>
-      <c r="AR48" t="n">
+      <c r="AU48" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS48" t="n">
+      <c r="AV48" t="n">
         <v>8</v>
       </c>
-      <c r="AT48" t="n">
+      <c r="AW48" t="n">
         <v>13600</v>
       </c>
-      <c r="AU48" t="n">
+      <c r="AX48" t="n">
         <v>0.39</v>
       </c>
-      <c r="AV48" t="n">
+      <c r="AY48" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7906,59 +8344,68 @@
       <c r="AE49" t="n">
         <v>47</v>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AF49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI49" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1355-nordtank-ntk-200</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AJ49" t="n">
         <v>1</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AK49" t="n">
         <v>200</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AL49" t="n">
         <v>4</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AM49" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>28.0 m</t>
         </is>
       </c>
-      <c r="AL49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM49" t="n">
+      <c r="AO49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP49" t="n">
         <v>30</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AQ49" t="n">
         <v>25</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AR49" t="n">
         <v>915031</v>
       </c>
-      <c r="AP49" t="n">
+      <c r="AS49" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ49" t="n">
+      <c r="AT49" t="n">
         <v>135</v>
       </c>
-      <c r="AR49" t="n">
+      <c r="AU49" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS49" t="n">
+      <c r="AV49" t="n">
         <v>8</v>
       </c>
-      <c r="AT49" t="n">
+      <c r="AW49" t="n">
         <v>13600</v>
       </c>
-      <c r="AU49" t="n">
+      <c r="AX49" t="n">
         <v>0.34</v>
       </c>
-      <c r="AV49" t="n">
+      <c r="AY49" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8058,59 +8505,68 @@
       <c r="AE50" t="n">
         <v>48</v>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AF50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI50" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1270-nps-northern-power-nps-60-24</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AJ50" t="n">
         <v>1</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AK50" t="n">
         <v>60</v>
       </c>
-      <c r="AI50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ50" t="n">
+      <c r="AL50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM50" t="n">
         <v>11</v>
       </c>
-      <c r="AK50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AL50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM50" t="n">
+      <c r="AO50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP50" t="n">
         <v>37</v>
       </c>
-      <c r="AN50" t="n">
+      <c r="AQ50" t="n">
         <v>25</v>
       </c>
-      <c r="AO50" t="n">
+      <c r="AR50" t="n">
         <v>278231</v>
       </c>
-      <c r="AP50" t="n">
+      <c r="AS50" t="n">
         <v>11948</v>
       </c>
-      <c r="AQ50" t="n">
+      <c r="AT50" t="n">
         <v>57</v>
       </c>
-      <c r="AR50" t="n">
+      <c r="AU50" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS50" t="n">
+      <c r="AV50" t="n">
         <v>4</v>
       </c>
-      <c r="AT50" t="n">
+      <c r="AW50" t="n">
         <v>6800</v>
       </c>
-      <c r="AU50" t="n">
+      <c r="AX50" t="n">
         <v>0.31</v>
       </c>
-      <c r="AV50" t="n">
+      <c r="AY50" t="n">
         <v>57</v>
       </c>
     </row>
@@ -8210,59 +8666,68 @@
       <c r="AE51" t="n">
         <v>49</v>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AF51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>49</v>
+      </c>
+      <c r="AI51" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/365-nps-northern-power-nps-100c-24</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AJ51" t="n">
         <v>1</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AK51" t="n">
         <v>100</v>
       </c>
-      <c r="AI51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ51" t="n">
+      <c r="AL51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM51" t="n">
         <v>12</v>
       </c>
-      <c r="AK51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>24.4 m</t>
         </is>
       </c>
-      <c r="AL51" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM51" t="n">
+      <c r="AO51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP51" t="n">
         <v>37</v>
       </c>
-      <c r="AN51" t="n">
+      <c r="AQ51" t="n">
         <v>25</v>
       </c>
-      <c r="AO51" t="n">
+      <c r="AR51" t="n">
         <v>458231</v>
       </c>
-      <c r="AP51" t="n">
+      <c r="AS51" t="n">
         <v>15548</v>
       </c>
-      <c r="AQ51" t="n">
+      <c r="AT51" t="n">
         <v>57</v>
       </c>
-      <c r="AR51" t="n">
+      <c r="AU51" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS51" t="n">
+      <c r="AV51" t="n">
         <v>4</v>
       </c>
-      <c r="AT51" t="n">
+      <c r="AW51" t="n">
         <v>6800</v>
       </c>
-      <c r="AU51" t="n">
+      <c r="AX51" t="n">
         <v>0.32</v>
       </c>
-      <c r="AV51" t="n">
+      <c r="AY51" t="n">
         <v>57</v>
       </c>
     </row>
@@ -8362,57 +8827,66 @@
       <c r="AE52" t="n">
         <v>50</v>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AF52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI52" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/225-norwin-24-stall-150</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AJ52" t="n">
         <v>1</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AK52" t="n">
         <v>150</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AL52" t="n">
         <v>4</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AM52" t="n">
         <v>14</v>
       </c>
-      <c r="AK52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>24.0 m</t>
         </is>
       </c>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="n">
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="n">
         <v>30</v>
       </c>
-      <c r="AN52" t="n">
+      <c r="AQ52" t="n">
         <v>25</v>
       </c>
-      <c r="AO52" t="n">
+      <c r="AR52" t="n">
         <v>690031</v>
       </c>
-      <c r="AP52" t="n">
+      <c r="AS52" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ52" t="n">
+      <c r="AT52" t="n">
         <v>135</v>
       </c>
-      <c r="AR52" t="n">
+      <c r="AU52" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS52" t="n">
+      <c r="AV52" t="n">
         <v>8</v>
       </c>
-      <c r="AT52" t="n">
+      <c r="AW52" t="n">
         <v>13600</v>
       </c>
-      <c r="AU52" t="n">
+      <c r="AX52" t="n">
         <v>0.46</v>
       </c>
-      <c r="AV52" t="n">
+      <c r="AY52" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8512,59 +8986,68 @@
       <c r="AE53" t="n">
         <v>51</v>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AF53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI53" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/226-norwin-29-stall-225</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AJ53" t="n">
         <v>1</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AK53" t="n">
         <v>225</v>
       </c>
-      <c r="AI53" t="n">
+      <c r="AL53" t="n">
         <v>4</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AM53" t="n">
         <v>14</v>
       </c>
-      <c r="AK53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>29.1 m</t>
         </is>
       </c>
-      <c r="AL53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM53" t="n">
+      <c r="AO53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP53" t="n">
         <v>40</v>
       </c>
-      <c r="AN53" t="n">
+      <c r="AQ53" t="n">
         <v>25</v>
       </c>
-      <c r="AO53" t="n">
+      <c r="AR53" t="n">
         <v>1030931</v>
       </c>
-      <c r="AP53" t="n">
+      <c r="AS53" t="n">
         <v>26798</v>
       </c>
-      <c r="AQ53" t="n">
+      <c r="AT53" t="n">
         <v>164</v>
       </c>
-      <c r="AR53" t="n">
+      <c r="AU53" t="n">
         <v>49.2</v>
       </c>
-      <c r="AS53" t="n">
+      <c r="AV53" t="n">
         <v>10</v>
       </c>
-      <c r="AT53" t="n">
+      <c r="AW53" t="n">
         <v>17000</v>
       </c>
-      <c r="AU53" t="n">
+      <c r="AX53" t="n">
         <v>0.65</v>
       </c>
-      <c r="AV53" t="n">
+      <c r="AY53" t="n">
         <v>164</v>
       </c>
     </row>
@@ -8664,59 +9147,68 @@
       <c r="AE54" t="n">
         <v>52</v>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AF54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AI54" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2422-ropatec-3kw</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AJ54" t="n">
         <v>1</v>
       </c>
-      <c r="AH54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI54" t="n">
+      <c r="AK54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL54" t="n">
         <v>4</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AM54" t="n">
         <v>13</v>
       </c>
-      <c r="AK54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>3.3 m</t>
         </is>
       </c>
-      <c r="AL54" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM54" t="n">
+      <c r="AO54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP54" t="n">
         <v>10.9</v>
       </c>
-      <c r="AN54" t="n">
+      <c r="AQ54" t="n">
         <v>17</v>
       </c>
-      <c r="AO54" t="n">
+      <c r="AR54" t="n">
         <v>31931</v>
       </c>
-      <c r="AP54" t="n">
+      <c r="AS54" t="n">
         <v>6818</v>
       </c>
-      <c r="AQ54" t="n">
+      <c r="AT54" t="n">
         <v>162</v>
       </c>
-      <c r="AR54" t="n">
+      <c r="AU54" t="n">
         <v>48.6</v>
       </c>
-      <c r="AS54" t="n">
+      <c r="AV54" t="n">
         <v>10</v>
       </c>
-      <c r="AT54" t="n">
+      <c r="AW54" t="n">
         <v>17000</v>
       </c>
-      <c r="AU54" t="n">
+      <c r="AX54" t="n">
         <v>3.34</v>
       </c>
-      <c r="AV54" t="n">
+      <c r="AY54" t="n">
         <v>162</v>
       </c>
     </row>
@@ -8816,59 +9308,68 @@
       <c r="AE55" t="n">
         <v>53</v>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AF55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI55" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/477-siva-250-50</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AJ55" t="n">
         <v>1</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AK55" t="n">
         <v>250</v>
       </c>
-      <c r="AI55" t="n">
+      <c r="AL55" t="n">
         <v>4</v>
       </c>
-      <c r="AJ55" t="n">
+      <c r="AM55" t="n">
         <v>14</v>
       </c>
-      <c r="AK55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="AL55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM55" t="n">
+      <c r="AO55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP55" t="n">
         <v>48.4</v>
       </c>
-      <c r="AN55" t="n">
+      <c r="AQ55" t="n">
         <v>25</v>
       </c>
-      <c r="AO55" t="n">
+      <c r="AR55" t="n">
         <v>1140031</v>
       </c>
-      <c r="AP55" t="n">
+      <c r="AS55" t="n">
         <v>29048</v>
       </c>
-      <c r="AQ55" t="n">
+      <c r="AT55" t="n">
         <v>135</v>
       </c>
-      <c r="AR55" t="n">
+      <c r="AU55" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS55" t="n">
+      <c r="AV55" t="n">
         <v>8</v>
       </c>
-      <c r="AT55" t="n">
+      <c r="AW55" t="n">
         <v>13600</v>
       </c>
-      <c r="AU55" t="n">
+      <c r="AX55" t="n">
         <v>0.41</v>
       </c>
-      <c r="AV55" t="n">
+      <c r="AY55" t="n">
         <v>135</v>
       </c>
     </row>
@@ -8968,59 +9469,68 @@
       <c r="AE56" t="n">
         <v>54</v>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AF56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI56" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1398-tacke-tw-45</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AJ56" t="n">
         <v>1</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AK56" t="n">
         <v>45</v>
       </c>
-      <c r="AI56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ56" t="n">
+      <c r="AL56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM56" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>12.5 m</t>
         </is>
       </c>
-      <c r="AL56" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM56" t="n">
+      <c r="AO56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP56" t="n">
         <v>24</v>
       </c>
-      <c r="AN56" t="n">
+      <c r="AQ56" t="n">
         <v>20</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AR56" t="n">
         <v>210731</v>
       </c>
-      <c r="AP56" t="n">
+      <c r="AS56" t="n">
         <v>10598</v>
       </c>
-      <c r="AQ56" t="n">
+      <c r="AT56" t="n">
         <v>57</v>
       </c>
-      <c r="AR56" t="n">
+      <c r="AU56" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS56" t="n">
+      <c r="AV56" t="n">
         <v>4</v>
       </c>
-      <c r="AT56" t="n">
+      <c r="AW56" t="n">
         <v>6800</v>
       </c>
-      <c r="AU56" t="n">
+      <c r="AX56" t="n">
         <v>0.48</v>
       </c>
-      <c r="AV56" t="n">
+      <c r="AY56" t="n">
         <v>57</v>
       </c>
     </row>
@@ -9120,59 +9630,68 @@
       <c r="AE57" t="n">
         <v>55</v>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AF57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI57" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/263-tacke-tw-80</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AJ57" t="n">
         <v>1</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AK57" t="n">
         <v>80</v>
       </c>
-      <c r="AI57" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ57" t="n">
+      <c r="AL57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM57" t="n">
         <v>11.5</v>
       </c>
-      <c r="AK57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>21.0 m</t>
         </is>
       </c>
-      <c r="AL57" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM57" t="n">
+      <c r="AO57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP57" t="n">
         <v>40</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AQ57" t="n">
         <v>25</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AR57" t="n">
         <v>368231</v>
       </c>
-      <c r="AP57" t="n">
+      <c r="AS57" t="n">
         <v>13748</v>
       </c>
-      <c r="AQ57" t="n">
+      <c r="AT57" t="n">
         <v>57</v>
       </c>
-      <c r="AR57" t="n">
+      <c r="AU57" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS57" t="n">
+      <c r="AV57" t="n">
         <v>4</v>
       </c>
-      <c r="AT57" t="n">
+      <c r="AW57" t="n">
         <v>6800</v>
       </c>
-      <c r="AU57" t="n">
+      <c r="AX57" t="n">
         <v>0.38</v>
       </c>
-      <c r="AV57" t="n">
+      <c r="AY57" t="n">
         <v>57</v>
       </c>
     </row>
@@ -9272,59 +9791,68 @@
       <c r="AE58" t="n">
         <v>56</v>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AF58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>56</v>
+      </c>
+      <c r="AI58" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/673-tellus-t-1780</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AJ58" t="n">
         <v>1</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AK58" t="n">
         <v>80</v>
       </c>
-      <c r="AI58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ58" t="n">
+      <c r="AL58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM58" t="n">
         <v>14</v>
       </c>
-      <c r="AK58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>17.0 m</t>
         </is>
       </c>
-      <c r="AL58" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM58" t="n">
+      <c r="AO58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP58" t="n">
         <v>40.8</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AQ58" t="n">
         <v>28</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AR58" t="n">
         <v>368231</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AS58" t="n">
         <v>13748</v>
       </c>
-      <c r="AQ58" t="n">
+      <c r="AT58" t="n">
         <v>57</v>
       </c>
-      <c r="AR58" t="n">
+      <c r="AU58" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS58" t="n">
+      <c r="AV58" t="n">
         <v>4</v>
       </c>
-      <c r="AT58" t="n">
+      <c r="AW58" t="n">
         <v>6800</v>
       </c>
-      <c r="AU58" t="n">
+      <c r="AX58" t="n">
         <v>0.38</v>
       </c>
-      <c r="AV58" t="n">
+      <c r="AY58" t="n">
         <v>57</v>
       </c>
     </row>
@@ -9424,59 +9952,68 @@
       <c r="AE59" t="n">
         <v>57</v>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AF59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AI59" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2134-wind-turbine-company-wtc-100</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AJ59" t="n">
         <v>1</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AK59" t="n">
         <v>100</v>
       </c>
-      <c r="AI59" t="n">
+      <c r="AL59" t="n">
         <v>2.5</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AM59" t="n">
         <v>11</v>
       </c>
-      <c r="AK59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>26.0 m</t>
         </is>
       </c>
-      <c r="AL59" t="n">
+      <c r="AO59" t="n">
         <v>2</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AP59" t="n">
         <v>50</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AQ59" t="n">
         <v>20</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AR59" t="n">
         <v>456531</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AS59" t="n">
         <v>15548</v>
       </c>
-      <c r="AQ59" t="n">
+      <c r="AT59" t="n">
         <v>42</v>
       </c>
-      <c r="AR59" t="n">
+      <c r="AU59" t="n">
         <v>12.6</v>
       </c>
-      <c r="AS59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT59" t="n">
+      <c r="AV59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW59" t="n">
         <v>5100</v>
       </c>
-      <c r="AU59" t="n">
+      <c r="AX59" t="n">
         <v>0.29</v>
       </c>
-      <c r="AV59" t="n">
+      <c r="AY59" t="n">
         <v>42</v>
       </c>
     </row>
@@ -9576,59 +10113,68 @@
       <c r="AE60" t="n">
         <v>58</v>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AF60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>58</v>
+      </c>
+      <c r="AI60" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1636-tuge-10-kw</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AJ60" t="n">
         <v>1</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AK60" t="n">
         <v>10</v>
       </c>
-      <c r="AI60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ60" t="n">
+      <c r="AL60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM60" t="n">
         <v>11</v>
       </c>
-      <c r="AK60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>10.2 m</t>
         </is>
       </c>
-      <c r="AL60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM60" t="n">
+      <c r="AO60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP60" t="n">
         <v>22</v>
       </c>
-      <c r="AN60" t="n">
+      <c r="AQ60" t="n">
         <v>25</v>
       </c>
-      <c r="AO60" t="n">
+      <c r="AR60" t="n">
         <v>60031</v>
       </c>
-      <c r="AP60" t="n">
+      <c r="AS60" t="n">
         <v>7448</v>
       </c>
-      <c r="AQ60" t="n">
+      <c r="AT60" t="n">
         <v>135</v>
       </c>
-      <c r="AR60" t="n">
+      <c r="AU60" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS60" t="n">
+      <c r="AV60" t="n">
         <v>8</v>
       </c>
-      <c r="AT60" t="n">
+      <c r="AW60" t="n">
         <v>13600</v>
       </c>
-      <c r="AU60" t="n">
+      <c r="AX60" t="n">
         <v>0.95</v>
       </c>
-      <c r="AV60" t="n">
+      <c r="AY60" t="n">
         <v>135</v>
       </c>
     </row>
@@ -9728,59 +10274,68 @@
       <c r="AE61" t="n">
         <v>59</v>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AF61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>59</v>
+      </c>
+      <c r="AI61" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1921-venturicon-3.zero</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AJ61" t="n">
         <v>1</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AK61" t="n">
         <v>3.2</v>
       </c>
-      <c r="AI61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ61" t="n">
+      <c r="AL61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM61" t="n">
         <v>18</v>
       </c>
-      <c r="AK61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>1.3 m</t>
         </is>
       </c>
-      <c r="AL61" t="n">
+      <c r="AO61" t="n">
         <v>5</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AP61" t="n">
         <v>4</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AQ61" t="n">
         <v>25</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AR61" t="n">
         <v>34531</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AS61" t="n">
         <v>6836</v>
       </c>
-      <c r="AQ61" t="n">
+      <c r="AT61" t="n">
         <v>173</v>
       </c>
-      <c r="AR61" t="n">
+      <c r="AU61" t="n">
         <v>51.9</v>
       </c>
-      <c r="AS61" t="n">
+      <c r="AV61" t="n">
         <v>11</v>
       </c>
-      <c r="AT61" t="n">
+      <c r="AW61" t="n">
         <v>18700</v>
       </c>
-      <c r="AU61" t="n">
+      <c r="AX61" t="n">
         <v>6.84</v>
       </c>
-      <c r="AV61" t="n">
+      <c r="AY61" t="n">
         <v>173</v>
       </c>
     </row>
@@ -9880,59 +10435,68 @@
       <c r="AE62" t="n">
         <v>60</v>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AF62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI62" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2007-vergnet-gev-mp-c-200-30</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AJ62" t="n">
         <v>1</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AK62" t="n">
         <v>200</v>
       </c>
-      <c r="AI62" t="n">
+      <c r="AL62" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AM62" t="n">
         <v>12</v>
       </c>
-      <c r="AK62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>30.0 m</t>
         </is>
       </c>
-      <c r="AL62" t="n">
+      <c r="AO62" t="n">
         <v>2</v>
       </c>
-      <c r="AM62" t="n">
+      <c r="AP62" t="n">
         <v>60</v>
       </c>
-      <c r="AN62" t="n">
+      <c r="AQ62" t="n">
         <v>25</v>
       </c>
-      <c r="AO62" t="n">
+      <c r="AR62" t="n">
         <v>911631</v>
       </c>
-      <c r="AP62" t="n">
+      <c r="AS62" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ62" t="n">
+      <c r="AT62" t="n">
         <v>92</v>
       </c>
-      <c r="AR62" t="n">
+      <c r="AU62" t="n">
         <v>27.6</v>
       </c>
-      <c r="AS62" t="n">
+      <c r="AV62" t="n">
         <v>6</v>
       </c>
-      <c r="AT62" t="n">
+      <c r="AW62" t="n">
         <v>10200</v>
       </c>
-      <c r="AU62" t="n">
+      <c r="AX62" t="n">
         <v>0.34</v>
       </c>
-      <c r="AV62" t="n">
+      <c r="AY62" t="n">
         <v>92</v>
       </c>
     </row>
@@ -10032,57 +10596,66 @@
       <c r="AE63" t="n">
         <v>61</v>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AF63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>61</v>
+      </c>
+      <c r="AI63" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/2004-vergnet-gev-mp-c-200-32</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AJ63" t="n">
         <v>1</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AK63" t="n">
         <v>200</v>
       </c>
-      <c r="AI63" t="n">
+      <c r="AL63" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr">
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr">
         <is>
           <t>32.0 m</t>
         </is>
       </c>
-      <c r="AL63" t="n">
+      <c r="AO63" t="n">
         <v>2</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AP63" t="n">
         <v>60</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AQ63" t="n">
         <v>25</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AR63" t="n">
         <v>911631</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AS63" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ63" t="n">
+      <c r="AT63" t="n">
         <v>92</v>
       </c>
-      <c r="AR63" t="n">
+      <c r="AU63" t="n">
         <v>27.6</v>
       </c>
-      <c r="AS63" t="n">
+      <c r="AV63" t="n">
         <v>6</v>
       </c>
-      <c r="AT63" t="n">
+      <c r="AW63" t="n">
         <v>10200</v>
       </c>
-      <c r="AU63" t="n">
+      <c r="AX63" t="n">
         <v>0.31</v>
       </c>
-      <c r="AV63" t="n">
+      <c r="AY63" t="n">
         <v>92</v>
       </c>
     </row>
@@ -10182,59 +10755,68 @@
       <c r="AE64" t="n">
         <v>62</v>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AF64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>62</v>
+      </c>
+      <c r="AI64" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/273-vestas-v29</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AJ64" t="n">
         <v>1</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AK64" t="n">
         <v>225</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AL64" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AM64" t="n">
         <v>14</v>
       </c>
-      <c r="AK64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>29.0 m</t>
         </is>
       </c>
-      <c r="AL64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM64" t="n">
+      <c r="AO64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP64" t="n">
         <v>51</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AQ64" t="n">
         <v>25</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AR64" t="n">
         <v>1024131</v>
       </c>
-      <c r="AP64" t="n">
+      <c r="AS64" t="n">
         <v>26798</v>
       </c>
-      <c r="AQ64" t="n">
+      <c r="AT64" t="n">
         <v>92</v>
       </c>
-      <c r="AR64" t="n">
+      <c r="AU64" t="n">
         <v>27.6</v>
       </c>
-      <c r="AS64" t="n">
+      <c r="AV64" t="n">
         <v>6</v>
       </c>
-      <c r="AT64" t="n">
+      <c r="AW64" t="n">
         <v>10200</v>
       </c>
-      <c r="AU64" t="n">
+      <c r="AX64" t="n">
         <v>0.4</v>
       </c>
-      <c r="AV64" t="n">
+      <c r="AY64" t="n">
         <v>92</v>
       </c>
     </row>
@@ -10334,59 +10916,68 @@
       <c r="AE65" t="n">
         <v>63</v>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AF65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>63</v>
+      </c>
+      <c r="AI65" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1549-wespa-200-29</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AJ65" t="n">
         <v>1</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AK65" t="n">
         <v>200</v>
       </c>
-      <c r="AI65" t="n">
+      <c r="AL65" t="n">
         <v>4</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AM65" t="n">
         <v>14</v>
       </c>
-      <c r="AK65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>29.8 m</t>
         </is>
       </c>
-      <c r="AL65" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM65" t="n">
+      <c r="AO65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP65" t="n">
         <v>50</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AQ65" t="n">
         <v>25</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AR65" t="n">
         <v>915031</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AS65" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ65" t="n">
+      <c r="AT65" t="n">
         <v>135</v>
       </c>
-      <c r="AR65" t="n">
+      <c r="AU65" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS65" t="n">
+      <c r="AV65" t="n">
         <v>8</v>
       </c>
-      <c r="AT65" t="n">
+      <c r="AW65" t="n">
         <v>13600</v>
       </c>
-      <c r="AU65" t="n">
+      <c r="AX65" t="n">
         <v>0.42</v>
       </c>
-      <c r="AV65" t="n">
+      <c r="AY65" t="n">
         <v>135</v>
       </c>
     </row>
@@ -10486,59 +11077,68 @@
       <c r="AE66" t="n">
         <v>64</v>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AF66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AI66" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1550-wespa-200-31</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AJ66" t="n">
         <v>1</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AK66" t="n">
         <v>200</v>
       </c>
-      <c r="AI66" t="n">
+      <c r="AL66" t="n">
         <v>4</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AM66" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>31.0 m</t>
         </is>
       </c>
-      <c r="AL66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM66" t="n">
+      <c r="AO66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP66" t="n">
         <v>50</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AQ66" t="n">
         <v>25</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AR66" t="n">
         <v>915031</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AS66" t="n">
         <v>24548</v>
       </c>
-      <c r="AQ66" t="n">
+      <c r="AT66" t="n">
         <v>135</v>
       </c>
-      <c r="AR66" t="n">
+      <c r="AU66" t="n">
         <v>40.5</v>
       </c>
-      <c r="AS66" t="n">
+      <c r="AV66" t="n">
         <v>8</v>
       </c>
-      <c r="AT66" t="n">
+      <c r="AW66" t="n">
         <v>13600</v>
       </c>
-      <c r="AU66" t="n">
+      <c r="AX66" t="n">
         <v>0.37</v>
       </c>
-      <c r="AV66" t="n">
+      <c r="AY66" t="n">
         <v>135</v>
       </c>
     </row>
@@ -10638,59 +11238,68 @@
       <c r="AE67" t="n">
         <v>65</v>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AF67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI67" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/238-wind-world-w2700</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AJ67" t="n">
         <v>1</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AK67" t="n">
         <v>150</v>
       </c>
-      <c r="AI67" t="n">
+      <c r="AL67" t="n">
         <v>2</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AM67" t="n">
         <v>11</v>
       </c>
-      <c r="AK67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>27.0 m</t>
         </is>
       </c>
-      <c r="AL67" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM67" t="n">
+      <c r="AO67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP67" t="n">
         <v>41</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AQ67" t="n">
         <v>25</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AR67" t="n">
         <v>683231</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AS67" t="n">
         <v>20048</v>
       </c>
-      <c r="AQ67" t="n">
+      <c r="AT67" t="n">
         <v>59</v>
       </c>
-      <c r="AR67" t="n">
+      <c r="AU67" t="n">
         <v>17.7</v>
       </c>
-      <c r="AS67" t="n">
+      <c r="AV67" t="n">
         <v>4</v>
       </c>
-      <c r="AT67" t="n">
+      <c r="AW67" t="n">
         <v>6800</v>
       </c>
-      <c r="AU67" t="n">
+      <c r="AX67" t="n">
         <v>0.32</v>
       </c>
-      <c r="AV67" t="n">
+      <c r="AY67" t="n">
         <v>59</v>
       </c>
     </row>
@@ -10790,59 +11399,68 @@
       <c r="AE68" t="n">
         <v>66</v>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AF68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AI68" t="inlineStr">
         <is>
           <t>https://en.wind-turbine-models.com/turbines/1372-windspot-7.5kw</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AJ68" t="n">
         <v>1</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AK68" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ68" t="n">
+      <c r="AL68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM68" t="n">
         <v>12</v>
       </c>
-      <c r="AK68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>6.3 m</t>
         </is>
       </c>
-      <c r="AL68" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM68" t="n">
+      <c r="AO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP68" t="n">
         <v>18</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AQ68" t="n">
         <v>20</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AR68" t="n">
         <v>41981</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AS68" t="n">
         <v>7223</v>
       </c>
-      <c r="AQ68" t="n">
+      <c r="AT68" t="n">
         <v>57</v>
       </c>
-      <c r="AR68" t="n">
+      <c r="AU68" t="n">
         <v>17.1</v>
       </c>
-      <c r="AS68" t="n">
+      <c r="AV68" t="n">
         <v>4</v>
       </c>
-      <c r="AT68" t="n">
+      <c r="AW68" t="n">
         <v>6800</v>
       </c>
-      <c r="AU68" t="n">
+      <c r="AX68" t="n">
         <v>0.87</v>
       </c>
-      <c r="AV68" t="n">
+      <c r="AY68" t="n">
         <v>57</v>
       </c>
     </row>
